--- a/43.xlsx
+++ b/43.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="983">
   <si>
     <t xml:space="preserve">كد  كالا   </t>
   </si>
@@ -669,7 +669,7 @@
     <t xml:space="preserve">         43001010090</t>
   </si>
   <si>
-    <t>بهران در فش 150</t>
+    <t>بهران درفش 150</t>
   </si>
   <si>
     <t>Morlina SD(Morlina SS2B150</t>
@@ -678,7 +678,7 @@
     <t xml:space="preserve">         43001010091</t>
   </si>
   <si>
-    <t>بهران در فش220</t>
+    <t>بهران درفش220</t>
   </si>
   <si>
     <t xml:space="preserve">         43001010092</t>
@@ -810,7 +810,7 @@
     <t xml:space="preserve">         43001010106</t>
   </si>
   <si>
-    <t>Wite Oil Pharmaceutical</t>
+    <t>White Oil Pharmaceutical</t>
   </si>
   <si>
     <t>Sell,Viscosity Gradw VG15</t>
@@ -1161,7 +1161,7 @@
     <t>SKF Grease</t>
   </si>
   <si>
-    <t>نيروگه</t>
+    <t>نيروگاه</t>
   </si>
   <si>
     <t>LGMT 3/1</t>
@@ -1453,9 +1453,6 @@
   </si>
   <si>
     <t>گريس بهران لعل</t>
-  </si>
-  <si>
-    <t>نيروگاه</t>
   </si>
   <si>
     <t>Calcium base NLGI Grade2</t>
@@ -3463,7 +3460,8 @@
     <col min="5" max="5" width="35.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="32.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="73.7142857142857" customWidth="1"/>
-    <col min="8" max="9" width="8.28571428571429" customWidth="1"/>
+    <col min="8" max="8" width="7.28571428571429" customWidth="1"/>
+    <col min="9" max="9" width="7.42857142857143" customWidth="1"/>
     <col min="10" max="10" width="6.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3522,10 +3520,10 @@
         <v>13</v>
       </c>
       <c r="H2" s="2">
-        <v>6243</v>
+        <v>1018</v>
       </c>
       <c r="I2" s="2">
-        <v>5225</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
         <v>1018</v>
@@ -3584,13 +3582,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="2">
-        <v>5852</v>
+        <v>4598</v>
       </c>
       <c r="I4" s="2">
-        <v>1254</v>
+        <v>418</v>
       </c>
       <c r="J4" s="2">
-        <v>4598</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75">
@@ -3616,14 +3614,12 @@
         <v>13</v>
       </c>
       <c r="H5" s="2">
-        <v>3553</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>3553</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="2" t="s">
@@ -3648,13 +3644,13 @@
         <v>13</v>
       </c>
       <c r="H6" s="2">
-        <v>1325</v>
+        <v>907</v>
       </c>
       <c r="I6" s="2">
-        <v>418</v>
+        <v>209</v>
       </c>
       <c r="J6" s="2">
-        <v>907</v>
+        <v>698</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75">
@@ -3680,13 +3676,13 @@
         <v>13</v>
       </c>
       <c r="H7" s="2">
-        <v>9007</v>
+        <v>3364</v>
       </c>
       <c r="I7" s="2">
-        <v>5643</v>
+        <v>627</v>
       </c>
       <c r="J7" s="2">
-        <v>3364</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75">
@@ -3772,10 +3768,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="2">
-        <v>3762</v>
+        <v>3553</v>
       </c>
       <c r="I10" s="2">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
         <v>3553</v>
@@ -3804,10 +3800,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="2">
-        <v>25787</v>
+        <v>24324</v>
       </c>
       <c r="I11" s="2">
-        <v>1463</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
         <v>24324</v>
@@ -4052,13 +4048,13 @@
         <v>13</v>
       </c>
       <c r="H19" s="2">
-        <v>3800</v>
+        <v>2200</v>
       </c>
       <c r="I19" s="2">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="J19" s="2">
-        <v>2200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.75">
@@ -4204,14 +4200,12 @@
         <v>13</v>
       </c>
       <c r="H24" s="2">
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>624</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="12.75">
       <c r="A25" s="2" t="s">
@@ -4268,14 +4262,12 @@
         <v>64</v>
       </c>
       <c r="H26" s="2">
-        <v>6032</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>6032</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="12.75">
       <c r="A27" s="2" t="s">
@@ -4300,14 +4292,12 @@
         <v>68</v>
       </c>
       <c r="H27" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>100</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="12.75">
       <c r="A28" s="2" t="s">
@@ -4332,14 +4322,12 @@
         <v>13</v>
       </c>
       <c r="H28" s="2">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>140</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="12.75">
       <c r="A29" s="2" t="s">
@@ -4364,10 +4352,10 @@
         <v>13</v>
       </c>
       <c r="H29" s="2">
-        <v>4180</v>
+        <v>2926</v>
       </c>
       <c r="I29" s="2">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="J29" s="2">
         <v>2926</v>
@@ -4426,13 +4414,13 @@
         <v>13</v>
       </c>
       <c r="H31" s="2">
-        <v>5434</v>
+        <v>3762</v>
       </c>
       <c r="I31" s="2">
-        <v>1672</v>
+        <v>209</v>
       </c>
       <c r="J31" s="2">
-        <v>3762</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75">
@@ -4550,14 +4538,12 @@
         <v>13</v>
       </c>
       <c r="H35" s="2">
-        <v>1664</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2">
-        <v>1664</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75">
       <c r="A36" s="2" t="s">
@@ -4582,14 +4568,12 @@
         <v>13</v>
       </c>
       <c r="H36" s="2">
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2">
-        <v>624</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75">
       <c r="A37" s="2" t="s">
@@ -4740,14 +4724,12 @@
         <v>64</v>
       </c>
       <c r="H41" s="2">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>416</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="12.75">
       <c r="A42" s="2" t="s">
@@ -4958,10 +4940,10 @@
         <v>64</v>
       </c>
       <c r="H48" s="2">
-        <v>7896</v>
+        <v>1456</v>
       </c>
       <c r="I48" s="2">
-        <v>6440</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2">
         <v>1456</v>
@@ -5020,14 +5002,12 @@
         <v>123</v>
       </c>
       <c r="H50" s="2">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2">
-        <v>208</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" ht="12.75">
       <c r="A51" s="2" t="s">
@@ -5268,10 +5248,10 @@
         <v>143</v>
       </c>
       <c r="H58" s="2">
-        <v>46819</v>
+        <v>46611</v>
       </c>
       <c r="I58" s="2">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="J58" s="2">
         <v>46611</v>
@@ -5332,10 +5312,10 @@
         <v>151</v>
       </c>
       <c r="H60" s="2">
-        <v>17272</v>
+        <v>5000</v>
       </c>
       <c r="I60" s="2">
-        <v>12272</v>
+        <v>0</v>
       </c>
       <c r="J60" s="2">
         <v>5000</v>
@@ -5394,14 +5374,12 @@
         <v>13</v>
       </c>
       <c r="H62" s="2">
-        <v>2496</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2">
-        <v>2496</v>
-      </c>
-      <c r="J62" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" ht="12.75">
       <c r="A63" s="2" t="s">
@@ -5426,14 +5404,12 @@
         <v>13</v>
       </c>
       <c r="H63" s="2">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2">
-        <v>418</v>
-      </c>
-      <c r="J63" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" ht="12.75">
       <c r="A64" s="2" t="s">
@@ -5458,13 +5434,13 @@
         <v>13</v>
       </c>
       <c r="H64" s="2">
-        <v>80288</v>
+        <v>36400</v>
       </c>
       <c r="I64" s="2">
-        <v>43888</v>
+        <v>16640</v>
       </c>
       <c r="J64" s="2">
-        <v>36400</v>
+        <v>19760</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="12.75">
@@ -5490,10 +5466,10 @@
         <v>13</v>
       </c>
       <c r="H65" s="2">
-        <v>4598</v>
+        <v>627</v>
       </c>
       <c r="I65" s="2">
-        <v>3971</v>
+        <v>0</v>
       </c>
       <c r="J65" s="2">
         <v>627</v>
@@ -5522,10 +5498,10 @@
         <v>13</v>
       </c>
       <c r="H66" s="2">
-        <v>1463</v>
+        <v>1045</v>
       </c>
       <c r="I66" s="2">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="J66" s="2">
         <v>1045</v>
@@ -5554,10 +5530,10 @@
         <v>13</v>
       </c>
       <c r="H67" s="2">
-        <v>4807</v>
+        <v>3344</v>
       </c>
       <c r="I67" s="2">
-        <v>1463</v>
+        <v>0</v>
       </c>
       <c r="J67" s="2">
         <v>3344</v>
@@ -5586,10 +5562,10 @@
         <v>13</v>
       </c>
       <c r="H68" s="2">
-        <v>1560</v>
+        <v>1100</v>
       </c>
       <c r="I68" s="2">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="J68" s="2">
         <v>1100</v>
@@ -5650,12 +5626,14 @@
         <v>13</v>
       </c>
       <c r="H70" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I70" s="2">
         <v>0</v>
       </c>
-      <c r="J70" s="2"/>
+      <c r="J70" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="71" spans="1:10" ht="12.75">
       <c r="A71" s="2" t="s">
@@ -5715,10 +5693,10 @@
         <v>40</v>
       </c>
       <c r="I72" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J72" s="2">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="12.75">
@@ -6024,10 +6002,10 @@
         <v>13</v>
       </c>
       <c r="H82" s="2">
-        <v>9614</v>
+        <v>7942</v>
       </c>
       <c r="I82" s="2">
-        <v>1672</v>
+        <v>0</v>
       </c>
       <c r="J82" s="2">
         <v>7942</v>
@@ -6377,10 +6355,10 @@
         <v>9984</v>
       </c>
       <c r="I93" s="2">
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="J93" s="2">
-        <v>9984</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="12.75">
@@ -6406,10 +6384,10 @@
         <v>226</v>
       </c>
       <c r="H94" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="I94" s="2">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="J94" s="2">
         <v>40</v>
@@ -6502,10 +6480,10 @@
         <v>13</v>
       </c>
       <c r="H97" s="2">
-        <v>832</v>
+        <v>624</v>
       </c>
       <c r="I97" s="2">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="J97" s="2">
         <v>624</v>
@@ -6820,10 +6798,10 @@
         <v>265</v>
       </c>
       <c r="H107" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I107" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J107" s="2">
         <v>80</v>
@@ -7008,10 +6986,10 @@
         <v>283</v>
       </c>
       <c r="H113" s="2">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="I113" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J113" s="2">
         <v>159</v>
@@ -7130,14 +7108,12 @@
         <v>295</v>
       </c>
       <c r="H117" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I117" s="2">
-        <v>70</v>
-      </c>
-      <c r="J117" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" ht="12.75">
       <c r="A118" s="2" t="s">
@@ -7162,14 +7138,12 @@
         <v>298</v>
       </c>
       <c r="H118" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I118" s="2">
-        <v>20</v>
-      </c>
-      <c r="J118" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" ht="12.75">
       <c r="A119" s="2" t="s">
@@ -7254,10 +7228,10 @@
         <v>13</v>
       </c>
       <c r="H121" s="2">
-        <v>25376</v>
+        <v>11856</v>
       </c>
       <c r="I121" s="2">
-        <v>13520</v>
+        <v>0</v>
       </c>
       <c r="J121" s="2">
         <v>11856</v>
@@ -7286,14 +7260,12 @@
         <v>13</v>
       </c>
       <c r="H122" s="2">
-        <v>8320</v>
+        <v>0</v>
       </c>
       <c r="I122" s="2">
-        <v>8320</v>
-      </c>
-      <c r="J122" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10" ht="12.75">
       <c r="A123" s="2" t="s">
@@ -7318,14 +7290,12 @@
         <v>13</v>
       </c>
       <c r="H123" s="2">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="I123" s="2">
-        <v>208</v>
-      </c>
-      <c r="J123" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10" ht="12.75">
       <c r="A124" s="2" t="s">
@@ -7380,10 +7350,10 @@
         <v>13</v>
       </c>
       <c r="H125" s="2">
-        <v>1518</v>
+        <v>1140</v>
       </c>
       <c r="I125" s="2">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="J125" s="2">
         <v>1140</v>
@@ -7412,10 +7382,10 @@
         <v>13</v>
       </c>
       <c r="H126" s="2">
-        <v>1080</v>
+        <v>900</v>
       </c>
       <c r="I126" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J126" s="2">
         <v>900</v>
@@ -7476,14 +7446,12 @@
         <v>13</v>
       </c>
       <c r="H128" s="2">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="I128" s="2">
-        <v>1980</v>
-      </c>
-      <c r="J128" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" s="2"/>
     </row>
     <row r="129" spans="1:10" ht="12.75">
       <c r="A129" s="2" t="s">
@@ -7508,13 +7476,13 @@
         <v>13</v>
       </c>
       <c r="H129" s="2">
-        <v>6120</v>
+        <v>1800</v>
       </c>
       <c r="I129" s="2">
-        <v>4320</v>
+        <v>360</v>
       </c>
       <c r="J129" s="2">
-        <v>1800</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="12.75">
@@ -7570,10 +7538,10 @@
         <v>13</v>
       </c>
       <c r="H131" s="2">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="I131" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J131" s="2">
         <v>180</v>
@@ -7694,10 +7662,10 @@
         <v>336</v>
       </c>
       <c r="H135" s="2">
-        <v>9120</v>
+        <v>950</v>
       </c>
       <c r="I135" s="2">
-        <v>8170</v>
+        <v>0</v>
       </c>
       <c r="J135" s="2">
         <v>950</v>
@@ -7726,10 +7694,10 @@
         <v>336</v>
       </c>
       <c r="H136" s="2">
-        <v>3770</v>
+        <v>1490</v>
       </c>
       <c r="I136" s="2">
-        <v>2280</v>
+        <v>0</v>
       </c>
       <c r="J136" s="2">
         <v>1490</v>
@@ -7758,10 +7726,10 @@
         <v>336</v>
       </c>
       <c r="H137" s="2">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="I137" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J137" s="2">
         <v>360</v>
@@ -7884,14 +7852,12 @@
         <v>13</v>
       </c>
       <c r="H141" s="2">
-        <v>4140</v>
+        <v>0</v>
       </c>
       <c r="I141" s="2">
-        <v>4140</v>
-      </c>
-      <c r="J141" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" s="2"/>
     </row>
     <row r="142" spans="1:10" ht="12.75">
       <c r="A142" s="2" t="s">
@@ -8068,14 +8034,12 @@
         <v>13</v>
       </c>
       <c r="H147" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I147" s="2">
-        <v>20</v>
-      </c>
-      <c r="J147" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" s="2"/>
     </row>
     <row r="148" spans="1:10" ht="12.75">
       <c r="A148" s="2" t="s">
@@ -8190,14 +8154,12 @@
         <v>13</v>
       </c>
       <c r="H151" s="2">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="I151" s="2">
-        <v>846</v>
-      </c>
-      <c r="J151" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" s="2"/>
     </row>
     <row r="152" spans="1:10" ht="12.75">
       <c r="A152" s="2" t="s">
@@ -8686,10 +8648,10 @@
         <v>416</v>
       </c>
       <c r="H167" s="2">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="I167" s="2">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="J167" s="2">
         <v>5.5</v>
@@ -8840,10 +8802,10 @@
         <v>13</v>
       </c>
       <c r="H172" s="2">
-        <v>2340</v>
+        <v>540</v>
       </c>
       <c r="I172" s="2">
-        <v>2340</v>
+        <v>540</v>
       </c>
       <c r="J172" s="2">
         <v>0</v>
@@ -8872,10 +8834,10 @@
         <v>13</v>
       </c>
       <c r="H173" s="2">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="I173" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J173" s="2">
         <v>180</v>
@@ -9028,14 +8990,12 @@
         <v>13</v>
       </c>
       <c r="H178" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I178" s="2">
-        <v>5</v>
-      </c>
-      <c r="J178" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" s="2"/>
     </row>
     <row r="179" spans="1:10" ht="12.75">
       <c r="A179" s="2" t="s">
@@ -9060,14 +9020,12 @@
         <v>13</v>
       </c>
       <c r="H179" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" s="2">
-        <v>2</v>
-      </c>
-      <c r="J179" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10" ht="12.75">
       <c r="A180" s="2" t="s">
@@ -9402,10 +9360,10 @@
         <v>13</v>
       </c>
       <c r="H190" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I190" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J190" s="2">
         <v>95</v>
@@ -9458,10 +9416,10 @@
         <v>13</v>
       </c>
       <c r="F192" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="H192" s="2">
         <v>0</v>
@@ -9473,7 +9431,7 @@
     </row>
     <row r="193" spans="1:10" ht="12.75">
       <c r="A193" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B193" s="2">
         <v>8</v>
@@ -9491,7 +9449,7 @@
         <v>13</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H193" s="2">
         <v>0</v>
@@ -9503,25 +9461,25 @@
     </row>
     <row r="194" spans="1:10" ht="12.75">
       <c r="A194" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B194" s="2">
         <v>8</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>146</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H194" s="2">
         <v>0</v>
@@ -9533,25 +9491,25 @@
     </row>
     <row r="195" spans="1:10" ht="12.75">
       <c r="A195" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B195" s="2">
         <v>1</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H195" s="2">
         <v>6</v>
@@ -9565,25 +9523,25 @@
     </row>
     <row r="196" spans="1:10" ht="12.75">
       <c r="A196" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B196" s="2">
         <v>8</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E196" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="H196" s="2">
         <v>0</v>
@@ -9595,16 +9553,16 @@
     </row>
     <row r="197" spans="1:10" ht="12.75">
       <c r="A197" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B197" s="2">
         <v>33</v>
       </c>
       <c r="C197" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>13</v>
@@ -9625,7 +9583,7 @@
     </row>
     <row r="198" spans="1:10" ht="12.75">
       <c r="A198" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B198" s="2">
         <v>8</v>
@@ -9643,7 +9601,7 @@
         <v>13</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H198" s="2">
         <v>0</v>
@@ -9655,7 +9613,7 @@
     </row>
     <row r="199" spans="1:10" ht="12.75">
       <c r="A199" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B199" s="2">
         <v>8</v>
@@ -9673,7 +9631,7 @@
         <v>13</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H199" s="2">
         <v>0</v>
@@ -9685,25 +9643,25 @@
     </row>
     <row r="200" spans="1:10" ht="12.75">
       <c r="A200" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B200" s="2">
         <v>8</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E200" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="H200" s="2">
         <v>0</v>
@@ -9715,7 +9673,7 @@
     </row>
     <row r="201" spans="1:10" ht="12.75">
       <c r="A201" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B201" s="2">
         <v>8</v>
@@ -9733,21 +9691,19 @@
         <v>13</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H201" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I201" s="2">
-        <v>18</v>
-      </c>
-      <c r="J201" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J201" s="2"/>
     </row>
     <row r="202" spans="1:10" ht="12.75">
       <c r="A202" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B202" s="2">
         <v>8</v>
@@ -9765,21 +9721,19 @@
         <v>13</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H202" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" s="2">
-        <v>1</v>
-      </c>
-      <c r="J202" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J202" s="2"/>
     </row>
     <row r="203" spans="1:10" ht="12.75">
       <c r="A203" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B203" s="2">
         <v>8</v>
@@ -9797,21 +9751,19 @@
         <v>13</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H203" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I203" s="2">
-        <v>5</v>
-      </c>
-      <c r="J203" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J203" s="2"/>
     </row>
     <row r="204" spans="1:10" ht="12.75">
       <c r="A204" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B204" s="2">
         <v>8</v>
@@ -9829,33 +9781,31 @@
         <v>13</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H204" s="2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I204" s="2">
-        <v>36</v>
-      </c>
-      <c r="J204" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J204" s="2"/>
     </row>
     <row r="205" spans="1:10" ht="12.75">
       <c r="A205" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B205" s="2">
         <v>8</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>13</v>
@@ -9864,29 +9814,31 @@
         <v>13</v>
       </c>
       <c r="H205" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I205" s="2">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="J205" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:10" ht="12.75">
       <c r="A206" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B206" s="2">
         <v>3</v>
       </c>
       <c r="C206" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>514</v>
-      </c>
       <c r="F206" s="2" t="s">
         <v>13</v>
       </c>
@@ -9894,10 +9846,10 @@
         <v>13</v>
       </c>
       <c r="H206" s="2">
-        <v>2852000</v>
+        <v>362000</v>
       </c>
       <c r="I206" s="2">
-        <v>2852000</v>
+        <v>362000</v>
       </c>
       <c r="J206" s="2">
         <v>0</v>
@@ -9905,13 +9857,13 @@
     </row>
     <row r="207" spans="1:10" ht="12.75">
       <c r="A207" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B207" s="2">
         <v>1</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>67</v>
@@ -9923,7 +9875,7 @@
         <v>13</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H207" s="2">
         <v>0</v>
@@ -9935,13 +9887,13 @@
     </row>
     <row r="208" spans="1:10" ht="12.75">
       <c r="A208" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B208" s="2">
         <v>1</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>67</v>
@@ -9953,7 +9905,7 @@
         <v>13</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H208" s="2">
         <v>0</v>
@@ -9965,13 +9917,13 @@
     </row>
     <row r="209" spans="1:10" ht="12.75">
       <c r="A209" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B209" s="2">
         <v>1</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>67</v>
@@ -9983,7 +9935,7 @@
         <v>13</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H209" s="2">
         <v>0</v>
@@ -9995,13 +9947,13 @@
     </row>
     <row r="210" spans="1:10" ht="12.75">
       <c r="A210" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B210" s="2">
         <v>1</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>67</v>
@@ -10013,27 +9965,25 @@
         <v>13</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H210" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" s="2">
-        <v>2</v>
-      </c>
-      <c r="J210" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J210" s="2"/>
     </row>
     <row r="211" spans="1:10" ht="12.75">
       <c r="A211" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B211" s="2">
         <v>1</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>67</v>
@@ -10045,7 +9995,7 @@
         <v>13</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H211" s="2">
         <v>0</v>
@@ -10057,13 +10007,13 @@
     </row>
     <row r="212" spans="1:10" ht="12.75">
       <c r="A212" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B212" s="2">
         <v>1</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>67</v>
@@ -10087,13 +10037,13 @@
     </row>
     <row r="213" spans="1:10" ht="12.75">
       <c r="A213" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B213" s="2">
         <v>1</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>67</v>
@@ -10117,13 +10067,13 @@
     </row>
     <row r="214" spans="1:10" ht="12.75">
       <c r="A214" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B214" s="2">
         <v>1</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>67</v>
@@ -10147,13 +10097,13 @@
     </row>
     <row r="215" spans="1:10" ht="12.75">
       <c r="A215" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B215" s="2">
         <v>1</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>67</v>
@@ -10165,7 +10115,7 @@
         <v>13</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H215" s="2">
         <v>0</v>
@@ -10177,13 +10127,13 @@
     </row>
     <row r="216" spans="1:10" ht="12.75">
       <c r="A216" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B216" s="2">
         <v>1</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>67</v>
@@ -10195,27 +10145,25 @@
         <v>13</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H216" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" s="2">
-        <v>1</v>
-      </c>
-      <c r="J216" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J216" s="2"/>
     </row>
     <row r="217" spans="1:10" ht="12.75">
       <c r="A217" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B217" s="2">
         <v>1</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>67</v>
@@ -10227,27 +10175,25 @@
         <v>13</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H217" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" s="2">
-        <v>1</v>
-      </c>
-      <c r="J217" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J217" s="2"/>
     </row>
     <row r="218" spans="1:10" ht="12.75">
       <c r="A218" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B218" s="2">
         <v>1</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>67</v>
@@ -10259,27 +10205,25 @@
         <v>13</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H218" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" s="2">
-        <v>1</v>
-      </c>
-      <c r="J218" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J218" s="2"/>
     </row>
     <row r="219" spans="1:10" ht="12.75">
       <c r="A219" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B219" s="2">
         <v>8</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>249</v>
@@ -10303,25 +10247,25 @@
     </row>
     <row r="220" spans="1:10" ht="12.75">
       <c r="A220" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B220" s="2">
         <v>1</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E220" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="H220" s="2">
         <v>0</v>
@@ -10333,25 +10277,25 @@
     </row>
     <row r="221" spans="1:10" ht="12.75">
       <c r="A221" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B221" s="2">
         <v>1</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E221" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G221" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="H221" s="2">
         <v>0</v>
@@ -10363,13 +10307,13 @@
     </row>
     <row r="222" spans="1:10" ht="12.75">
       <c r="A222" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B222" s="2">
         <v>1</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>67</v>
@@ -10393,13 +10337,13 @@
     </row>
     <row r="223" spans="1:10" ht="12.75">
       <c r="A223" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B223" s="2">
         <v>1</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>67</v>
@@ -10411,37 +10355,39 @@
         <v>13</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H223" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I223" s="2">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="J223" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="224" spans="1:10" ht="12.75">
       <c r="A224" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B224" s="2">
         <v>1</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E224" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F224" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="F224" s="2" t="s">
+      <c r="G224" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="H224" s="2">
         <v>0</v>
@@ -10453,25 +10399,25 @@
     </row>
     <row r="225" spans="1:10" ht="12.75">
       <c r="A225" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B225" s="2">
         <v>52</v>
       </c>
       <c r="C225" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="E225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="H225" s="2">
         <v>0</v>
@@ -10483,16 +10429,16 @@
     </row>
     <row r="226" spans="1:10" ht="12.75">
       <c r="A226" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B226" s="2">
         <v>52</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>13</v>
@@ -10501,7 +10447,7 @@
         <v>150</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H226" s="2">
         <v>0</v>
@@ -10513,13 +10459,13 @@
     </row>
     <row r="227" spans="1:10" ht="12.75">
       <c r="A227" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B227" s="2">
         <v>1</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>67</v>
@@ -10531,7 +10477,7 @@
         <v>150</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H227" s="2">
         <v>0</v>
@@ -10543,13 +10489,13 @@
     </row>
     <row r="228" spans="1:10" ht="12.75">
       <c r="A228" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B228" s="2">
         <v>1</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>67</v>
@@ -10573,13 +10519,13 @@
     </row>
     <row r="229" spans="1:10" ht="12.75">
       <c r="A229" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B229" s="2">
         <v>1</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>67</v>
@@ -10603,16 +10549,16 @@
     </row>
     <row r="230" spans="1:10" ht="12.75">
       <c r="A230" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B230" s="2">
         <v>52</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>13</v>
@@ -10624,24 +10570,22 @@
         <v>13</v>
       </c>
       <c r="H230" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" s="2">
-        <v>1</v>
-      </c>
-      <c r="J230" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J230" s="2"/>
     </row>
     <row r="231" spans="1:10" ht="12.75">
       <c r="A231" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B231" s="2">
         <v>1</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>67</v>
@@ -10665,16 +10609,16 @@
     </row>
     <row r="232" spans="1:10" ht="12.75">
       <c r="A232" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B232" s="2">
         <v>52</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>13</v>
@@ -10695,13 +10639,13 @@
     </row>
     <row r="233" spans="1:10" ht="12.75">
       <c r="A233" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B233" s="2">
         <v>8</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>249</v>
@@ -10713,7 +10657,7 @@
         <v>294</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H233" s="2">
         <v>80</v>
@@ -10727,13 +10671,13 @@
     </row>
     <row r="234" spans="1:10" ht="12.75">
       <c r="A234" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B234" s="2">
         <v>3</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>12</v>
@@ -10757,13 +10701,13 @@
     </row>
     <row r="235" spans="1:10" ht="12.75">
       <c r="A235" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B235" s="2">
         <v>8</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>249</v>
@@ -10789,13 +10733,13 @@
     </row>
     <row r="236" spans="1:10" ht="12.75">
       <c r="A236" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B236" s="2">
         <v>8</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>249</v>
@@ -10821,13 +10765,13 @@
     </row>
     <row r="237" spans="1:10" ht="12.75">
       <c r="A237" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B237" s="2">
         <v>8</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>249</v>
@@ -10851,13 +10795,13 @@
     </row>
     <row r="238" spans="1:10" ht="12.75">
       <c r="A238" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B238" s="2">
         <v>8</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>249</v>
@@ -10866,7 +10810,7 @@
         <v>13</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>13</v>
@@ -10881,13 +10825,13 @@
     </row>
     <row r="239" spans="1:10" ht="12.75">
       <c r="A239" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B239" s="2">
         <v>3</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>12</v>
@@ -10911,13 +10855,13 @@
     </row>
     <row r="240" spans="1:10" ht="12.75">
       <c r="A240" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B240" s="2">
         <v>3</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>12</v>
@@ -10941,25 +10885,25 @@
     </row>
     <row r="241" spans="1:10" ht="12.75">
       <c r="A241" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B241" s="2">
         <v>3</v>
       </c>
       <c r="C241" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="H241" s="2">
         <v>0</v>
@@ -10971,13 +10915,13 @@
     </row>
     <row r="242" spans="1:10" ht="12.75">
       <c r="A242" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B242" s="2">
         <v>8</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>249</v>
@@ -10992,24 +10936,22 @@
         <v>13</v>
       </c>
       <c r="H242" s="2">
-        <v>914</v>
+        <v>0</v>
       </c>
       <c r="I242" s="2">
-        <v>914</v>
-      </c>
-      <c r="J242" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J242" s="2"/>
     </row>
     <row r="243" spans="1:10" ht="12.75">
       <c r="A243" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B243" s="2">
         <v>3</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>12</v>
@@ -11035,13 +10977,13 @@
     </row>
     <row r="244" spans="1:10" ht="12.75">
       <c r="A244" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B244" s="2">
         <v>3</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>12</v>
@@ -11067,19 +11009,19 @@
     </row>
     <row r="245" spans="1:10" ht="12.75">
       <c r="A245" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B245" s="2">
         <v>8</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>13</v>
@@ -11088,24 +11030,22 @@
         <v>13</v>
       </c>
       <c r="H245" s="2">
-        <v>420.5</v>
+        <v>0</v>
       </c>
       <c r="I245" s="2">
-        <v>420.5</v>
-      </c>
-      <c r="J245" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J245" s="2"/>
     </row>
     <row r="246" spans="1:10" ht="12.75">
       <c r="A246" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B246" s="2">
         <v>8</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>249</v>
@@ -11129,13 +11069,13 @@
     </row>
     <row r="247" spans="1:10" ht="12.75">
       <c r="A247" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B247" s="2">
         <v>8</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>249</v>
@@ -11159,13 +11099,13 @@
     </row>
     <row r="248" spans="1:10" ht="12.75">
       <c r="A248" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B248" s="2">
         <v>8</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>249</v>
@@ -11189,13 +11129,13 @@
     </row>
     <row r="249" spans="1:10" ht="12.75">
       <c r="A249" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B249" s="2">
         <v>8</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>249</v>
@@ -11219,13 +11159,13 @@
     </row>
     <row r="250" spans="1:10" ht="12.75">
       <c r="A250" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B250" s="2">
         <v>3</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>12</v>
@@ -11240,10 +11180,10 @@
         <v>13</v>
       </c>
       <c r="H250" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I250" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J250" s="2">
         <v>0</v>
@@ -11251,13 +11191,13 @@
     </row>
     <row r="251" spans="1:10" ht="12.75">
       <c r="A251" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B251" s="2">
         <v>3</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>12</v>
@@ -11283,13 +11223,13 @@
     </row>
     <row r="252" spans="1:10" ht="12.75">
       <c r="A252" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B252" s="2">
         <v>8</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>249</v>
@@ -11313,13 +11253,13 @@
     </row>
     <row r="253" spans="1:10" ht="12.75">
       <c r="A253" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B253" s="2">
         <v>3</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>12</v>
@@ -11334,24 +11274,24 @@
         <v>13</v>
       </c>
       <c r="H253" s="2">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="I253" s="2">
-        <v>228</v>
+        <v>100</v>
       </c>
       <c r="J253" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="12.75">
       <c r="A254" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B254" s="2">
         <v>8</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>249</v>
@@ -11366,24 +11306,22 @@
         <v>13</v>
       </c>
       <c r="H254" s="2">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="I254" s="2">
-        <v>370</v>
-      </c>
-      <c r="J254" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J254" s="2"/>
     </row>
     <row r="255" spans="1:10" ht="12.75">
       <c r="A255" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B255" s="2">
         <v>8</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>249</v>
@@ -11395,7 +11333,7 @@
         <v>13</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H255" s="2">
         <v>0</v>
@@ -11407,13 +11345,13 @@
     </row>
     <row r="256" spans="1:10" ht="12.75">
       <c r="A256" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B256" s="2">
         <v>3</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>12</v>
@@ -11437,13 +11375,13 @@
     </row>
     <row r="257" spans="1:10" ht="12.75">
       <c r="A257" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B257" s="2">
         <v>8</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>249</v>
@@ -11467,13 +11405,13 @@
     </row>
     <row r="258" spans="1:10" ht="12.75">
       <c r="A258" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B258" s="2">
         <v>8</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>249</v>
@@ -11497,13 +11435,13 @@
     </row>
     <row r="259" spans="1:10" ht="12.75">
       <c r="A259" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B259" s="2">
         <v>8</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>249</v>
@@ -11527,13 +11465,13 @@
     </row>
     <row r="260" spans="1:10" ht="12.75">
       <c r="A260" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B260" s="2">
         <v>3</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>12</v>
@@ -11557,13 +11495,13 @@
     </row>
     <row r="261" spans="1:10" ht="12.75">
       <c r="A261" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B261" s="2">
         <v>3</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>12</v>
@@ -11587,13 +11525,13 @@
     </row>
     <row r="262" spans="1:10" ht="12.75">
       <c r="A262" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B262" s="2">
         <v>8</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>249</v>
@@ -11617,13 +11555,13 @@
     </row>
     <row r="263" spans="1:10" ht="12.75">
       <c r="A263" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B263" s="2">
         <v>8</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>249</v>
@@ -11638,22 +11576,24 @@
         <v>13</v>
       </c>
       <c r="H263" s="2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I263" s="2">
         <v>0</v>
       </c>
-      <c r="J263" s="2"/>
+      <c r="J263" s="2">
+        <v>2000</v>
+      </c>
     </row>
     <row r="264" spans="1:10" ht="12.75">
       <c r="A264" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B264" s="2">
         <v>8</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>249</v>
@@ -11668,24 +11608,22 @@
         <v>13</v>
       </c>
       <c r="H264" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I264" s="2">
-        <v>10</v>
-      </c>
-      <c r="J264" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J264" s="2"/>
     </row>
     <row r="265" spans="1:10" ht="12.75">
       <c r="A265" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B265" s="2">
         <v>3</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>12</v>
@@ -11700,30 +11638,28 @@
         <v>13</v>
       </c>
       <c r="H265" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I265" s="2">
-        <v>100</v>
-      </c>
-      <c r="J265" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J265" s="2"/>
     </row>
     <row r="266" spans="1:10" ht="12.75">
       <c r="A266" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B266" s="2">
         <v>8</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>13</v>
@@ -11732,24 +11668,22 @@
         <v>13</v>
       </c>
       <c r="H266" s="2">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I266" s="2">
-        <v>56</v>
-      </c>
-      <c r="J266" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J266" s="2"/>
     </row>
     <row r="267" spans="1:10" ht="12.75">
       <c r="A267" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B267" s="2">
         <v>3</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>12</v>
@@ -11764,24 +11698,22 @@
         <v>13</v>
       </c>
       <c r="H267" s="2">
-        <v>1370</v>
+        <v>0</v>
       </c>
       <c r="I267" s="2">
-        <v>1370</v>
-      </c>
-      <c r="J267" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J267" s="2"/>
     </row>
     <row r="268" spans="1:10" ht="12.75">
       <c r="A268" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B268" s="2">
         <v>1</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>67</v>
@@ -11805,16 +11737,16 @@
     </row>
     <row r="269" spans="1:10" ht="12.75">
       <c r="A269" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B269" s="2">
         <v>31</v>
       </c>
       <c r="C269" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D269" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>13</v>
@@ -11835,13 +11767,13 @@
     </row>
     <row r="270" spans="1:10" ht="12.75">
       <c r="A270" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B270" s="2">
         <v>8</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>249</v>
@@ -11856,10 +11788,10 @@
         <v>13</v>
       </c>
       <c r="H270" s="2">
-        <v>870.5</v>
+        <v>392</v>
       </c>
       <c r="I270" s="2">
-        <v>870.5</v>
+        <v>392</v>
       </c>
       <c r="J270" s="2">
         <v>0</v>
@@ -11867,13 +11799,13 @@
     </row>
     <row r="271" spans="1:10" ht="12.75">
       <c r="A271" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B271" s="2">
         <v>3</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>12</v>
@@ -11897,19 +11829,19 @@
     </row>
     <row r="272" spans="1:10" ht="12.75">
       <c r="A272" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B272" s="2">
         <v>8</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>13</v>
@@ -11927,19 +11859,19 @@
     </row>
     <row r="273" spans="1:10" ht="12.75">
       <c r="A273" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B273" s="2">
         <v>3</v>
       </c>
       <c r="C273" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>669</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>13</v>
@@ -11957,19 +11889,19 @@
     </row>
     <row r="274" spans="1:10" ht="12.75">
       <c r="A274" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B274" s="2">
         <v>3</v>
       </c>
       <c r="C274" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>13</v>
@@ -11987,13 +11919,13 @@
     </row>
     <row r="275" spans="1:10" ht="12.75">
       <c r="A275" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B275" s="2">
         <v>8</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>249</v>
@@ -12008,10 +11940,10 @@
         <v>13</v>
       </c>
       <c r="H275" s="2">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="I275" s="2">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="J275" s="2">
         <v>0</v>
@@ -12019,13 +11951,13 @@
     </row>
     <row r="276" spans="1:10" ht="12.75">
       <c r="A276" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B276" s="2">
         <v>8</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>249</v>
@@ -12049,22 +11981,22 @@
     </row>
     <row r="277" spans="1:10" ht="12.75">
       <c r="A277" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B277" s="2">
         <v>8</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E277" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="F277" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>13</v>
@@ -12081,13 +12013,13 @@
     </row>
     <row r="278" spans="1:10" ht="12.75">
       <c r="A278" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B278" s="2">
         <v>8</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>249</v>
@@ -12111,13 +12043,13 @@
     </row>
     <row r="279" spans="1:10" ht="12.75">
       <c r="A279" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B279" s="2">
         <v>8</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>249</v>
@@ -12141,13 +12073,13 @@
     </row>
     <row r="280" spans="1:10" ht="12.75">
       <c r="A280" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B280" s="2">
         <v>8</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>249</v>
@@ -12171,13 +12103,13 @@
     </row>
     <row r="281" spans="1:10" ht="12.75">
       <c r="A281" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B281" s="2">
         <v>8</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>249</v>
@@ -12201,13 +12133,13 @@
     </row>
     <row r="282" spans="1:10" ht="12.75">
       <c r="A282" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B282" s="2">
         <v>8</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>249</v>
@@ -12231,13 +12163,13 @@
     </row>
     <row r="283" spans="1:10" ht="12.75">
       <c r="A283" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B283" s="2">
         <v>8</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>249</v>
@@ -12249,7 +12181,7 @@
         <v>13</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H283" s="2">
         <v>0</v>
@@ -12261,13 +12193,13 @@
     </row>
     <row r="284" spans="1:10" ht="12.75">
       <c r="A284" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B284" s="2">
         <v>8</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>249</v>
@@ -12279,7 +12211,7 @@
         <v>13</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H284" s="2">
         <v>0</v>
@@ -12291,13 +12223,13 @@
     </row>
     <row r="285" spans="1:10" ht="12.75">
       <c r="A285" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B285" s="2">
         <v>8</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>249</v>
@@ -12321,13 +12253,13 @@
     </row>
     <row r="286" spans="1:10" ht="12.75">
       <c r="A286" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B286" s="2">
         <v>8</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>249</v>
@@ -12342,24 +12274,22 @@
         <v>13</v>
       </c>
       <c r="H286" s="2">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="I286" s="2">
-        <v>104</v>
-      </c>
-      <c r="J286" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J286" s="2"/>
     </row>
     <row r="287" spans="1:10" ht="12.75">
       <c r="A287" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B287" s="2">
         <v>8</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>249</v>
@@ -12374,30 +12304,28 @@
         <v>13</v>
       </c>
       <c r="H287" s="2">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="I287" s="2">
-        <v>190</v>
-      </c>
-      <c r="J287" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J287" s="2"/>
     </row>
     <row r="288" spans="1:10" ht="12.75">
       <c r="A288" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B288" s="2">
         <v>1</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>13</v>
@@ -12415,19 +12343,19 @@
     </row>
     <row r="289" spans="1:10" ht="12.75">
       <c r="A289" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B289" s="2">
         <v>1</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>13</v>
@@ -12445,19 +12373,19 @@
     </row>
     <row r="290" spans="1:10" ht="12.75">
       <c r="A290" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B290" s="2">
         <v>1</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>13</v>
@@ -12475,13 +12403,13 @@
     </row>
     <row r="291" spans="1:10" ht="12.75">
       <c r="A291" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B291" s="2">
         <v>8</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>249</v>
@@ -12505,13 +12433,13 @@
     </row>
     <row r="292" spans="1:10" ht="12.75">
       <c r="A292" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B292" s="2">
         <v>8</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>249</v>
@@ -12526,24 +12454,24 @@
         <v>13</v>
       </c>
       <c r="H292" s="2">
-        <v>2074</v>
+        <v>980</v>
       </c>
       <c r="I292" s="2">
-        <v>2074</v>
+        <v>700</v>
       </c>
       <c r="J292" s="2">
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="293" spans="1:10" ht="12.75">
       <c r="A293" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B293" s="2">
         <v>8</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>249</v>
@@ -12567,13 +12495,13 @@
     </row>
     <row r="294" spans="1:10" ht="12.75">
       <c r="A294" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B294" s="2">
         <v>8</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>249</v>
@@ -12597,25 +12525,25 @@
     </row>
     <row r="295" spans="1:10" ht="12.75">
       <c r="A295" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B295" s="2">
         <v>3</v>
       </c>
       <c r="C295" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G295" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G295" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="H295" s="2">
         <v>0</v>
@@ -12627,13 +12555,13 @@
     </row>
     <row r="296" spans="1:10" ht="12.75">
       <c r="A296" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B296" s="2">
         <v>8</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>249</v>
@@ -12648,10 +12576,10 @@
         <v>13</v>
       </c>
       <c r="H296" s="2">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="I296" s="2">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="J296" s="2">
         <v>0</v>
@@ -12659,13 +12587,13 @@
     </row>
     <row r="297" spans="1:10" ht="12.75">
       <c r="A297" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B297" s="2">
         <v>8</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>249</v>
@@ -12680,54 +12608,54 @@
         <v>13</v>
       </c>
       <c r="H297" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I297" s="2">
-        <v>0</v>
-      </c>
-      <c r="J297" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="J297" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="298" spans="1:10" ht="12.75">
       <c r="A298" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B298" s="2">
         <v>8</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E298" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G298" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="F298" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G298" s="2" t="s">
-        <v>725</v>
-      </c>
       <c r="H298" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I298" s="2">
-        <v>20</v>
-      </c>
-      <c r="J298" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J298" s="2"/>
     </row>
     <row r="299" spans="1:10" ht="12.75">
       <c r="A299" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B299" s="2">
         <v>1</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>67</v>
@@ -12753,13 +12681,13 @@
     </row>
     <row r="300" spans="1:10" ht="12.75">
       <c r="A300" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B300" s="2">
         <v>8</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>249</v>
@@ -12785,13 +12713,13 @@
     </row>
     <row r="301" spans="1:10" ht="12.75">
       <c r="A301" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B301" s="2">
         <v>1</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>67</v>
@@ -12815,45 +12743,43 @@
     </row>
     <row r="302" spans="1:10" ht="12.75">
       <c r="A302" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B302" s="2">
+        <v>13</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="B302" s="2">
-        <v>13</v>
-      </c>
-      <c r="C302" s="2" t="s">
+      <c r="D302" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D302" s="2" t="s">
+      <c r="E302" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E302" s="2" t="s">
+      <c r="F302" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G302" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="F302" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>736</v>
-      </c>
       <c r="H302" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I302" s="2">
-        <v>10</v>
-      </c>
-      <c r="J302" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J302" s="2"/>
     </row>
     <row r="303" spans="1:10" ht="12.75">
       <c r="A303" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B303" s="2">
         <v>8</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>249</v>
@@ -12865,7 +12791,7 @@
         <v>13</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H303" s="2">
         <v>0</v>
@@ -12877,25 +12803,25 @@
     </row>
     <row r="304" spans="1:10" ht="12.75">
       <c r="A304" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B304" s="2">
         <v>6</v>
       </c>
       <c r="C304" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D304" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="D304" s="2" t="s">
+      <c r="E304" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G304" s="2" t="s">
         <v>742</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G304" s="2" t="s">
-        <v>743</v>
       </c>
       <c r="H304" s="2">
         <v>0</v>
@@ -12907,13 +12833,13 @@
     </row>
     <row r="305" spans="1:10" ht="12.75">
       <c r="A305" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B305" s="2">
         <v>1</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>67</v>
@@ -12925,27 +12851,25 @@
         <v>13</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H305" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I305" s="2">
-        <v>15</v>
-      </c>
-      <c r="J305" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J305" s="2"/>
     </row>
     <row r="306" spans="1:10" ht="12.75">
       <c r="A306" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B306" s="2">
         <v>1</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>67</v>
@@ -12957,27 +12881,25 @@
         <v>13</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H306" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I306" s="2">
-        <v>15</v>
-      </c>
-      <c r="J306" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J306" s="2"/>
     </row>
     <row r="307" spans="1:10" ht="12.75">
       <c r="A307" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B307" s="2">
         <v>8</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>249</v>
@@ -12989,27 +12911,25 @@
         <v>13</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H307" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I307" s="2">
-        <v>40</v>
-      </c>
-      <c r="J307" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J307" s="2"/>
     </row>
     <row r="308" spans="1:10" ht="12.75">
       <c r="A308" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B308" s="2">
         <v>1</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>67</v>
@@ -13033,13 +12953,13 @@
     </row>
     <row r="309" spans="1:10" ht="12.75">
       <c r="A309" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B309" s="2">
         <v>1</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>67</v>
@@ -13051,39 +12971,37 @@
         <v>13</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H309" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I309" s="2">
-        <v>50</v>
-      </c>
-      <c r="J309" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J309" s="2"/>
     </row>
     <row r="310" spans="1:10" ht="12.75">
       <c r="A310" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B310" s="2">
         <v>4</v>
       </c>
       <c r="C310" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D310" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="D310" s="2" t="s">
+      <c r="E310" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F310" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="E310" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F310" s="2" t="s">
+      <c r="G310" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="H310" s="2">
         <v>6</v>
@@ -13097,17 +13015,17 @@
     </row>
     <row r="311" spans="1:10" ht="12.75">
       <c r="A311" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B311" s="2">
         <v>26</v>
       </c>
       <c r="C311" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D311" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="D311" s="2" t="s">
-        <v>763</v>
-      </c>
       <c r="E311" s="2" t="s">
         <v>13</v>
       </c>
@@ -13121,33 +13039,33 @@
         <v>12</v>
       </c>
       <c r="I311" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J311" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:10" ht="12.75">
       <c r="A312" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B312" s="2">
         <v>1</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E312" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G312" s="2" t="s">
         <v>766</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>767</v>
       </c>
       <c r="H312" s="2">
         <v>0</v>
@@ -13159,13 +13077,13 @@
     </row>
     <row r="313" spans="1:10" ht="12.75">
       <c r="A313" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B313" s="2">
         <v>1</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>67</v>
@@ -13189,45 +13107,45 @@
     </row>
     <row r="314" spans="1:10" ht="12.75">
       <c r="A314" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B314" s="2">
         <v>1</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H314" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I314" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J314" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:10" ht="12.75">
       <c r="A315" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B315" s="2">
         <v>1</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>67</v>
@@ -13242,56 +13160,54 @@
         <v>13</v>
       </c>
       <c r="H315" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I315" s="2">
-        <v>40</v>
-      </c>
-      <c r="J315" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J315" s="2"/>
     </row>
     <row r="316" spans="1:10" ht="12.75">
       <c r="A316" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B316" s="2">
         <v>4</v>
       </c>
       <c r="C316" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="E316" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D316" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="E316" s="2" t="s">
+      <c r="F316" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="F316" s="2" t="s">
+      <c r="G316" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="G316" s="2" t="s">
-        <v>777</v>
-      </c>
       <c r="H316" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I316" s="2">
         <v>2</v>
       </c>
       <c r="J316" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:10" ht="12.75">
       <c r="A317" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B317" s="2">
         <v>8</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>249</v>
@@ -13315,13 +13231,13 @@
     </row>
     <row r="318" spans="1:10" ht="12.75">
       <c r="A318" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B318" s="2">
         <v>1</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>67</v>
@@ -13333,7 +13249,7 @@
         <v>13</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H318" s="2">
         <v>0</v>
@@ -13345,25 +13261,25 @@
     </row>
     <row r="319" spans="1:10" ht="12.75">
       <c r="A319" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B319" s="2">
         <v>1</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E319" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G319" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="F319" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G319" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="H319" s="2">
         <v>0</v>
@@ -13375,25 +13291,25 @@
     </row>
     <row r="320" spans="1:10" ht="12.75">
       <c r="A320" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B320" s="2">
         <v>1</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H320" s="2">
         <v>0</v>
@@ -13405,25 +13321,25 @@
     </row>
     <row r="321" spans="1:10" ht="12.75">
       <c r="A321" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B321" s="2">
         <v>1</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H321" s="2">
         <v>0</v>
@@ -13435,25 +13351,25 @@
     </row>
     <row r="322" spans="1:10" ht="12.75">
       <c r="A322" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B322" s="2">
         <v>1</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H322" s="2">
         <v>0</v>
@@ -13465,25 +13381,25 @@
     </row>
     <row r="323" spans="1:10" ht="12.75">
       <c r="A323" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B323" s="2">
         <v>1</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H323" s="2">
         <v>0</v>
@@ -13495,13 +13411,13 @@
     </row>
     <row r="324" spans="1:10" ht="12.75">
       <c r="A324" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B324" s="2">
         <v>1</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>67</v>
@@ -13525,13 +13441,13 @@
     </row>
     <row r="325" spans="1:10" ht="12.75">
       <c r="A325" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B325" s="2">
         <v>1</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>67</v>
@@ -13555,13 +13471,13 @@
     </row>
     <row r="326" spans="1:10" ht="12.75">
       <c r="A326" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B326" s="2">
         <v>8</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>249</v>
@@ -13573,7 +13489,7 @@
         <v>13</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H326" s="2">
         <v>0</v>
@@ -13585,13 +13501,13 @@
     </row>
     <row r="327" spans="1:10" ht="12.75">
       <c r="A327" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B327" s="2">
         <v>8</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>249</v>
@@ -13603,7 +13519,7 @@
         <v>13</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H327" s="2">
         <v>0</v>
@@ -13615,13 +13531,13 @@
     </row>
     <row r="328" spans="1:10" ht="12.75">
       <c r="A328" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B328" s="2">
         <v>8</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>249</v>
@@ -13636,24 +13552,22 @@
         <v>13</v>
       </c>
       <c r="H328" s="2">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="I328" s="2">
-        <v>96</v>
-      </c>
-      <c r="J328" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J328" s="2"/>
     </row>
     <row r="329" spans="1:10" ht="12.75">
       <c r="A329" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B329" s="2">
         <v>1</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>67</v>
@@ -13665,7 +13579,7 @@
         <v>13</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H329" s="2">
         <v>0</v>
@@ -13677,31 +13591,31 @@
     </row>
     <row r="330" spans="1:10" ht="12.75">
       <c r="A330" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B330" s="2">
         <v>8</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E330" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G330" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="F330" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G330" s="2" t="s">
-        <v>809</v>
-      </c>
       <c r="H330" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I330" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J330" s="2">
         <v>25</v>
@@ -13709,25 +13623,25 @@
     </row>
     <row r="331" spans="1:10" ht="12.75">
       <c r="A331" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B331" s="2">
         <v>8</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E331" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G331" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G331" s="2" t="s">
-        <v>812</v>
       </c>
       <c r="H331" s="2">
         <v>34</v>
@@ -13741,25 +13655,25 @@
     </row>
     <row r="332" spans="1:10" ht="12.75">
       <c r="A332" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B332" s="2">
         <v>8</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E332" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G332" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="F332" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G332" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="H332" s="2">
         <v>10</v>
@@ -13773,25 +13687,25 @@
     </row>
     <row r="333" spans="1:10" ht="12.75">
       <c r="A333" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B333" s="2">
         <v>8</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E333" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G333" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="F333" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G333" s="2" t="s">
-        <v>818</v>
       </c>
       <c r="H333" s="2">
         <v>20</v>
@@ -13805,25 +13719,25 @@
     </row>
     <row r="334" spans="1:10" ht="12.75">
       <c r="A334" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B334" s="2">
         <v>8</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E334" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G334" s="2" t="s">
         <v>820</v>
-      </c>
-      <c r="F334" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G334" s="2" t="s">
-        <v>821</v>
       </c>
       <c r="H334" s="2">
         <v>30</v>
@@ -13837,25 +13751,25 @@
     </row>
     <row r="335" spans="1:10" ht="12.75">
       <c r="A335" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B335" s="2">
         <v>8</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E335" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G335" s="2" t="s">
         <v>823</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G335" s="2" t="s">
-        <v>824</v>
       </c>
       <c r="H335" s="2">
         <v>30</v>
@@ -13869,25 +13783,25 @@
     </row>
     <row r="336" spans="1:10" ht="12.75">
       <c r="A336" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B336" s="2">
         <v>8</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E336" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G336" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="F336" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G336" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="H336" s="2">
         <v>30</v>
@@ -13901,25 +13815,25 @@
     </row>
     <row r="337" spans="1:10" ht="12.75">
       <c r="A337" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B337" s="2">
+        <v>12</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="B337" s="2">
-        <v>12</v>
-      </c>
-      <c r="C337" s="2" t="s">
+      <c r="D337" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="D337" s="2" t="s">
+      <c r="E337" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G337" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="F337" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G337" s="2" t="s">
-        <v>831</v>
       </c>
       <c r="H337" s="2">
         <v>30</v>
@@ -13933,25 +13847,25 @@
     </row>
     <row r="338" spans="1:10" ht="12.75">
       <c r="A338" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B338" s="2">
         <v>8</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E338" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G338" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="F338" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G338" s="2" t="s">
-        <v>834</v>
       </c>
       <c r="H338" s="2">
         <v>6</v>
@@ -13965,13 +13879,13 @@
     </row>
     <row r="339" spans="1:10" ht="12.75">
       <c r="A339" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B339" s="2">
         <v>3</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>12</v>
@@ -13995,45 +13909,43 @@
     </row>
     <row r="340" spans="1:10" ht="12.75">
       <c r="A340" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B340" s="2">
         <v>1</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H340" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I340" s="2">
-        <v>30</v>
-      </c>
-      <c r="J340" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J340" s="2"/>
     </row>
     <row r="341" spans="1:10" ht="12.75">
       <c r="A341" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B341" s="2">
         <v>1</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>67</v>
@@ -14045,7 +13957,7 @@
         <v>13</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H341" s="2">
         <v>0</v>
@@ -14057,13 +13969,13 @@
     </row>
     <row r="342" spans="1:10" ht="12.75">
       <c r="A342" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B342" s="2">
         <v>1</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>67</v>
@@ -14075,7 +13987,7 @@
         <v>13</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H342" s="2">
         <v>0</v>
@@ -14087,13 +13999,13 @@
     </row>
     <row r="343" spans="1:10" ht="12.75">
       <c r="A343" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B343" s="2">
         <v>8</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>249</v>
@@ -14117,19 +14029,19 @@
     </row>
     <row r="344" spans="1:10" ht="12.75">
       <c r="A344" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B344" s="2">
+        <v>12</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="B344" s="2">
-        <v>12</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>849</v>
-      </c>
       <c r="D344" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>150</v>
@@ -14147,25 +14059,25 @@
     </row>
     <row r="345" spans="1:10" ht="12.75">
       <c r="A345" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B345" s="2">
         <v>3</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>146</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H345" s="2">
         <v>0</v>
@@ -14177,25 +14089,25 @@
     </row>
     <row r="346" spans="1:10" ht="12.75">
       <c r="A346" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B346" s="2">
         <v>3</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>146</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H346" s="2">
         <v>0</v>
@@ -14207,13 +14119,13 @@
     </row>
     <row r="347" spans="1:10" ht="12.75">
       <c r="A347" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B347" s="2">
         <v>1</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>67</v>
@@ -14225,7 +14137,7 @@
         <v>13</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H347" s="2">
         <v>0</v>
@@ -14237,19 +14149,19 @@
     </row>
     <row r="348" spans="1:10" ht="12.75">
       <c r="A348" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B348" s="2">
         <v>3</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>13</v>
@@ -14267,13 +14179,13 @@
     </row>
     <row r="349" spans="1:10" ht="12.75">
       <c r="A349" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B349" s="2">
         <v>3</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>12</v>
@@ -14297,13 +14209,13 @@
     </row>
     <row r="350" spans="1:10" ht="12.75">
       <c r="A350" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B350" s="2">
         <v>1</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>67</v>
@@ -14327,13 +14239,13 @@
     </row>
     <row r="351" spans="1:10" ht="12.75">
       <c r="A351" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B351" s="2">
         <v>1</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>67</v>
@@ -14357,19 +14269,19 @@
     </row>
     <row r="352" spans="1:10" ht="12.75">
       <c r="A352" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B352" s="2">
         <v>1</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>13</v>
@@ -14387,13 +14299,13 @@
     </row>
     <row r="353" spans="1:10" ht="12.75">
       <c r="A353" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B353" s="2">
         <v>1</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>67</v>
@@ -14417,13 +14329,13 @@
     </row>
     <row r="354" spans="1:10" ht="12.75">
       <c r="A354" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B354" s="2">
         <v>1</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>67</v>
@@ -14435,7 +14347,7 @@
         <v>13</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H354" s="2">
         <v>0</v>
@@ -14447,13 +14359,13 @@
     </row>
     <row r="355" spans="1:10" ht="12.75">
       <c r="A355" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B355" s="2">
         <v>1</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>67</v>
@@ -14477,13 +14389,13 @@
     </row>
     <row r="356" spans="1:10" ht="12.75">
       <c r="A356" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B356" s="2">
         <v>3</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>12</v>
@@ -14495,7 +14407,7 @@
         <v>294</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H356" s="2">
         <v>0</v>
@@ -14507,25 +14419,25 @@
     </row>
     <row r="357" spans="1:10" ht="12.75">
       <c r="A357" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B357" s="2">
         <v>1</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>311</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H357" s="2">
         <v>75</v>
@@ -14539,13 +14451,13 @@
     </row>
     <row r="358" spans="1:10" ht="12.75">
       <c r="A358" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B358" s="2">
         <v>1</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>67</v>
@@ -14569,13 +14481,13 @@
     </row>
     <row r="359" spans="1:10" ht="12.75">
       <c r="A359" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B359" s="2">
         <v>1</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>67</v>
@@ -14599,13 +14511,13 @@
     </row>
     <row r="360" spans="1:10" ht="12.75">
       <c r="A360" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B360" s="2">
         <v>1</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>67</v>
@@ -14617,7 +14529,7 @@
         <v>13</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H360" s="2">
         <v>0</v>
@@ -14629,25 +14541,25 @@
     </row>
     <row r="361" spans="1:10" ht="12.75">
       <c r="A361" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B361" s="2">
         <v>31</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H361" s="2">
         <v>0</v>
@@ -14659,25 +14571,25 @@
     </row>
     <row r="362" spans="1:10" ht="12.75">
       <c r="A362" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B362" s="2">
         <v>31</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H362" s="2">
         <v>0</v>
@@ -14689,25 +14601,25 @@
     </row>
     <row r="363" spans="1:10" ht="12.75">
       <c r="A363" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B363" s="2">
         <v>31</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H363" s="2">
         <v>0</v>
@@ -14719,25 +14631,25 @@
     </row>
     <row r="364" spans="1:10" ht="12.75">
       <c r="A364" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B364" s="2">
         <v>31</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H364" s="2">
         <v>0</v>
@@ -14749,25 +14661,25 @@
     </row>
     <row r="365" spans="1:10" ht="12.75">
       <c r="A365" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B365" s="2">
         <v>31</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H365" s="2">
         <v>0</v>
@@ -14779,13 +14691,13 @@
     </row>
     <row r="366" spans="1:10" ht="12.75">
       <c r="A366" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B366" s="2">
         <v>8</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>249</v>
@@ -14800,24 +14712,22 @@
         <v>13</v>
       </c>
       <c r="H366" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I366" s="2">
-        <v>30</v>
-      </c>
-      <c r="J366" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J366" s="2"/>
     </row>
     <row r="367" spans="1:10" ht="12.75">
       <c r="A367" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B367" s="2">
         <v>1</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>67</v>
@@ -14832,24 +14742,22 @@
         <v>13</v>
       </c>
       <c r="H367" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I367" s="2">
-        <v>16</v>
-      </c>
-      <c r="J367" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J367" s="2"/>
     </row>
     <row r="368" spans="1:10" ht="12.75">
       <c r="A368" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B368" s="2">
         <v>1</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>67</v>
@@ -14873,25 +14781,25 @@
     </row>
     <row r="369" spans="1:10" ht="12.75">
       <c r="A369" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B369" s="2">
         <v>1</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E369" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G369" s="2" t="s">
         <v>908</v>
-      </c>
-      <c r="F369" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G369" s="2" t="s">
-        <v>909</v>
       </c>
       <c r="H369" s="2">
         <v>0</v>
@@ -14903,13 +14811,13 @@
     </row>
     <row r="370" spans="1:10" ht="12.75">
       <c r="A370" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B370" s="2">
         <v>8</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>249</v>
@@ -14924,24 +14832,22 @@
         <v>13</v>
       </c>
       <c r="H370" s="2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="I370" s="2">
-        <v>210</v>
-      </c>
-      <c r="J370" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J370" s="2"/>
     </row>
     <row r="371" spans="1:10" ht="12.75">
       <c r="A371" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B371" s="2">
         <v>8</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>249</v>
@@ -14965,13 +14871,13 @@
     </row>
     <row r="372" spans="1:10" ht="12.75">
       <c r="A372" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B372" s="2">
         <v>8</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>249</v>
@@ -14995,13 +14901,13 @@
     </row>
     <row r="373" spans="1:10" ht="12.75">
       <c r="A373" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B373" s="2">
         <v>8</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>249</v>
@@ -15027,13 +14933,13 @@
     </row>
     <row r="374" spans="1:10" ht="12.75">
       <c r="A374" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B374" s="2">
         <v>1</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>67</v>
@@ -15057,13 +14963,13 @@
     </row>
     <row r="375" spans="1:10" ht="12.75">
       <c r="A375" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B375" s="2">
         <v>1</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>67</v>
@@ -15087,13 +14993,13 @@
     </row>
     <row r="376" spans="1:10" ht="12.75">
       <c r="A376" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B376" s="2">
         <v>1</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>67</v>
@@ -15117,17 +15023,17 @@
     </row>
     <row r="377" spans="1:10" ht="12.75">
       <c r="A377" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B377" s="2">
         <v>11</v>
       </c>
       <c r="C377" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="D377" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="D377" s="2" t="s">
-        <v>926</v>
-      </c>
       <c r="E377" s="2" t="s">
         <v>13</v>
       </c>
@@ -15138,24 +15044,22 @@
         <v>13</v>
       </c>
       <c r="H377" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I377" s="2">
-        <v>7</v>
-      </c>
-      <c r="J377" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J377" s="2"/>
     </row>
     <row r="378" spans="1:10" ht="12.75">
       <c r="A378" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B378" s="2">
         <v>3</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>12</v>
@@ -15179,13 +15083,13 @@
     </row>
     <row r="379" spans="1:10" ht="12.75">
       <c r="A379" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B379" s="2">
         <v>3</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>12</v>
@@ -15200,24 +15104,22 @@
         <v>13</v>
       </c>
       <c r="H379" s="2">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="I379" s="2">
-        <v>644</v>
-      </c>
-      <c r="J379" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J379" s="2"/>
     </row>
     <row r="380" spans="1:10" ht="12.75">
       <c r="A380" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B380" s="2">
         <v>3</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>12</v>
@@ -15241,19 +15143,19 @@
     </row>
     <row r="381" spans="1:10" ht="12.75">
       <c r="A381" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B381" s="2">
         <v>3</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>13</v>
@@ -15271,19 +15173,19 @@
     </row>
     <row r="382" spans="1:10" ht="12.75">
       <c r="A382" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B382" s="2">
         <v>3</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>13</v>
@@ -15301,16 +15203,16 @@
     </row>
     <row r="383" spans="1:10" ht="12.75">
       <c r="A383" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B383" s="2">
         <v>19</v>
       </c>
       <c r="C383" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="D383" s="2" t="s">
         <v>938</v>
-      </c>
-      <c r="D383" s="2" t="s">
-        <v>939</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>13</v>
@@ -15331,13 +15233,13 @@
     </row>
     <row r="384" spans="1:10" ht="12.75">
       <c r="A384" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B384" s="2">
         <v>3</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>12</v>
@@ -15361,13 +15263,13 @@
     </row>
     <row r="385" spans="1:10" ht="12.75">
       <c r="A385" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B385" s="2">
         <v>3</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>12</v>
@@ -15391,25 +15293,25 @@
     </row>
     <row r="386" spans="1:10" ht="12.75">
       <c r="A386" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B386" s="2">
         <v>3</v>
       </c>
       <c r="C386" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F386" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="D386" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E386" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F386" s="2" t="s">
+      <c r="G386" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="G386" s="2" t="s">
-        <v>947</v>
       </c>
       <c r="H386" s="2">
         <v>0</v>
@@ -15421,13 +15323,13 @@
     </row>
     <row r="387" spans="1:10" ht="12.75">
       <c r="A387" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B387" s="2">
         <v>3</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>12</v>
@@ -15451,13 +15353,13 @@
     </row>
     <row r="388" spans="1:10" ht="12.75">
       <c r="A388" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B388" s="2">
         <v>3</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>12</v>
@@ -15481,13 +15383,13 @@
     </row>
     <row r="389" spans="1:10" ht="12.75">
       <c r="A389" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B389" s="2">
         <v>3</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>12</v>
@@ -15511,13 +15413,13 @@
     </row>
     <row r="390" spans="1:10" ht="12.75">
       <c r="A390" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B390" s="2">
         <v>3</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>12</v>
@@ -15541,25 +15443,25 @@
     </row>
     <row r="391" spans="1:10" ht="12.75">
       <c r="A391" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B391" s="2">
         <v>2</v>
       </c>
       <c r="C391" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="D391" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="D391" s="2" t="s">
+      <c r="E391" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F391" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="E391" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F391" s="2" t="s">
+      <c r="G391" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="G391" s="2" t="s">
-        <v>960</v>
       </c>
       <c r="H391" s="2">
         <v>0</v>
@@ -15571,25 +15473,25 @@
     </row>
     <row r="392" spans="1:10" ht="12.75">
       <c r="A392" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B392" s="2">
         <v>2</v>
       </c>
       <c r="C392" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F392" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="D392" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="E392" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F392" s="2" t="s">
+      <c r="G392" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="G392" s="2" t="s">
-        <v>964</v>
       </c>
       <c r="H392" s="2">
         <v>0</v>
@@ -15601,25 +15503,25 @@
     </row>
     <row r="393" spans="1:10" ht="12.75">
       <c r="A393" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B393" s="2">
         <v>2</v>
       </c>
       <c r="C393" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G393" s="2" t="s">
         <v>966</v>
-      </c>
-      <c r="D393" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="E393" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F393" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G393" s="2" t="s">
-        <v>967</v>
       </c>
       <c r="H393" s="2">
         <v>0</v>
@@ -15631,25 +15533,25 @@
     </row>
     <row r="394" spans="1:10" ht="12.75">
       <c r="A394" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B394" s="2">
         <v>2</v>
       </c>
       <c r="C394" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G394" s="2" t="s">
         <v>969</v>
-      </c>
-      <c r="D394" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="E394" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F394" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G394" s="2" t="s">
-        <v>970</v>
       </c>
       <c r="H394" s="2">
         <v>0</v>
@@ -15661,25 +15563,25 @@
     </row>
     <row r="395" spans="1:10" ht="12.75">
       <c r="A395" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B395" s="2">
         <v>2</v>
       </c>
       <c r="C395" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G395" s="2" t="s">
         <v>972</v>
-      </c>
-      <c r="D395" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="E395" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F395" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G395" s="2" t="s">
-        <v>973</v>
       </c>
       <c r="H395" s="2">
         <v>0</v>
@@ -15691,25 +15593,25 @@
     </row>
     <row r="396" spans="1:10" ht="12.75">
       <c r="A396" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B396" s="2">
         <v>2</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F396" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="G396" s="2" t="s">
         <v>975</v>
-      </c>
-      <c r="G396" s="2" t="s">
-        <v>976</v>
       </c>
       <c r="H396" s="2">
         <v>0</v>
@@ -15721,16 +15623,16 @@
     </row>
     <row r="397" spans="1:10" ht="12.75">
       <c r="A397" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B397" s="2">
         <v>6</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>13</v>
@@ -15751,25 +15653,25 @@
     </row>
     <row r="398" spans="1:10" ht="12.75">
       <c r="A398" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B398" s="2">
         <v>2</v>
       </c>
       <c r="C398" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G398" s="2" t="s">
         <v>980</v>
-      </c>
-      <c r="D398" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="E398" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F398" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G398" s="2" t="s">
-        <v>981</v>
       </c>
       <c r="H398" s="2">
         <v>0</v>
@@ -15781,16 +15683,16 @@
     </row>
     <row r="399" spans="1:10" ht="12.75">
       <c r="A399" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B399" s="2">
         <v>2</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E399" s="2" t="s">
         <v>13</v>

--- a/43.xlsx
+++ b/43.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="984">
   <si>
     <t xml:space="preserve">كد  كالا   </t>
   </si>
@@ -669,7 +669,7 @@
     <t xml:space="preserve">         43001010090</t>
   </si>
   <si>
-    <t>بهران درفش 150</t>
+    <t>بهران در فش 150</t>
   </si>
   <si>
     <t>Morlina SD(Morlina SS2B150</t>
@@ -678,7 +678,7 @@
     <t xml:space="preserve">         43001010091</t>
   </si>
   <si>
-    <t>بهران درفش220</t>
+    <t>بهران در فش220</t>
   </si>
   <si>
     <t xml:space="preserve">         43001010092</t>
@@ -810,7 +810,7 @@
     <t xml:space="preserve">         43001010106</t>
   </si>
   <si>
-    <t>White Oil Pharmaceutical</t>
+    <t>Wite Oil Pharmaceutical</t>
   </si>
   <si>
     <t>Sell,Viscosity Gradw VG15</t>
@@ -1161,298 +1161,301 @@
     <t>SKF Grease</t>
   </si>
   <si>
+    <t>نيروگه</t>
+  </si>
+  <si>
+    <t>LGMT 3/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020031</t>
+  </si>
+  <si>
+    <t>گريس راگا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020032</t>
+  </si>
+  <si>
+    <t>گريس كنتاكت</t>
+  </si>
+  <si>
+    <t>Contact Grease</t>
+  </si>
+  <si>
+    <t>Molykote, type:HSC Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020033</t>
+  </si>
+  <si>
+    <t>گريس موليكوت</t>
+  </si>
+  <si>
+    <t>Thread Paste ,M:P-37,0~1400C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020034</t>
+  </si>
+  <si>
+    <t>گريس پايه كلسيم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020035</t>
+  </si>
+  <si>
+    <t>گريس پايه ليتيم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020036</t>
+  </si>
+  <si>
+    <t>گريس آتلانتيك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020037</t>
+  </si>
+  <si>
+    <t>گريس قطران با پايه بنتون NLGI-3</t>
+  </si>
+  <si>
+    <t>Non-Dropping Point Worked penetration 220-250 mm/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020038</t>
+  </si>
+  <si>
+    <t>گريس</t>
+  </si>
+  <si>
+    <t>نيروگاه HV Unit</t>
+  </si>
+  <si>
+    <t>ECO-LI 91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020039</t>
+  </si>
+  <si>
+    <t>Mobilith SHC220(Synthetic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020040</t>
+  </si>
+  <si>
+    <t>Polyrex EM103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020041</t>
+  </si>
+  <si>
+    <t>Unirex N3 Grease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020042</t>
+  </si>
+  <si>
+    <t>گريس قطران با پايه بنتون NLGI-2</t>
+  </si>
+  <si>
+    <t>Non-Dropping Point Worked penetration 265-295 mm/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020043</t>
+  </si>
+  <si>
+    <t>Grease Sealweld</t>
+  </si>
+  <si>
+    <t>TOTAL-LUBE 911 FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020044</t>
+  </si>
+  <si>
+    <t>ALBIDA Grease SDM1</t>
+  </si>
+  <si>
+    <t>SHELL GADUS S3 V770D 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020045</t>
+  </si>
+  <si>
+    <t>MULTIS EP1</t>
+  </si>
+  <si>
+    <t>Alvania EP(LF)1</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020046</t>
+  </si>
+  <si>
+    <t>MULTIS EP2</t>
+  </si>
+  <si>
+    <t>Alvania EP(LF)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020047</t>
+  </si>
+  <si>
+    <t>Grease</t>
+  </si>
+  <si>
+    <t>SKF-LGHP2/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020048</t>
+  </si>
+  <si>
+    <t>Bechem Berutox M21 KN</t>
+  </si>
+  <si>
+    <t>Gadus S1 V220 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020049</t>
+  </si>
+  <si>
+    <t>Albida EP2(Gados S3 V220C 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020050</t>
+  </si>
+  <si>
+    <t>گريس آنتي سيز (ضد جوش خوردگي)</t>
+  </si>
+  <si>
+    <t>Total - Specis Cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020051</t>
+  </si>
+  <si>
+    <t>Grease Carter ENS-EP700</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020052</t>
+  </si>
+  <si>
+    <t>گريس Nomynol Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020053</t>
+  </si>
+  <si>
+    <t>Gearse</t>
+  </si>
+  <si>
+    <t>فولاد ساز ي</t>
+  </si>
+  <si>
+    <t>OKS1110,Silicon Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020055</t>
+  </si>
+  <si>
+    <t>Grease kluber Staburags NBU 8 EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020056</t>
+  </si>
+  <si>
+    <t>Grease Kluber Isoflex Topas NB 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020057</t>
+  </si>
+  <si>
+    <t>Alimak Spec Grease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020058</t>
+  </si>
+  <si>
+    <t>Shell Retinax LX2 Grease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020059</t>
+  </si>
+  <si>
+    <t>Ali Low Fric Compound Grease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020060</t>
+  </si>
+  <si>
+    <t>Rack Grease</t>
+  </si>
+  <si>
+    <t>Alimak3001396-108,400g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020061</t>
+  </si>
+  <si>
+    <t>گريس آلومينيوم كمپلكس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020062</t>
+  </si>
+  <si>
+    <t>Shell Alvania Grease 1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020063</t>
+  </si>
+  <si>
+    <t>Grease III Compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020064</t>
+  </si>
+  <si>
+    <t>Molykote Multilub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020065</t>
+  </si>
+  <si>
+    <t>Molykote D-321 R Spray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020066</t>
+  </si>
+  <si>
+    <t>Fomblin Y-LC Serie 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020067</t>
+  </si>
+  <si>
+    <t>Fomblin Y-LOX Serie 120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020068</t>
+  </si>
+  <si>
+    <t>Long Life Grease</t>
+  </si>
+  <si>
+    <t>MOTOREX, FETT 2000- NLGI2 (Tube:100g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43001020069</t>
+  </si>
+  <si>
+    <t>گريس بهران لعل</t>
+  </si>
+  <si>
     <t>نيروگاه</t>
-  </si>
-  <si>
-    <t>LGMT 3/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020031</t>
-  </si>
-  <si>
-    <t>گريس راگا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020032</t>
-  </si>
-  <si>
-    <t>گريس كنتاكت</t>
-  </si>
-  <si>
-    <t>Contact Grease</t>
-  </si>
-  <si>
-    <t>Molykote, type:HSC Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020033</t>
-  </si>
-  <si>
-    <t>گريس موليكوت</t>
-  </si>
-  <si>
-    <t>Thread Paste ,M:P-37,0~1400C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020034</t>
-  </si>
-  <si>
-    <t>گريس پايه كلسيم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020035</t>
-  </si>
-  <si>
-    <t>گريس پايه ليتيم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020036</t>
-  </si>
-  <si>
-    <t>گريس آتلانتيك</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020037</t>
-  </si>
-  <si>
-    <t>گريس قطران با پايه بنتون NLGI-3</t>
-  </si>
-  <si>
-    <t>Non-Dropping Point Worked penetration 220-250 mm/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020038</t>
-  </si>
-  <si>
-    <t>گريس</t>
-  </si>
-  <si>
-    <t>نيروگاه HV Unit</t>
-  </si>
-  <si>
-    <t>ECO-LI 91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020039</t>
-  </si>
-  <si>
-    <t>Mobilith SHC220(Synthetic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020040</t>
-  </si>
-  <si>
-    <t>Polyrex EM103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020041</t>
-  </si>
-  <si>
-    <t>Unirex N3 Grease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020042</t>
-  </si>
-  <si>
-    <t>گريس قطران با پايه بنتون NLGI-2</t>
-  </si>
-  <si>
-    <t>Non-Dropping Point Worked penetration 265-295 mm/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020043</t>
-  </si>
-  <si>
-    <t>Grease Sealweld</t>
-  </si>
-  <si>
-    <t>TOTAL-LUBE 911 FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020044</t>
-  </si>
-  <si>
-    <t>ALBIDA Grease SDM1</t>
-  </si>
-  <si>
-    <t>SHELL GADUS S3 V770D 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020045</t>
-  </si>
-  <si>
-    <t>MULTIS EP1</t>
-  </si>
-  <si>
-    <t>Alvania EP(LF)1</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020046</t>
-  </si>
-  <si>
-    <t>MULTIS EP2</t>
-  </si>
-  <si>
-    <t>Alvania EP(LF)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020047</t>
-  </si>
-  <si>
-    <t>Grease</t>
-  </si>
-  <si>
-    <t>SKF-LGHP2/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020048</t>
-  </si>
-  <si>
-    <t>Bechem Berutox M21 KN</t>
-  </si>
-  <si>
-    <t>Gadus S1 V220 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020049</t>
-  </si>
-  <si>
-    <t>Albida EP2(Gados S3 V220C 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020050</t>
-  </si>
-  <si>
-    <t>گريس آنتي سيز (ضد جوش خوردگي)</t>
-  </si>
-  <si>
-    <t>Total - Specis Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020051</t>
-  </si>
-  <si>
-    <t>Grease Carter ENS-EP700</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020052</t>
-  </si>
-  <si>
-    <t>گريس Nomynol Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020053</t>
-  </si>
-  <si>
-    <t>Gearse</t>
-  </si>
-  <si>
-    <t>فولاد ساز ي</t>
-  </si>
-  <si>
-    <t>OKS1110,Silicon Base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020055</t>
-  </si>
-  <si>
-    <t>Grease kluber Staburags NBU 8 EP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020056</t>
-  </si>
-  <si>
-    <t>Grease Kluber Isoflex Topas NB 52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020057</t>
-  </si>
-  <si>
-    <t>Alimak Spec Grease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020058</t>
-  </si>
-  <si>
-    <t>Shell Retinax LX2 Grease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020059</t>
-  </si>
-  <si>
-    <t>Ali Low Fric Compound Grease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020060</t>
-  </si>
-  <si>
-    <t>Rack Grease</t>
-  </si>
-  <si>
-    <t>Alimak3001396-108,400g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020061</t>
-  </si>
-  <si>
-    <t>گريس آلومينيوم كمپلكس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020062</t>
-  </si>
-  <si>
-    <t>Shell Alvania Grease 1029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020063</t>
-  </si>
-  <si>
-    <t>Grease III Compound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020064</t>
-  </si>
-  <si>
-    <t>Molykote Multilub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020065</t>
-  </si>
-  <si>
-    <t>Molykote D-321 R Spray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020066</t>
-  </si>
-  <si>
-    <t>Fomblin Y-LC Serie 200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020067</t>
-  </si>
-  <si>
-    <t>Fomblin Y-LOX Serie 120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020068</t>
-  </si>
-  <si>
-    <t>Long Life Grease</t>
-  </si>
-  <si>
-    <t>MOTOREX, FETT 2000- NLGI2 (Tube:100g)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         43001020069</t>
-  </si>
-  <si>
-    <t>گريس بهران لعل</t>
   </si>
   <si>
     <t>Calcium base NLGI Grade2</t>
@@ -3460,8 +3463,7 @@
     <col min="5" max="5" width="35.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="32.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="73.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="7.28571428571429" customWidth="1"/>
-    <col min="9" max="9" width="7.42857142857143" customWidth="1"/>
+    <col min="8" max="9" width="8.28571428571429" customWidth="1"/>
     <col min="10" max="10" width="6.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3520,10 +3522,10 @@
         <v>13</v>
       </c>
       <c r="H2" s="2">
-        <v>1018</v>
+        <v>6243</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>5225</v>
       </c>
       <c r="J2" s="2">
         <v>1018</v>
@@ -3582,13 +3584,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="2">
+        <v>5852</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1254</v>
+      </c>
+      <c r="J4" s="2">
         <v>4598</v>
-      </c>
-      <c r="I4" s="2">
-        <v>418</v>
-      </c>
-      <c r="J4" s="2">
-        <v>4180</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75">
@@ -3614,12 +3616,14 @@
         <v>13</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>3553</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>3553</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="2" t="s">
@@ -3644,13 +3648,13 @@
         <v>13</v>
       </c>
       <c r="H6" s="2">
+        <v>1325</v>
+      </c>
+      <c r="I6" s="2">
+        <v>418</v>
+      </c>
+      <c r="J6" s="2">
         <v>907</v>
-      </c>
-      <c r="I6" s="2">
-        <v>209</v>
-      </c>
-      <c r="J6" s="2">
-        <v>698</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75">
@@ -3676,13 +3680,13 @@
         <v>13</v>
       </c>
       <c r="H7" s="2">
+        <v>9007</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5643</v>
+      </c>
+      <c r="J7" s="2">
         <v>3364</v>
-      </c>
-      <c r="I7" s="2">
-        <v>627</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2737</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75">
@@ -3768,10 +3772,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="2">
-        <v>3553</v>
+        <v>3762</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="J10" s="2">
         <v>3553</v>
@@ -3800,10 +3804,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="2">
-        <v>24324</v>
+        <v>25787</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1463</v>
       </c>
       <c r="J11" s="2">
         <v>24324</v>
@@ -4048,13 +4052,13 @@
         <v>13</v>
       </c>
       <c r="H19" s="2">
+        <v>3800</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1600</v>
+      </c>
+      <c r="J19" s="2">
         <v>2200</v>
-      </c>
-      <c r="I19" s="2">
-        <v>400</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1800</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.75">
@@ -4200,12 +4204,14 @@
         <v>13</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="12.75">
       <c r="A25" s="2" t="s">
@@ -4262,12 +4268,14 @@
         <v>64</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>6032</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2"/>
+        <v>6032</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="12.75">
       <c r="A27" s="2" t="s">
@@ -4292,12 +4300,14 @@
         <v>68</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="12.75">
       <c r="A28" s="2" t="s">
@@ -4322,12 +4332,14 @@
         <v>13</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="12.75">
       <c r="A29" s="2" t="s">
@@ -4352,10 +4364,10 @@
         <v>13</v>
       </c>
       <c r="H29" s="2">
-        <v>2926</v>
+        <v>4180</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>1254</v>
       </c>
       <c r="J29" s="2">
         <v>2926</v>
@@ -4414,13 +4426,13 @@
         <v>13</v>
       </c>
       <c r="H31" s="2">
+        <v>5434</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1672</v>
+      </c>
+      <c r="J31" s="2">
         <v>3762</v>
-      </c>
-      <c r="I31" s="2">
-        <v>209</v>
-      </c>
-      <c r="J31" s="2">
-        <v>3553</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75">
@@ -4538,12 +4550,14 @@
         <v>13</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>1664</v>
       </c>
       <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2"/>
+        <v>1664</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="12.75">
       <c r="A36" s="2" t="s">
@@ -4568,12 +4582,14 @@
         <v>13</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="12.75">
       <c r="A37" s="2" t="s">
@@ -4724,12 +4740,14 @@
         <v>64</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:10" ht="12.75">
       <c r="A42" s="2" t="s">
@@ -4940,10 +4958,10 @@
         <v>64</v>
       </c>
       <c r="H48" s="2">
-        <v>1456</v>
+        <v>7896</v>
       </c>
       <c r="I48" s="2">
-        <v>0</v>
+        <v>6440</v>
       </c>
       <c r="J48" s="2">
         <v>1456</v>
@@ -5002,12 +5020,14 @@
         <v>123</v>
       </c>
       <c r="H50" s="2">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:10" ht="12.75">
       <c r="A51" s="2" t="s">
@@ -5248,10 +5268,10 @@
         <v>143</v>
       </c>
       <c r="H58" s="2">
-        <v>46611</v>
+        <v>46819</v>
       </c>
       <c r="I58" s="2">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="J58" s="2">
         <v>46611</v>
@@ -5312,10 +5332,10 @@
         <v>151</v>
       </c>
       <c r="H60" s="2">
-        <v>5000</v>
+        <v>17272</v>
       </c>
       <c r="I60" s="2">
-        <v>0</v>
+        <v>12272</v>
       </c>
       <c r="J60" s="2">
         <v>5000</v>
@@ -5374,12 +5394,14 @@
         <v>13</v>
       </c>
       <c r="H62" s="2">
-        <v>0</v>
+        <v>2496</v>
       </c>
       <c r="I62" s="2">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2"/>
+        <v>2496</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:10" ht="12.75">
       <c r="A63" s="2" t="s">
@@ -5404,12 +5426,14 @@
         <v>13</v>
       </c>
       <c r="H63" s="2">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:10" ht="12.75">
       <c r="A64" s="2" t="s">
@@ -5434,13 +5458,13 @@
         <v>13</v>
       </c>
       <c r="H64" s="2">
+        <v>80288</v>
+      </c>
+      <c r="I64" s="2">
+        <v>43888</v>
+      </c>
+      <c r="J64" s="2">
         <v>36400</v>
-      </c>
-      <c r="I64" s="2">
-        <v>16640</v>
-      </c>
-      <c r="J64" s="2">
-        <v>19760</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="12.75">
@@ -5466,10 +5490,10 @@
         <v>13</v>
       </c>
       <c r="H65" s="2">
-        <v>627</v>
+        <v>4598</v>
       </c>
       <c r="I65" s="2">
-        <v>0</v>
+        <v>3971</v>
       </c>
       <c r="J65" s="2">
         <v>627</v>
@@ -5498,10 +5522,10 @@
         <v>13</v>
       </c>
       <c r="H66" s="2">
-        <v>1045</v>
+        <v>1463</v>
       </c>
       <c r="I66" s="2">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="J66" s="2">
         <v>1045</v>
@@ -5530,10 +5554,10 @@
         <v>13</v>
       </c>
       <c r="H67" s="2">
-        <v>3344</v>
+        <v>4807</v>
       </c>
       <c r="I67" s="2">
-        <v>0</v>
+        <v>1463</v>
       </c>
       <c r="J67" s="2">
         <v>3344</v>
@@ -5562,10 +5586,10 @@
         <v>13</v>
       </c>
       <c r="H68" s="2">
-        <v>1100</v>
+        <v>1560</v>
       </c>
       <c r="I68" s="2">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="J68" s="2">
         <v>1100</v>
@@ -5626,14 +5650,12 @@
         <v>13</v>
       </c>
       <c r="H70" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I70" s="2">
         <v>0</v>
       </c>
-      <c r="J70" s="2">
-        <v>200</v>
-      </c>
+      <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" ht="12.75">
       <c r="A71" s="2" t="s">
@@ -5693,10 +5715,10 @@
         <v>40</v>
       </c>
       <c r="I72" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J72" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="12.75">
@@ -6002,10 +6024,10 @@
         <v>13</v>
       </c>
       <c r="H82" s="2">
-        <v>7942</v>
+        <v>9614</v>
       </c>
       <c r="I82" s="2">
-        <v>0</v>
+        <v>1672</v>
       </c>
       <c r="J82" s="2">
         <v>7942</v>
@@ -6355,10 +6377,10 @@
         <v>9984</v>
       </c>
       <c r="I93" s="2">
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="J93" s="2">
-        <v>5824</v>
+        <v>9984</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="12.75">
@@ -6384,10 +6406,10 @@
         <v>226</v>
       </c>
       <c r="H94" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="I94" s="2">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="J94" s="2">
         <v>40</v>
@@ -6480,10 +6502,10 @@
         <v>13</v>
       </c>
       <c r="H97" s="2">
-        <v>624</v>
+        <v>832</v>
       </c>
       <c r="I97" s="2">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="J97" s="2">
         <v>624</v>
@@ -6798,10 +6820,10 @@
         <v>265</v>
       </c>
       <c r="H107" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="I107" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J107" s="2">
         <v>80</v>
@@ -6986,10 +7008,10 @@
         <v>283</v>
       </c>
       <c r="H113" s="2">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="I113" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J113" s="2">
         <v>159</v>
@@ -7108,12 +7130,14 @@
         <v>295</v>
       </c>
       <c r="H117" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I117" s="2">
-        <v>0</v>
-      </c>
-      <c r="J117" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="J117" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:10" ht="12.75">
       <c r="A118" s="2" t="s">
@@ -7138,12 +7162,14 @@
         <v>298</v>
       </c>
       <c r="H118" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I118" s="2">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J118" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:10" ht="12.75">
       <c r="A119" s="2" t="s">
@@ -7228,10 +7254,10 @@
         <v>13</v>
       </c>
       <c r="H121" s="2">
-        <v>11856</v>
+        <v>25376</v>
       </c>
       <c r="I121" s="2">
-        <v>0</v>
+        <v>13520</v>
       </c>
       <c r="J121" s="2">
         <v>11856</v>
@@ -7260,12 +7286,14 @@
         <v>13</v>
       </c>
       <c r="H122" s="2">
-        <v>0</v>
+        <v>8320</v>
       </c>
       <c r="I122" s="2">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2"/>
+        <v>8320</v>
+      </c>
+      <c r="J122" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:10" ht="12.75">
       <c r="A123" s="2" t="s">
@@ -7290,12 +7318,14 @@
         <v>13</v>
       </c>
       <c r="H123" s="2">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="I123" s="2">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="J123" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:10" ht="12.75">
       <c r="A124" s="2" t="s">
@@ -7350,10 +7380,10 @@
         <v>13</v>
       </c>
       <c r="H125" s="2">
-        <v>1140</v>
+        <v>1518</v>
       </c>
       <c r="I125" s="2">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="J125" s="2">
         <v>1140</v>
@@ -7382,10 +7412,10 @@
         <v>13</v>
       </c>
       <c r="H126" s="2">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="I126" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J126" s="2">
         <v>900</v>
@@ -7446,12 +7476,14 @@
         <v>13</v>
       </c>
       <c r="H128" s="2">
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="I128" s="2">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2"/>
+        <v>1980</v>
+      </c>
+      <c r="J128" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:10" ht="12.75">
       <c r="A129" s="2" t="s">
@@ -7476,13 +7508,13 @@
         <v>13</v>
       </c>
       <c r="H129" s="2">
+        <v>6120</v>
+      </c>
+      <c r="I129" s="2">
+        <v>4320</v>
+      </c>
+      <c r="J129" s="2">
         <v>1800</v>
-      </c>
-      <c r="I129" s="2">
-        <v>360</v>
-      </c>
-      <c r="J129" s="2">
-        <v>1440</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="12.75">
@@ -7538,10 +7570,10 @@
         <v>13</v>
       </c>
       <c r="H131" s="2">
+        <v>360</v>
+      </c>
+      <c r="I131" s="2">
         <v>180</v>
-      </c>
-      <c r="I131" s="2">
-        <v>0</v>
       </c>
       <c r="J131" s="2">
         <v>180</v>
@@ -7662,10 +7694,10 @@
         <v>336</v>
       </c>
       <c r="H135" s="2">
-        <v>950</v>
+        <v>9120</v>
       </c>
       <c r="I135" s="2">
-        <v>0</v>
+        <v>8170</v>
       </c>
       <c r="J135" s="2">
         <v>950</v>
@@ -7694,10 +7726,10 @@
         <v>336</v>
       </c>
       <c r="H136" s="2">
-        <v>1490</v>
+        <v>3770</v>
       </c>
       <c r="I136" s="2">
-        <v>0</v>
+        <v>2280</v>
       </c>
       <c r="J136" s="2">
         <v>1490</v>
@@ -7726,10 +7758,10 @@
         <v>336</v>
       </c>
       <c r="H137" s="2">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="I137" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J137" s="2">
         <v>360</v>
@@ -7852,12 +7884,14 @@
         <v>13</v>
       </c>
       <c r="H141" s="2">
-        <v>0</v>
+        <v>4140</v>
       </c>
       <c r="I141" s="2">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2"/>
+        <v>4140</v>
+      </c>
+      <c r="J141" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:10" ht="12.75">
       <c r="A142" s="2" t="s">
@@ -8034,12 +8068,14 @@
         <v>13</v>
       </c>
       <c r="H147" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I147" s="2">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J147" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:10" ht="12.75">
       <c r="A148" s="2" t="s">
@@ -8154,12 +8190,14 @@
         <v>13</v>
       </c>
       <c r="H151" s="2">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="I151" s="2">
-        <v>0</v>
-      </c>
-      <c r="J151" s="2"/>
+        <v>846</v>
+      </c>
+      <c r="J151" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:10" ht="12.75">
       <c r="A152" s="2" t="s">
@@ -8648,10 +8686,10 @@
         <v>416</v>
       </c>
       <c r="H167" s="2">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="I167" s="2">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J167" s="2">
         <v>5.5</v>
@@ -8802,10 +8840,10 @@
         <v>13</v>
       </c>
       <c r="H172" s="2">
-        <v>540</v>
+        <v>2340</v>
       </c>
       <c r="I172" s="2">
-        <v>540</v>
+        <v>2340</v>
       </c>
       <c r="J172" s="2">
         <v>0</v>
@@ -8834,10 +8872,10 @@
         <v>13</v>
       </c>
       <c r="H173" s="2">
+        <v>360</v>
+      </c>
+      <c r="I173" s="2">
         <v>180</v>
-      </c>
-      <c r="I173" s="2">
-        <v>0</v>
       </c>
       <c r="J173" s="2">
         <v>180</v>
@@ -8990,12 +9028,14 @@
         <v>13</v>
       </c>
       <c r="H178" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I178" s="2">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="J178" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="1:10" ht="12.75">
       <c r="A179" s="2" t="s">
@@ -9020,12 +9060,14 @@
         <v>13</v>
       </c>
       <c r="H179" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" s="2">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="J179" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="180" spans="1:10" ht="12.75">
       <c r="A180" s="2" t="s">
@@ -9360,10 +9402,10 @@
         <v>13</v>
       </c>
       <c r="H190" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I190" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J190" s="2">
         <v>95</v>
@@ -9416,10 +9458,10 @@
         <v>13</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>381</v>
+        <v>479</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H192" s="2">
         <v>0</v>
@@ -9431,7 +9473,7 @@
     </row>
     <row r="193" spans="1:10" ht="12.75">
       <c r="A193" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B193" s="2">
         <v>8</v>
@@ -9449,7 +9491,7 @@
         <v>13</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H193" s="2">
         <v>0</v>
@@ -9461,25 +9503,25 @@
     </row>
     <row r="194" spans="1:10" ht="12.75">
       <c r="A194" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B194" s="2">
         <v>8</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>146</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H194" s="2">
         <v>0</v>
@@ -9491,25 +9533,25 @@
     </row>
     <row r="195" spans="1:10" ht="12.75">
       <c r="A195" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B195" s="2">
         <v>1</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H195" s="2">
         <v>6</v>
@@ -9523,25 +9565,25 @@
     </row>
     <row r="196" spans="1:10" ht="12.75">
       <c r="A196" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B196" s="2">
         <v>8</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>381</v>
+        <v>479</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H196" s="2">
         <v>0</v>
@@ -9553,16 +9595,16 @@
     </row>
     <row r="197" spans="1:10" ht="12.75">
       <c r="A197" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B197" s="2">
         <v>33</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>13</v>
@@ -9583,7 +9625,7 @@
     </row>
     <row r="198" spans="1:10" ht="12.75">
       <c r="A198" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B198" s="2">
         <v>8</v>
@@ -9601,7 +9643,7 @@
         <v>13</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H198" s="2">
         <v>0</v>
@@ -9613,7 +9655,7 @@
     </row>
     <row r="199" spans="1:10" ht="12.75">
       <c r="A199" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B199" s="2">
         <v>8</v>
@@ -9631,7 +9673,7 @@
         <v>13</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H199" s="2">
         <v>0</v>
@@ -9643,25 +9685,25 @@
     </row>
     <row r="200" spans="1:10" ht="12.75">
       <c r="A200" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B200" s="2">
         <v>8</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H200" s="2">
         <v>0</v>
@@ -9673,7 +9715,7 @@
     </row>
     <row r="201" spans="1:10" ht="12.75">
       <c r="A201" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B201" s="2">
         <v>8</v>
@@ -9691,19 +9733,21 @@
         <v>13</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H201" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I201" s="2">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="J201" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="202" spans="1:10" ht="12.75">
       <c r="A202" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B202" s="2">
         <v>8</v>
@@ -9721,19 +9765,21 @@
         <v>13</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H202" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" s="2">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="J202" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" spans="1:10" ht="12.75">
       <c r="A203" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B203" s="2">
         <v>8</v>
@@ -9751,19 +9797,21 @@
         <v>13</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H203" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I203" s="2">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="J203" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="1:10" ht="12.75">
       <c r="A204" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B204" s="2">
         <v>8</v>
@@ -9781,31 +9829,33 @@
         <v>13</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H204" s="2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I204" s="2">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="J204" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="1:10" ht="12.75">
       <c r="A205" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B205" s="2">
         <v>8</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>13</v>
@@ -9814,30 +9864,28 @@
         <v>13</v>
       </c>
       <c r="H205" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I205" s="2">
-        <v>180</v>
-      </c>
-      <c r="J205" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J205" s="2"/>
     </row>
     <row r="206" spans="1:10" ht="12.75">
       <c r="A206" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B206" s="2">
         <v>3</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>13</v>
@@ -9846,10 +9894,10 @@
         <v>13</v>
       </c>
       <c r="H206" s="2">
-        <v>362000</v>
+        <v>2852000</v>
       </c>
       <c r="I206" s="2">
-        <v>362000</v>
+        <v>2852000</v>
       </c>
       <c r="J206" s="2">
         <v>0</v>
@@ -9857,13 +9905,13 @@
     </row>
     <row r="207" spans="1:10" ht="12.75">
       <c r="A207" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B207" s="2">
         <v>1</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>67</v>
@@ -9875,7 +9923,7 @@
         <v>13</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H207" s="2">
         <v>0</v>
@@ -9887,13 +9935,13 @@
     </row>
     <row r="208" spans="1:10" ht="12.75">
       <c r="A208" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B208" s="2">
         <v>1</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>67</v>
@@ -9905,7 +9953,7 @@
         <v>13</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H208" s="2">
         <v>0</v>
@@ -9917,13 +9965,13 @@
     </row>
     <row r="209" spans="1:10" ht="12.75">
       <c r="A209" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B209" s="2">
         <v>1</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>67</v>
@@ -9935,7 +9983,7 @@
         <v>13</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H209" s="2">
         <v>0</v>
@@ -9947,13 +9995,13 @@
     </row>
     <row r="210" spans="1:10" ht="12.75">
       <c r="A210" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B210" s="2">
         <v>1</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>67</v>
@@ -9965,25 +10013,27 @@
         <v>13</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H210" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" s="2">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="J210" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="1:10" ht="12.75">
       <c r="A211" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B211" s="2">
         <v>1</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>67</v>
@@ -9995,7 +10045,7 @@
         <v>13</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H211" s="2">
         <v>0</v>
@@ -10007,13 +10057,13 @@
     </row>
     <row r="212" spans="1:10" ht="12.75">
       <c r="A212" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B212" s="2">
         <v>1</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>67</v>
@@ -10037,13 +10087,13 @@
     </row>
     <row r="213" spans="1:10" ht="12.75">
       <c r="A213" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B213" s="2">
         <v>1</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>67</v>
@@ -10067,13 +10117,13 @@
     </row>
     <row r="214" spans="1:10" ht="12.75">
       <c r="A214" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B214" s="2">
         <v>1</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>67</v>
@@ -10097,13 +10147,13 @@
     </row>
     <row r="215" spans="1:10" ht="12.75">
       <c r="A215" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B215" s="2">
         <v>1</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>67</v>
@@ -10115,7 +10165,7 @@
         <v>13</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H215" s="2">
         <v>0</v>
@@ -10127,13 +10177,13 @@
     </row>
     <row r="216" spans="1:10" ht="12.75">
       <c r="A216" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B216" s="2">
         <v>1</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>67</v>
@@ -10145,25 +10195,27 @@
         <v>13</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H216" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" s="2">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="J216" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="217" spans="1:10" ht="12.75">
       <c r="A217" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B217" s="2">
         <v>1</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>67</v>
@@ -10175,25 +10227,27 @@
         <v>13</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H217" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" s="2">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="J217" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="218" spans="1:10" ht="12.75">
       <c r="A218" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B218" s="2">
         <v>1</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>67</v>
@@ -10205,25 +10259,27 @@
         <v>13</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H218" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" s="2">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="J218" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="219" spans="1:10" ht="12.75">
       <c r="A219" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B219" s="2">
         <v>8</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>249</v>
@@ -10247,25 +10303,25 @@
     </row>
     <row r="220" spans="1:10" ht="12.75">
       <c r="A220" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B220" s="2">
         <v>1</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H220" s="2">
         <v>0</v>
@@ -10277,25 +10333,25 @@
     </row>
     <row r="221" spans="1:10" ht="12.75">
       <c r="A221" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B221" s="2">
         <v>1</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H221" s="2">
         <v>0</v>
@@ -10307,13 +10363,13 @@
     </row>
     <row r="222" spans="1:10" ht="12.75">
       <c r="A222" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B222" s="2">
         <v>1</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>67</v>
@@ -10337,13 +10393,13 @@
     </row>
     <row r="223" spans="1:10" ht="12.75">
       <c r="A223" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B223" s="2">
         <v>1</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>67</v>
@@ -10355,39 +10411,37 @@
         <v>13</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H223" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I223" s="2">
-        <v>32</v>
-      </c>
-      <c r="J223" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J223" s="2"/>
     </row>
     <row r="224" spans="1:10" ht="12.75">
       <c r="A224" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B224" s="2">
         <v>1</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H224" s="2">
         <v>0</v>
@@ -10399,16 +10453,16 @@
     </row>
     <row r="225" spans="1:10" ht="12.75">
       <c r="A225" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B225" s="2">
         <v>52</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>13</v>
@@ -10417,7 +10471,7 @@
         <v>13</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H225" s="2">
         <v>0</v>
@@ -10429,16 +10483,16 @@
     </row>
     <row r="226" spans="1:10" ht="12.75">
       <c r="A226" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B226" s="2">
         <v>52</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>13</v>
@@ -10447,7 +10501,7 @@
         <v>150</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H226" s="2">
         <v>0</v>
@@ -10459,13 +10513,13 @@
     </row>
     <row r="227" spans="1:10" ht="12.75">
       <c r="A227" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B227" s="2">
         <v>1</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>67</v>
@@ -10477,7 +10531,7 @@
         <v>150</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H227" s="2">
         <v>0</v>
@@ -10489,13 +10543,13 @@
     </row>
     <row r="228" spans="1:10" ht="12.75">
       <c r="A228" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B228" s="2">
         <v>1</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>67</v>
@@ -10519,13 +10573,13 @@
     </row>
     <row r="229" spans="1:10" ht="12.75">
       <c r="A229" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B229" s="2">
         <v>1</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>67</v>
@@ -10549,16 +10603,16 @@
     </row>
     <row r="230" spans="1:10" ht="12.75">
       <c r="A230" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B230" s="2">
         <v>52</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>13</v>
@@ -10570,22 +10624,24 @@
         <v>13</v>
       </c>
       <c r="H230" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230" s="2">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="J230" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="231" spans="1:10" ht="12.75">
       <c r="A231" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B231" s="2">
         <v>1</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>67</v>
@@ -10609,16 +10665,16 @@
     </row>
     <row r="232" spans="1:10" ht="12.75">
       <c r="A232" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B232" s="2">
         <v>52</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>13</v>
@@ -10639,13 +10695,13 @@
     </row>
     <row r="233" spans="1:10" ht="12.75">
       <c r="A233" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B233" s="2">
         <v>8</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>249</v>
@@ -10657,7 +10713,7 @@
         <v>294</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H233" s="2">
         <v>80</v>
@@ -10671,13 +10727,13 @@
     </row>
     <row r="234" spans="1:10" ht="12.75">
       <c r="A234" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B234" s="2">
         <v>3</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>12</v>
@@ -10701,13 +10757,13 @@
     </row>
     <row r="235" spans="1:10" ht="12.75">
       <c r="A235" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B235" s="2">
         <v>8</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>249</v>
@@ -10733,13 +10789,13 @@
     </row>
     <row r="236" spans="1:10" ht="12.75">
       <c r="A236" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B236" s="2">
         <v>8</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>249</v>
@@ -10765,13 +10821,13 @@
     </row>
     <row r="237" spans="1:10" ht="12.75">
       <c r="A237" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B237" s="2">
         <v>8</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>249</v>
@@ -10795,13 +10851,13 @@
     </row>
     <row r="238" spans="1:10" ht="12.75">
       <c r="A238" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B238" s="2">
         <v>8</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>249</v>
@@ -10810,7 +10866,7 @@
         <v>13</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>13</v>
@@ -10825,13 +10881,13 @@
     </row>
     <row r="239" spans="1:10" ht="12.75">
       <c r="A239" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B239" s="2">
         <v>3</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>12</v>
@@ -10855,13 +10911,13 @@
     </row>
     <row r="240" spans="1:10" ht="12.75">
       <c r="A240" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B240" s="2">
         <v>3</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>12</v>
@@ -10885,25 +10941,25 @@
     </row>
     <row r="241" spans="1:10" ht="12.75">
       <c r="A241" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B241" s="2">
         <v>3</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H241" s="2">
         <v>0</v>
@@ -10915,13 +10971,13 @@
     </row>
     <row r="242" spans="1:10" ht="12.75">
       <c r="A242" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B242" s="2">
         <v>8</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>249</v>
@@ -10936,22 +10992,24 @@
         <v>13</v>
       </c>
       <c r="H242" s="2">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="I242" s="2">
-        <v>0</v>
-      </c>
-      <c r="J242" s="2"/>
+        <v>914</v>
+      </c>
+      <c r="J242" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="243" spans="1:10" ht="12.75">
       <c r="A243" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B243" s="2">
         <v>3</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>12</v>
@@ -10977,13 +11035,13 @@
     </row>
     <row r="244" spans="1:10" ht="12.75">
       <c r="A244" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B244" s="2">
         <v>3</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>12</v>
@@ -11009,19 +11067,19 @@
     </row>
     <row r="245" spans="1:10" ht="12.75">
       <c r="A245" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B245" s="2">
         <v>8</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>13</v>
@@ -11030,22 +11088,24 @@
         <v>13</v>
       </c>
       <c r="H245" s="2">
-        <v>0</v>
+        <v>420.5</v>
       </c>
       <c r="I245" s="2">
-        <v>0</v>
-      </c>
-      <c r="J245" s="2"/>
+        <v>420.5</v>
+      </c>
+      <c r="J245" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="246" spans="1:10" ht="12.75">
       <c r="A246" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B246" s="2">
         <v>8</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>249</v>
@@ -11069,13 +11129,13 @@
     </row>
     <row r="247" spans="1:10" ht="12.75">
       <c r="A247" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B247" s="2">
         <v>8</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>249</v>
@@ -11099,13 +11159,13 @@
     </row>
     <row r="248" spans="1:10" ht="12.75">
       <c r="A248" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B248" s="2">
         <v>8</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>249</v>
@@ -11129,13 +11189,13 @@
     </row>
     <row r="249" spans="1:10" ht="12.75">
       <c r="A249" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B249" s="2">
         <v>8</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>249</v>
@@ -11159,13 +11219,13 @@
     </row>
     <row r="250" spans="1:10" ht="12.75">
       <c r="A250" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B250" s="2">
         <v>3</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>12</v>
@@ -11180,10 +11240,10 @@
         <v>13</v>
       </c>
       <c r="H250" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I250" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J250" s="2">
         <v>0</v>
@@ -11191,13 +11251,13 @@
     </row>
     <row r="251" spans="1:10" ht="12.75">
       <c r="A251" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B251" s="2">
         <v>3</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>12</v>
@@ -11223,13 +11283,13 @@
     </row>
     <row r="252" spans="1:10" ht="12.75">
       <c r="A252" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B252" s="2">
         <v>8</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>249</v>
@@ -11253,13 +11313,13 @@
     </row>
     <row r="253" spans="1:10" ht="12.75">
       <c r="A253" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B253" s="2">
         <v>3</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>12</v>
@@ -11274,24 +11334,24 @@
         <v>13</v>
       </c>
       <c r="H253" s="2">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="I253" s="2">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="J253" s="2">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="12.75">
       <c r="A254" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B254" s="2">
         <v>8</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>249</v>
@@ -11306,22 +11366,24 @@
         <v>13</v>
       </c>
       <c r="H254" s="2">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="I254" s="2">
-        <v>0</v>
-      </c>
-      <c r="J254" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="J254" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="255" spans="1:10" ht="12.75">
       <c r="A255" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B255" s="2">
         <v>8</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>249</v>
@@ -11333,7 +11395,7 @@
         <v>13</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H255" s="2">
         <v>0</v>
@@ -11345,13 +11407,13 @@
     </row>
     <row r="256" spans="1:10" ht="12.75">
       <c r="A256" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B256" s="2">
         <v>3</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>12</v>
@@ -11375,13 +11437,13 @@
     </row>
     <row r="257" spans="1:10" ht="12.75">
       <c r="A257" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B257" s="2">
         <v>8</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>249</v>
@@ -11405,13 +11467,13 @@
     </row>
     <row r="258" spans="1:10" ht="12.75">
       <c r="A258" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B258" s="2">
         <v>8</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>249</v>
@@ -11435,13 +11497,13 @@
     </row>
     <row r="259" spans="1:10" ht="12.75">
       <c r="A259" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B259" s="2">
         <v>8</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>249</v>
@@ -11465,13 +11527,13 @@
     </row>
     <row r="260" spans="1:10" ht="12.75">
       <c r="A260" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B260" s="2">
         <v>3</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>12</v>
@@ -11495,13 +11557,13 @@
     </row>
     <row r="261" spans="1:10" ht="12.75">
       <c r="A261" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B261" s="2">
         <v>3</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>12</v>
@@ -11525,13 +11587,13 @@
     </row>
     <row r="262" spans="1:10" ht="12.75">
       <c r="A262" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B262" s="2">
         <v>8</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>249</v>
@@ -11555,13 +11617,13 @@
     </row>
     <row r="263" spans="1:10" ht="12.75">
       <c r="A263" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B263" s="2">
         <v>8</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>249</v>
@@ -11576,24 +11638,22 @@
         <v>13</v>
       </c>
       <c r="H263" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I263" s="2">
         <v>0</v>
       </c>
-      <c r="J263" s="2">
-        <v>2000</v>
-      </c>
+      <c r="J263" s="2"/>
     </row>
     <row r="264" spans="1:10" ht="12.75">
       <c r="A264" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B264" s="2">
         <v>8</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>249</v>
@@ -11608,22 +11668,24 @@
         <v>13</v>
       </c>
       <c r="H264" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I264" s="2">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="J264" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="265" spans="1:10" ht="12.75">
       <c r="A265" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B265" s="2">
         <v>3</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>12</v>
@@ -11638,28 +11700,30 @@
         <v>13</v>
       </c>
       <c r="H265" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I265" s="2">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="J265" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="1:10" ht="12.75">
       <c r="A266" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B266" s="2">
         <v>8</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>13</v>
@@ -11668,22 +11732,24 @@
         <v>13</v>
       </c>
       <c r="H266" s="2">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I266" s="2">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="J266" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="1:10" ht="12.75">
       <c r="A267" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B267" s="2">
         <v>3</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>12</v>
@@ -11698,22 +11764,24 @@
         <v>13</v>
       </c>
       <c r="H267" s="2">
-        <v>0</v>
+        <v>1370</v>
       </c>
       <c r="I267" s="2">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2"/>
+        <v>1370</v>
+      </c>
+      <c r="J267" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="268" spans="1:10" ht="12.75">
       <c r="A268" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B268" s="2">
         <v>1</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>67</v>
@@ -11737,16 +11805,16 @@
     </row>
     <row r="269" spans="1:10" ht="12.75">
       <c r="A269" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B269" s="2">
         <v>31</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>13</v>
@@ -11767,13 +11835,13 @@
     </row>
     <row r="270" spans="1:10" ht="12.75">
       <c r="A270" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B270" s="2">
         <v>8</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>249</v>
@@ -11788,10 +11856,10 @@
         <v>13</v>
       </c>
       <c r="H270" s="2">
-        <v>392</v>
+        <v>870.5</v>
       </c>
       <c r="I270" s="2">
-        <v>392</v>
+        <v>870.5</v>
       </c>
       <c r="J270" s="2">
         <v>0</v>
@@ -11799,13 +11867,13 @@
     </row>
     <row r="271" spans="1:10" ht="12.75">
       <c r="A271" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B271" s="2">
         <v>3</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>12</v>
@@ -11829,19 +11897,19 @@
     </row>
     <row r="272" spans="1:10" ht="12.75">
       <c r="A272" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B272" s="2">
         <v>8</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>13</v>
@@ -11859,19 +11927,19 @@
     </row>
     <row r="273" spans="1:10" ht="12.75">
       <c r="A273" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B273" s="2">
         <v>3</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>13</v>
@@ -11889,19 +11957,19 @@
     </row>
     <row r="274" spans="1:10" ht="12.75">
       <c r="A274" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B274" s="2">
         <v>3</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>13</v>
@@ -11919,13 +11987,13 @@
     </row>
     <row r="275" spans="1:10" ht="12.75">
       <c r="A275" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B275" s="2">
         <v>8</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>249</v>
@@ -11940,10 +12008,10 @@
         <v>13</v>
       </c>
       <c r="H275" s="2">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="I275" s="2">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="J275" s="2">
         <v>0</v>
@@ -11951,13 +12019,13 @@
     </row>
     <row r="276" spans="1:10" ht="12.75">
       <c r="A276" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B276" s="2">
         <v>8</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>249</v>
@@ -11981,22 +12049,22 @@
     </row>
     <row r="277" spans="1:10" ht="12.75">
       <c r="A277" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B277" s="2">
         <v>8</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>13</v>
@@ -12013,13 +12081,13 @@
     </row>
     <row r="278" spans="1:10" ht="12.75">
       <c r="A278" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B278" s="2">
         <v>8</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>249</v>
@@ -12043,13 +12111,13 @@
     </row>
     <row r="279" spans="1:10" ht="12.75">
       <c r="A279" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B279" s="2">
         <v>8</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>249</v>
@@ -12073,13 +12141,13 @@
     </row>
     <row r="280" spans="1:10" ht="12.75">
       <c r="A280" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B280" s="2">
         <v>8</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>249</v>
@@ -12103,13 +12171,13 @@
     </row>
     <row r="281" spans="1:10" ht="12.75">
       <c r="A281" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B281" s="2">
         <v>8</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>249</v>
@@ -12133,13 +12201,13 @@
     </row>
     <row r="282" spans="1:10" ht="12.75">
       <c r="A282" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B282" s="2">
         <v>8</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>249</v>
@@ -12163,13 +12231,13 @@
     </row>
     <row r="283" spans="1:10" ht="12.75">
       <c r="A283" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B283" s="2">
         <v>8</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>249</v>
@@ -12181,7 +12249,7 @@
         <v>13</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H283" s="2">
         <v>0</v>
@@ -12193,13 +12261,13 @@
     </row>
     <row r="284" spans="1:10" ht="12.75">
       <c r="A284" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B284" s="2">
         <v>8</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>249</v>
@@ -12211,7 +12279,7 @@
         <v>13</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H284" s="2">
         <v>0</v>
@@ -12223,13 +12291,13 @@
     </row>
     <row r="285" spans="1:10" ht="12.75">
       <c r="A285" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B285" s="2">
         <v>8</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>249</v>
@@ -12253,13 +12321,13 @@
     </row>
     <row r="286" spans="1:10" ht="12.75">
       <c r="A286" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B286" s="2">
         <v>8</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>249</v>
@@ -12274,22 +12342,24 @@
         <v>13</v>
       </c>
       <c r="H286" s="2">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I286" s="2">
-        <v>0</v>
-      </c>
-      <c r="J286" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="J286" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="287" spans="1:10" ht="12.75">
       <c r="A287" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B287" s="2">
         <v>8</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>249</v>
@@ -12304,28 +12374,30 @@
         <v>13</v>
       </c>
       <c r="H287" s="2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="I287" s="2">
-        <v>0</v>
-      </c>
-      <c r="J287" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="J287" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="288" spans="1:10" ht="12.75">
       <c r="A288" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B288" s="2">
         <v>1</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>13</v>
@@ -12343,19 +12415,19 @@
     </row>
     <row r="289" spans="1:10" ht="12.75">
       <c r="A289" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B289" s="2">
         <v>1</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>13</v>
@@ -12373,19 +12445,19 @@
     </row>
     <row r="290" spans="1:10" ht="12.75">
       <c r="A290" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B290" s="2">
         <v>1</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>13</v>
@@ -12403,13 +12475,13 @@
     </row>
     <row r="291" spans="1:10" ht="12.75">
       <c r="A291" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B291" s="2">
         <v>8</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>249</v>
@@ -12433,13 +12505,13 @@
     </row>
     <row r="292" spans="1:10" ht="12.75">
       <c r="A292" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B292" s="2">
         <v>8</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>249</v>
@@ -12454,24 +12526,24 @@
         <v>13</v>
       </c>
       <c r="H292" s="2">
-        <v>980</v>
+        <v>2074</v>
       </c>
       <c r="I292" s="2">
-        <v>700</v>
+        <v>2074</v>
       </c>
       <c r="J292" s="2">
-        <v>280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:10" ht="12.75">
       <c r="A293" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B293" s="2">
         <v>8</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>249</v>
@@ -12495,13 +12567,13 @@
     </row>
     <row r="294" spans="1:10" ht="12.75">
       <c r="A294" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B294" s="2">
         <v>8</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>249</v>
@@ -12525,13 +12597,13 @@
     </row>
     <row r="295" spans="1:10" ht="12.75">
       <c r="A295" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B295" s="2">
         <v>3</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>12</v>
@@ -12543,7 +12615,7 @@
         <v>13</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H295" s="2">
         <v>0</v>
@@ -12555,13 +12627,13 @@
     </row>
     <row r="296" spans="1:10" ht="12.75">
       <c r="A296" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B296" s="2">
         <v>8</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>249</v>
@@ -12576,10 +12648,10 @@
         <v>13</v>
       </c>
       <c r="H296" s="2">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="I296" s="2">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="J296" s="2">
         <v>0</v>
@@ -12587,13 +12659,13 @@
     </row>
     <row r="297" spans="1:10" ht="12.75">
       <c r="A297" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B297" s="2">
         <v>8</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>249</v>
@@ -12608,54 +12680,54 @@
         <v>13</v>
       </c>
       <c r="H297" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I297" s="2">
-        <v>40</v>
-      </c>
-      <c r="J297" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J297" s="2"/>
     </row>
     <row r="298" spans="1:10" ht="12.75">
       <c r="A298" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B298" s="2">
         <v>8</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H298" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I298" s="2">
-        <v>0</v>
-      </c>
-      <c r="J298" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J298" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="299" spans="1:10" ht="12.75">
       <c r="A299" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B299" s="2">
         <v>1</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>67</v>
@@ -12681,13 +12753,13 @@
     </row>
     <row r="300" spans="1:10" ht="12.75">
       <c r="A300" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B300" s="2">
         <v>8</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>249</v>
@@ -12713,13 +12785,13 @@
     </row>
     <row r="301" spans="1:10" ht="12.75">
       <c r="A301" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B301" s="2">
         <v>1</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>67</v>
@@ -12743,43 +12815,45 @@
     </row>
     <row r="302" spans="1:10" ht="12.75">
       <c r="A302" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B302" s="2">
         <v>13</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H302" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I302" s="2">
-        <v>0</v>
-      </c>
-      <c r="J302" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="J302" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="303" spans="1:10" ht="12.75">
       <c r="A303" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B303" s="2">
         <v>8</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>249</v>
@@ -12791,7 +12865,7 @@
         <v>13</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H303" s="2">
         <v>0</v>
@@ -12803,25 +12877,25 @@
     </row>
     <row r="304" spans="1:10" ht="12.75">
       <c r="A304" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B304" s="2">
         <v>6</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D304" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E304" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="E304" s="2" t="s">
-        <v>740</v>
-      </c>
       <c r="F304" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H304" s="2">
         <v>0</v>
@@ -12833,13 +12907,13 @@
     </row>
     <row r="305" spans="1:10" ht="12.75">
       <c r="A305" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B305" s="2">
         <v>1</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>67</v>
@@ -12851,25 +12925,27 @@
         <v>13</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H305" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I305" s="2">
-        <v>0</v>
-      </c>
-      <c r="J305" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="J305" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="306" spans="1:10" ht="12.75">
       <c r="A306" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B306" s="2">
         <v>1</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>67</v>
@@ -12881,25 +12957,27 @@
         <v>13</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H306" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I306" s="2">
-        <v>0</v>
-      </c>
-      <c r="J306" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="J306" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="307" spans="1:10" ht="12.75">
       <c r="A307" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B307" s="2">
         <v>8</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>249</v>
@@ -12911,25 +12989,27 @@
         <v>13</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H307" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I307" s="2">
-        <v>0</v>
-      </c>
-      <c r="J307" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="J307" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="308" spans="1:10" ht="12.75">
       <c r="A308" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B308" s="2">
         <v>1</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>67</v>
@@ -12953,13 +13033,13 @@
     </row>
     <row r="309" spans="1:10" ht="12.75">
       <c r="A309" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B309" s="2">
         <v>1</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>67</v>
@@ -12971,37 +13051,39 @@
         <v>13</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H309" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I309" s="2">
-        <v>0</v>
-      </c>
-      <c r="J309" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="J309" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="310" spans="1:10" ht="12.75">
       <c r="A310" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B310" s="2">
         <v>4</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H310" s="2">
         <v>6</v>
@@ -13015,16 +13097,16 @@
     </row>
     <row r="311" spans="1:10" ht="12.75">
       <c r="A311" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B311" s="2">
         <v>26</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>13</v>
@@ -13039,33 +13121,33 @@
         <v>12</v>
       </c>
       <c r="I311" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J311" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:10" ht="12.75">
       <c r="A312" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B312" s="2">
         <v>1</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H312" s="2">
         <v>0</v>
@@ -13077,13 +13159,13 @@
     </row>
     <row r="313" spans="1:10" ht="12.75">
       <c r="A313" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B313" s="2">
         <v>1</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>67</v>
@@ -13107,45 +13189,45 @@
     </row>
     <row r="314" spans="1:10" ht="12.75">
       <c r="A314" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B314" s="2">
         <v>1</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H314" s="2">
+        <v>13</v>
+      </c>
+      <c r="I314" s="2">
+        <v>5</v>
+      </c>
+      <c r="J314" s="2">
         <v>8</v>
-      </c>
-      <c r="I314" s="2">
-        <v>8</v>
-      </c>
-      <c r="J314" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:10" ht="12.75">
       <c r="A315" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B315" s="2">
         <v>1</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>67</v>
@@ -13160,54 +13242,56 @@
         <v>13</v>
       </c>
       <c r="H315" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I315" s="2">
-        <v>0</v>
-      </c>
-      <c r="J315" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="J315" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="316" spans="1:10" ht="12.75">
       <c r="A316" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B316" s="2">
         <v>4</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H316" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I316" s="2">
         <v>2</v>
       </c>
       <c r="J316" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:10" ht="12.75">
       <c r="A317" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B317" s="2">
         <v>8</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>249</v>
@@ -13231,13 +13315,13 @@
     </row>
     <row r="318" spans="1:10" ht="12.75">
       <c r="A318" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B318" s="2">
         <v>1</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>67</v>
@@ -13249,7 +13333,7 @@
         <v>13</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H318" s="2">
         <v>0</v>
@@ -13261,25 +13345,25 @@
     </row>
     <row r="319" spans="1:10" ht="12.75">
       <c r="A319" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B319" s="2">
         <v>1</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H319" s="2">
         <v>0</v>
@@ -13291,25 +13375,25 @@
     </row>
     <row r="320" spans="1:10" ht="12.75">
       <c r="A320" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B320" s="2">
         <v>1</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H320" s="2">
         <v>0</v>
@@ -13321,25 +13405,25 @@
     </row>
     <row r="321" spans="1:10" ht="12.75">
       <c r="A321" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B321" s="2">
         <v>1</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H321" s="2">
         <v>0</v>
@@ -13351,25 +13435,25 @@
     </row>
     <row r="322" spans="1:10" ht="12.75">
       <c r="A322" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B322" s="2">
         <v>1</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H322" s="2">
         <v>0</v>
@@ -13381,25 +13465,25 @@
     </row>
     <row r="323" spans="1:10" ht="12.75">
       <c r="A323" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B323" s="2">
         <v>1</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H323" s="2">
         <v>0</v>
@@ -13411,13 +13495,13 @@
     </row>
     <row r="324" spans="1:10" ht="12.75">
       <c r="A324" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B324" s="2">
         <v>1</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>67</v>
@@ -13441,13 +13525,13 @@
     </row>
     <row r="325" spans="1:10" ht="12.75">
       <c r="A325" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B325" s="2">
         <v>1</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>67</v>
@@ -13471,13 +13555,13 @@
     </row>
     <row r="326" spans="1:10" ht="12.75">
       <c r="A326" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B326" s="2">
         <v>8</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>249</v>
@@ -13489,7 +13573,7 @@
         <v>13</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H326" s="2">
         <v>0</v>
@@ -13501,13 +13585,13 @@
     </row>
     <row r="327" spans="1:10" ht="12.75">
       <c r="A327" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B327" s="2">
         <v>8</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>249</v>
@@ -13519,7 +13603,7 @@
         <v>13</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H327" s="2">
         <v>0</v>
@@ -13531,13 +13615,13 @@
     </row>
     <row r="328" spans="1:10" ht="12.75">
       <c r="A328" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B328" s="2">
         <v>8</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>249</v>
@@ -13552,22 +13636,24 @@
         <v>13</v>
       </c>
       <c r="H328" s="2">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I328" s="2">
-        <v>0</v>
-      </c>
-      <c r="J328" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="J328" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="329" spans="1:10" ht="12.75">
       <c r="A329" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B329" s="2">
         <v>1</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>67</v>
@@ -13579,7 +13665,7 @@
         <v>13</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H329" s="2">
         <v>0</v>
@@ -13591,31 +13677,31 @@
     </row>
     <row r="330" spans="1:10" ht="12.75">
       <c r="A330" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B330" s="2">
         <v>8</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H330" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I330" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J330" s="2">
         <v>25</v>
@@ -13623,25 +13709,25 @@
     </row>
     <row r="331" spans="1:10" ht="12.75">
       <c r="A331" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B331" s="2">
         <v>8</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H331" s="2">
         <v>34</v>
@@ -13655,25 +13741,25 @@
     </row>
     <row r="332" spans="1:10" ht="12.75">
       <c r="A332" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B332" s="2">
         <v>8</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H332" s="2">
         <v>10</v>
@@ -13687,25 +13773,25 @@
     </row>
     <row r="333" spans="1:10" ht="12.75">
       <c r="A333" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B333" s="2">
         <v>8</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H333" s="2">
         <v>20</v>
@@ -13719,25 +13805,25 @@
     </row>
     <row r="334" spans="1:10" ht="12.75">
       <c r="A334" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B334" s="2">
         <v>8</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H334" s="2">
         <v>30</v>
@@ -13751,25 +13837,25 @@
     </row>
     <row r="335" spans="1:10" ht="12.75">
       <c r="A335" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B335" s="2">
         <v>8</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H335" s="2">
         <v>30</v>
@@ -13783,25 +13869,25 @@
     </row>
     <row r="336" spans="1:10" ht="12.75">
       <c r="A336" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B336" s="2">
         <v>8</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H336" s="2">
         <v>30</v>
@@ -13815,25 +13901,25 @@
     </row>
     <row r="337" spans="1:10" ht="12.75">
       <c r="A337" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B337" s="2">
         <v>12</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D337" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E337" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="E337" s="2" t="s">
-        <v>828</v>
-      </c>
       <c r="F337" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H337" s="2">
         <v>30</v>
@@ -13847,25 +13933,25 @@
     </row>
     <row r="338" spans="1:10" ht="12.75">
       <c r="A338" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B338" s="2">
         <v>8</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H338" s="2">
         <v>6</v>
@@ -13879,13 +13965,13 @@
     </row>
     <row r="339" spans="1:10" ht="12.75">
       <c r="A339" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B339" s="2">
         <v>3</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>12</v>
@@ -13909,43 +13995,45 @@
     </row>
     <row r="340" spans="1:10" ht="12.75">
       <c r="A340" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B340" s="2">
         <v>1</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H340" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I340" s="2">
-        <v>0</v>
-      </c>
-      <c r="J340" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="J340" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="341" spans="1:10" ht="12.75">
       <c r="A341" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B341" s="2">
         <v>1</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>67</v>
@@ -13957,7 +14045,7 @@
         <v>13</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H341" s="2">
         <v>0</v>
@@ -13969,13 +14057,13 @@
     </row>
     <row r="342" spans="1:10" ht="12.75">
       <c r="A342" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B342" s="2">
         <v>1</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>67</v>
@@ -13987,7 +14075,7 @@
         <v>13</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H342" s="2">
         <v>0</v>
@@ -13999,13 +14087,13 @@
     </row>
     <row r="343" spans="1:10" ht="12.75">
       <c r="A343" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B343" s="2">
         <v>8</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>249</v>
@@ -14029,19 +14117,19 @@
     </row>
     <row r="344" spans="1:10" ht="12.75">
       <c r="A344" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B344" s="2">
         <v>12</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>150</v>
@@ -14059,25 +14147,25 @@
     </row>
     <row r="345" spans="1:10" ht="12.75">
       <c r="A345" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B345" s="2">
         <v>3</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>146</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H345" s="2">
         <v>0</v>
@@ -14089,25 +14177,25 @@
     </row>
     <row r="346" spans="1:10" ht="12.75">
       <c r="A346" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B346" s="2">
         <v>3</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>146</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H346" s="2">
         <v>0</v>
@@ -14119,13 +14207,13 @@
     </row>
     <row r="347" spans="1:10" ht="12.75">
       <c r="A347" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B347" s="2">
         <v>1</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>67</v>
@@ -14137,7 +14225,7 @@
         <v>13</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H347" s="2">
         <v>0</v>
@@ -14149,19 +14237,19 @@
     </row>
     <row r="348" spans="1:10" ht="12.75">
       <c r="A348" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B348" s="2">
         <v>3</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>13</v>
@@ -14179,13 +14267,13 @@
     </row>
     <row r="349" spans="1:10" ht="12.75">
       <c r="A349" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B349" s="2">
         <v>3</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>12</v>
@@ -14209,13 +14297,13 @@
     </row>
     <row r="350" spans="1:10" ht="12.75">
       <c r="A350" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B350" s="2">
         <v>1</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>67</v>
@@ -14239,13 +14327,13 @@
     </row>
     <row r="351" spans="1:10" ht="12.75">
       <c r="A351" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B351" s="2">
         <v>1</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>67</v>
@@ -14269,19 +14357,19 @@
     </row>
     <row r="352" spans="1:10" ht="12.75">
       <c r="A352" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B352" s="2">
         <v>1</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>13</v>
@@ -14299,13 +14387,13 @@
     </row>
     <row r="353" spans="1:10" ht="12.75">
       <c r="A353" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B353" s="2">
         <v>1</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>67</v>
@@ -14329,13 +14417,13 @@
     </row>
     <row r="354" spans="1:10" ht="12.75">
       <c r="A354" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B354" s="2">
         <v>1</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>67</v>
@@ -14347,7 +14435,7 @@
         <v>13</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H354" s="2">
         <v>0</v>
@@ -14359,13 +14447,13 @@
     </row>
     <row r="355" spans="1:10" ht="12.75">
       <c r="A355" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B355" s="2">
         <v>1</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>67</v>
@@ -14389,13 +14477,13 @@
     </row>
     <row r="356" spans="1:10" ht="12.75">
       <c r="A356" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B356" s="2">
         <v>3</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>12</v>
@@ -14407,7 +14495,7 @@
         <v>294</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H356" s="2">
         <v>0</v>
@@ -14419,25 +14507,25 @@
     </row>
     <row r="357" spans="1:10" ht="12.75">
       <c r="A357" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B357" s="2">
         <v>1</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>311</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H357" s="2">
         <v>75</v>
@@ -14451,13 +14539,13 @@
     </row>
     <row r="358" spans="1:10" ht="12.75">
       <c r="A358" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B358" s="2">
         <v>1</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>67</v>
@@ -14481,13 +14569,13 @@
     </row>
     <row r="359" spans="1:10" ht="12.75">
       <c r="A359" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B359" s="2">
         <v>1</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>67</v>
@@ -14511,13 +14599,13 @@
     </row>
     <row r="360" spans="1:10" ht="12.75">
       <c r="A360" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B360" s="2">
         <v>1</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>67</v>
@@ -14529,7 +14617,7 @@
         <v>13</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H360" s="2">
         <v>0</v>
@@ -14541,25 +14629,25 @@
     </row>
     <row r="361" spans="1:10" ht="12.75">
       <c r="A361" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B361" s="2">
         <v>31</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H361" s="2">
         <v>0</v>
@@ -14571,25 +14659,25 @@
     </row>
     <row r="362" spans="1:10" ht="12.75">
       <c r="A362" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B362" s="2">
         <v>31</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H362" s="2">
         <v>0</v>
@@ -14601,25 +14689,25 @@
     </row>
     <row r="363" spans="1:10" ht="12.75">
       <c r="A363" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B363" s="2">
         <v>31</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H363" s="2">
         <v>0</v>
@@ -14631,25 +14719,25 @@
     </row>
     <row r="364" spans="1:10" ht="12.75">
       <c r="A364" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B364" s="2">
         <v>31</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H364" s="2">
         <v>0</v>
@@ -14661,25 +14749,25 @@
     </row>
     <row r="365" spans="1:10" ht="12.75">
       <c r="A365" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B365" s="2">
         <v>31</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H365" s="2">
         <v>0</v>
@@ -14691,13 +14779,13 @@
     </row>
     <row r="366" spans="1:10" ht="12.75">
       <c r="A366" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B366" s="2">
         <v>8</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>249</v>
@@ -14712,22 +14800,24 @@
         <v>13</v>
       </c>
       <c r="H366" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I366" s="2">
-        <v>0</v>
-      </c>
-      <c r="J366" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="J366" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="367" spans="1:10" ht="12.75">
       <c r="A367" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B367" s="2">
         <v>1</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>67</v>
@@ -14742,22 +14832,24 @@
         <v>13</v>
       </c>
       <c r="H367" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I367" s="2">
-        <v>0</v>
-      </c>
-      <c r="J367" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="J367" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="368" spans="1:10" ht="12.75">
       <c r="A368" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B368" s="2">
         <v>1</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>67</v>
@@ -14781,25 +14873,25 @@
     </row>
     <row r="369" spans="1:10" ht="12.75">
       <c r="A369" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B369" s="2">
         <v>1</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H369" s="2">
         <v>0</v>
@@ -14811,13 +14903,13 @@
     </row>
     <row r="370" spans="1:10" ht="12.75">
       <c r="A370" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B370" s="2">
         <v>8</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>249</v>
@@ -14832,22 +14924,24 @@
         <v>13</v>
       </c>
       <c r="H370" s="2">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="I370" s="2">
-        <v>0</v>
-      </c>
-      <c r="J370" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="J370" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="371" spans="1:10" ht="12.75">
       <c r="A371" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B371" s="2">
         <v>8</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>249</v>
@@ -14871,13 +14965,13 @@
     </row>
     <row r="372" spans="1:10" ht="12.75">
       <c r="A372" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B372" s="2">
         <v>8</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>249</v>
@@ -14901,13 +14995,13 @@
     </row>
     <row r="373" spans="1:10" ht="12.75">
       <c r="A373" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B373" s="2">
         <v>8</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>249</v>
@@ -14933,13 +15027,13 @@
     </row>
     <row r="374" spans="1:10" ht="12.75">
       <c r="A374" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B374" s="2">
         <v>1</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>67</v>
@@ -14963,13 +15057,13 @@
     </row>
     <row r="375" spans="1:10" ht="12.75">
       <c r="A375" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B375" s="2">
         <v>1</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>67</v>
@@ -14993,13 +15087,13 @@
     </row>
     <row r="376" spans="1:10" ht="12.75">
       <c r="A376" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B376" s="2">
         <v>1</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>67</v>
@@ -15023,16 +15117,16 @@
     </row>
     <row r="377" spans="1:10" ht="12.75">
       <c r="A377" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B377" s="2">
         <v>11</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>13</v>
@@ -15044,22 +15138,24 @@
         <v>13</v>
       </c>
       <c r="H377" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I377" s="2">
-        <v>0</v>
-      </c>
-      <c r="J377" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="J377" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="378" spans="1:10" ht="12.75">
       <c r="A378" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B378" s="2">
         <v>3</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>12</v>
@@ -15083,13 +15179,13 @@
     </row>
     <row r="379" spans="1:10" ht="12.75">
       <c r="A379" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B379" s="2">
         <v>3</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>12</v>
@@ -15104,22 +15200,24 @@
         <v>13</v>
       </c>
       <c r="H379" s="2">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="I379" s="2">
-        <v>0</v>
-      </c>
-      <c r="J379" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="J379" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="380" spans="1:10" ht="12.75">
       <c r="A380" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B380" s="2">
         <v>3</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>12</v>
@@ -15143,19 +15241,19 @@
     </row>
     <row r="381" spans="1:10" ht="12.75">
       <c r="A381" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B381" s="2">
         <v>3</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>13</v>
@@ -15173,19 +15271,19 @@
     </row>
     <row r="382" spans="1:10" ht="12.75">
       <c r="A382" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B382" s="2">
         <v>3</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>13</v>
@@ -15203,16 +15301,16 @@
     </row>
     <row r="383" spans="1:10" ht="12.75">
       <c r="A383" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B383" s="2">
         <v>19</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>13</v>
@@ -15233,13 +15331,13 @@
     </row>
     <row r="384" spans="1:10" ht="12.75">
       <c r="A384" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B384" s="2">
         <v>3</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>12</v>
@@ -15263,13 +15361,13 @@
     </row>
     <row r="385" spans="1:10" ht="12.75">
       <c r="A385" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B385" s="2">
         <v>3</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>12</v>
@@ -15293,13 +15391,13 @@
     </row>
     <row r="386" spans="1:10" ht="12.75">
       <c r="A386" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B386" s="2">
         <v>3</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>12</v>
@@ -15308,10 +15406,10 @@
         <v>13</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H386" s="2">
         <v>0</v>
@@ -15323,13 +15421,13 @@
     </row>
     <row r="387" spans="1:10" ht="12.75">
       <c r="A387" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B387" s="2">
         <v>3</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>12</v>
@@ -15353,13 +15451,13 @@
     </row>
     <row r="388" spans="1:10" ht="12.75">
       <c r="A388" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B388" s="2">
         <v>3</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>12</v>
@@ -15383,13 +15481,13 @@
     </row>
     <row r="389" spans="1:10" ht="12.75">
       <c r="A389" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B389" s="2">
         <v>3</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>12</v>
@@ -15413,13 +15511,13 @@
     </row>
     <row r="390" spans="1:10" ht="12.75">
       <c r="A390" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B390" s="2">
         <v>3</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>12</v>
@@ -15443,25 +15541,25 @@
     </row>
     <row r="391" spans="1:10" ht="12.75">
       <c r="A391" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B391" s="2">
         <v>2</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H391" s="2">
         <v>0</v>
@@ -15473,25 +15571,25 @@
     </row>
     <row r="392" spans="1:10" ht="12.75">
       <c r="A392" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B392" s="2">
         <v>2</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H392" s="2">
         <v>0</v>
@@ -15503,16 +15601,16 @@
     </row>
     <row r="393" spans="1:10" ht="12.75">
       <c r="A393" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B393" s="2">
         <v>2</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>13</v>
@@ -15521,7 +15619,7 @@
         <v>13</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H393" s="2">
         <v>0</v>
@@ -15533,16 +15631,16 @@
     </row>
     <row r="394" spans="1:10" ht="12.75">
       <c r="A394" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B394" s="2">
         <v>2</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E394" s="2" t="s">
         <v>13</v>
@@ -15551,7 +15649,7 @@
         <v>13</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H394" s="2">
         <v>0</v>
@@ -15563,16 +15661,16 @@
     </row>
     <row r="395" spans="1:10" ht="12.75">
       <c r="A395" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B395" s="2">
         <v>2</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>13</v>
@@ -15581,7 +15679,7 @@
         <v>13</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H395" s="2">
         <v>0</v>
@@ -15593,25 +15691,25 @@
     </row>
     <row r="396" spans="1:10" ht="12.75">
       <c r="A396" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B396" s="2">
         <v>2</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H396" s="2">
         <v>0</v>
@@ -15623,16 +15721,16 @@
     </row>
     <row r="397" spans="1:10" ht="12.75">
       <c r="A397" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B397" s="2">
         <v>6</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>13</v>
@@ -15653,16 +15751,16 @@
     </row>
     <row r="398" spans="1:10" ht="12.75">
       <c r="A398" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B398" s="2">
         <v>2</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E398" s="2" t="s">
         <v>13</v>
@@ -15671,7 +15769,7 @@
         <v>13</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H398" s="2">
         <v>0</v>
@@ -15683,16 +15781,16 @@
     </row>
     <row r="399" spans="1:10" ht="12.75">
       <c r="A399" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B399" s="2">
         <v>2</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E399" s="2" t="s">
         <v>13</v>

--- a/43.xlsx
+++ b/43.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="983">
   <si>
     <t xml:space="preserve">كد  كالا   </t>
   </si>
@@ -669,7 +669,7 @@
     <t xml:space="preserve">         43001010090</t>
   </si>
   <si>
-    <t>بهران در فش 150</t>
+    <t>بهران درفش 150</t>
   </si>
   <si>
     <t>Morlina SD(Morlina SS2B150</t>
@@ -678,7 +678,7 @@
     <t xml:space="preserve">         43001010091</t>
   </si>
   <si>
-    <t>بهران در فش220</t>
+    <t>بهران درفش220</t>
   </si>
   <si>
     <t xml:space="preserve">         43001010092</t>
@@ -810,7 +810,7 @@
     <t xml:space="preserve">         43001010106</t>
   </si>
   <si>
-    <t>Wite Oil Pharmaceutical</t>
+    <t>White Oil Pharmaceutical</t>
   </si>
   <si>
     <t>Sell,Viscosity Gradw VG15</t>
@@ -1161,7 +1161,7 @@
     <t>SKF Grease</t>
   </si>
   <si>
-    <t>نيروگه</t>
+    <t>نيروگاه</t>
   </si>
   <si>
     <t>LGMT 3/1</t>
@@ -1453,9 +1453,6 @@
   </si>
   <si>
     <t>گريس بهران لعل</t>
-  </si>
-  <si>
-    <t>نيروگاه</t>
   </si>
   <si>
     <t>Calcium base NLGI Grade2</t>
@@ -3463,8 +3460,9 @@
     <col min="5" max="5" width="35.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="32.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="73.7142857142857" customWidth="1"/>
-    <col min="8" max="9" width="8.28571428571429" customWidth="1"/>
-    <col min="10" max="10" width="6.71428571428571" customWidth="1"/>
+    <col min="8" max="8" width="7.28571428571429" customWidth="1"/>
+    <col min="9" max="9" width="7.42857142857143" customWidth="1"/>
+    <col min="10" max="10" width="7.28571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75">
@@ -3522,10 +3520,10 @@
         <v>13</v>
       </c>
       <c r="H2" s="2">
-        <v>6243</v>
+        <v>1018</v>
       </c>
       <c r="I2" s="2">
-        <v>5225</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
         <v>1018</v>
@@ -3584,13 +3582,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="2">
-        <v>5852</v>
+        <v>4598</v>
       </c>
       <c r="I4" s="2">
-        <v>1254</v>
+        <v>1045</v>
       </c>
       <c r="J4" s="2">
-        <v>4598</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75">
@@ -3616,14 +3614,12 @@
         <v>13</v>
       </c>
       <c r="H5" s="2">
-        <v>3553</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>3553</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="2" t="s">
@@ -3648,13 +3644,13 @@
         <v>13</v>
       </c>
       <c r="H6" s="2">
-        <v>1325</v>
+        <v>907</v>
       </c>
       <c r="I6" s="2">
-        <v>418</v>
+        <v>209</v>
       </c>
       <c r="J6" s="2">
-        <v>907</v>
+        <v>698</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75">
@@ -3680,13 +3676,13 @@
         <v>13</v>
       </c>
       <c r="H7" s="2">
-        <v>9007</v>
+        <v>3364</v>
       </c>
       <c r="I7" s="2">
-        <v>5643</v>
+        <v>627</v>
       </c>
       <c r="J7" s="2">
-        <v>3364</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75">
@@ -3772,13 +3768,13 @@
         <v>13</v>
       </c>
       <c r="H10" s="2">
-        <v>3762</v>
+        <v>3553</v>
       </c>
       <c r="I10" s="2">
-        <v>209</v>
+        <v>418</v>
       </c>
       <c r="J10" s="2">
-        <v>3553</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75">
@@ -3804,10 +3800,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="2">
-        <v>25787</v>
+        <v>24324</v>
       </c>
       <c r="I11" s="2">
-        <v>1463</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
         <v>24324</v>
@@ -4052,13 +4048,13 @@
         <v>13</v>
       </c>
       <c r="H19" s="2">
-        <v>3800</v>
+        <v>2200</v>
       </c>
       <c r="I19" s="2">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="J19" s="2">
-        <v>2200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.75">
@@ -4204,14 +4200,12 @@
         <v>13</v>
       </c>
       <c r="H24" s="2">
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>624</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="12.75">
       <c r="A25" s="2" t="s">
@@ -4268,14 +4262,12 @@
         <v>64</v>
       </c>
       <c r="H26" s="2">
-        <v>6032</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>6032</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="12.75">
       <c r="A27" s="2" t="s">
@@ -4300,14 +4292,12 @@
         <v>68</v>
       </c>
       <c r="H27" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>100</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="12.75">
       <c r="A28" s="2" t="s">
@@ -4332,14 +4322,12 @@
         <v>13</v>
       </c>
       <c r="H28" s="2">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>140</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="12.75">
       <c r="A29" s="2" t="s">
@@ -4364,13 +4352,13 @@
         <v>13</v>
       </c>
       <c r="H29" s="2">
-        <v>4180</v>
+        <v>2926</v>
       </c>
       <c r="I29" s="2">
-        <v>1254</v>
+        <v>209</v>
       </c>
       <c r="J29" s="2">
-        <v>2926</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="12.75">
@@ -4426,13 +4414,13 @@
         <v>13</v>
       </c>
       <c r="H31" s="2">
-        <v>5434</v>
+        <v>3762</v>
       </c>
       <c r="I31" s="2">
-        <v>1672</v>
+        <v>209</v>
       </c>
       <c r="J31" s="2">
-        <v>3762</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75">
@@ -4550,14 +4538,12 @@
         <v>13</v>
       </c>
       <c r="H35" s="2">
-        <v>1664</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2">
-        <v>1664</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="12.75">
       <c r="A36" s="2" t="s">
@@ -4582,14 +4568,12 @@
         <v>13</v>
       </c>
       <c r="H36" s="2">
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2">
-        <v>624</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="12.75">
       <c r="A37" s="2" t="s">
@@ -4740,14 +4724,12 @@
         <v>64</v>
       </c>
       <c r="H41" s="2">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>416</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="12.75">
       <c r="A42" s="2" t="s">
@@ -4958,10 +4940,10 @@
         <v>64</v>
       </c>
       <c r="H48" s="2">
-        <v>7896</v>
+        <v>1456</v>
       </c>
       <c r="I48" s="2">
-        <v>6440</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2">
         <v>1456</v>
@@ -5020,14 +5002,12 @@
         <v>123</v>
       </c>
       <c r="H50" s="2">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2">
-        <v>208</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" ht="12.75">
       <c r="A51" s="2" t="s">
@@ -5268,10 +5248,10 @@
         <v>143</v>
       </c>
       <c r="H58" s="2">
-        <v>46819</v>
+        <v>46611</v>
       </c>
       <c r="I58" s="2">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="J58" s="2">
         <v>46611</v>
@@ -5332,10 +5312,10 @@
         <v>151</v>
       </c>
       <c r="H60" s="2">
-        <v>17272</v>
+        <v>5000</v>
       </c>
       <c r="I60" s="2">
-        <v>12272</v>
+        <v>0</v>
       </c>
       <c r="J60" s="2">
         <v>5000</v>
@@ -5394,14 +5374,12 @@
         <v>13</v>
       </c>
       <c r="H62" s="2">
-        <v>2496</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2">
-        <v>2496</v>
-      </c>
-      <c r="J62" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" ht="12.75">
       <c r="A63" s="2" t="s">
@@ -5426,14 +5404,12 @@
         <v>13</v>
       </c>
       <c r="H63" s="2">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2">
-        <v>418</v>
-      </c>
-      <c r="J63" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" ht="12.75">
       <c r="A64" s="2" t="s">
@@ -5458,13 +5434,13 @@
         <v>13</v>
       </c>
       <c r="H64" s="2">
-        <v>80288</v>
+        <v>36400</v>
       </c>
       <c r="I64" s="2">
-        <v>43888</v>
+        <v>20592</v>
       </c>
       <c r="J64" s="2">
-        <v>36400</v>
+        <v>15808</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="12.75">
@@ -5490,10 +5466,10 @@
         <v>13</v>
       </c>
       <c r="H65" s="2">
-        <v>4598</v>
+        <v>627</v>
       </c>
       <c r="I65" s="2">
-        <v>3971</v>
+        <v>0</v>
       </c>
       <c r="J65" s="2">
         <v>627</v>
@@ -5522,10 +5498,10 @@
         <v>13</v>
       </c>
       <c r="H66" s="2">
-        <v>1463</v>
+        <v>1045</v>
       </c>
       <c r="I66" s="2">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="J66" s="2">
         <v>1045</v>
@@ -5554,10 +5530,10 @@
         <v>13</v>
       </c>
       <c r="H67" s="2">
-        <v>4807</v>
+        <v>3344</v>
       </c>
       <c r="I67" s="2">
-        <v>1463</v>
+        <v>0</v>
       </c>
       <c r="J67" s="2">
         <v>3344</v>
@@ -5586,10 +5562,10 @@
         <v>13</v>
       </c>
       <c r="H68" s="2">
-        <v>1560</v>
+        <v>1100</v>
       </c>
       <c r="I68" s="2">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="J68" s="2">
         <v>1100</v>
@@ -5650,12 +5626,14 @@
         <v>13</v>
       </c>
       <c r="H70" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I70" s="2">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:10" ht="12.75">
       <c r="A71" s="2" t="s">
@@ -5715,10 +5693,10 @@
         <v>40</v>
       </c>
       <c r="I72" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J72" s="2">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="12.75">
@@ -6024,10 +6002,10 @@
         <v>13</v>
       </c>
       <c r="H82" s="2">
-        <v>9614</v>
+        <v>7942</v>
       </c>
       <c r="I82" s="2">
-        <v>1672</v>
+        <v>0</v>
       </c>
       <c r="J82" s="2">
         <v>7942</v>
@@ -6377,10 +6355,10 @@
         <v>9984</v>
       </c>
       <c r="I93" s="2">
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="J93" s="2">
-        <v>9984</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="12.75">
@@ -6406,10 +6384,10 @@
         <v>226</v>
       </c>
       <c r="H94" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="I94" s="2">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="J94" s="2">
         <v>40</v>
@@ -6502,10 +6480,10 @@
         <v>13</v>
       </c>
       <c r="H97" s="2">
-        <v>832</v>
+        <v>624</v>
       </c>
       <c r="I97" s="2">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="J97" s="2">
         <v>624</v>
@@ -6820,10 +6798,10 @@
         <v>265</v>
       </c>
       <c r="H107" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I107" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J107" s="2">
         <v>80</v>
@@ -7008,10 +6986,10 @@
         <v>283</v>
       </c>
       <c r="H113" s="2">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="I113" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J113" s="2">
         <v>159</v>
@@ -7130,14 +7108,12 @@
         <v>295</v>
       </c>
       <c r="H117" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I117" s="2">
-        <v>70</v>
-      </c>
-      <c r="J117" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" ht="12.75">
       <c r="A118" s="2" t="s">
@@ -7162,14 +7138,12 @@
         <v>298</v>
       </c>
       <c r="H118" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I118" s="2">
-        <v>20</v>
-      </c>
-      <c r="J118" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" ht="12.75">
       <c r="A119" s="2" t="s">
@@ -7254,10 +7228,10 @@
         <v>13</v>
       </c>
       <c r="H121" s="2">
-        <v>25376</v>
+        <v>11856</v>
       </c>
       <c r="I121" s="2">
-        <v>13520</v>
+        <v>0</v>
       </c>
       <c r="J121" s="2">
         <v>11856</v>
@@ -7286,14 +7260,12 @@
         <v>13</v>
       </c>
       <c r="H122" s="2">
-        <v>8320</v>
+        <v>0</v>
       </c>
       <c r="I122" s="2">
-        <v>8320</v>
-      </c>
-      <c r="J122" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10" ht="12.75">
       <c r="A123" s="2" t="s">
@@ -7318,14 +7290,12 @@
         <v>13</v>
       </c>
       <c r="H123" s="2">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="I123" s="2">
-        <v>208</v>
-      </c>
-      <c r="J123" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10" ht="12.75">
       <c r="A124" s="2" t="s">
@@ -7380,10 +7350,10 @@
         <v>13</v>
       </c>
       <c r="H125" s="2">
-        <v>1518</v>
+        <v>1140</v>
       </c>
       <c r="I125" s="2">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="J125" s="2">
         <v>1140</v>
@@ -7412,10 +7382,10 @@
         <v>13</v>
       </c>
       <c r="H126" s="2">
-        <v>1080</v>
+        <v>900</v>
       </c>
       <c r="I126" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J126" s="2">
         <v>900</v>
@@ -7476,14 +7446,12 @@
         <v>13</v>
       </c>
       <c r="H128" s="2">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="I128" s="2">
-        <v>1980</v>
-      </c>
-      <c r="J128" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" s="2"/>
     </row>
     <row r="129" spans="1:10" ht="12.75">
       <c r="A129" s="2" t="s">
@@ -7508,13 +7476,13 @@
         <v>13</v>
       </c>
       <c r="H129" s="2">
-        <v>6120</v>
+        <v>1800</v>
       </c>
       <c r="I129" s="2">
-        <v>4320</v>
+        <v>900</v>
       </c>
       <c r="J129" s="2">
-        <v>1800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="12.75">
@@ -7570,10 +7538,10 @@
         <v>13</v>
       </c>
       <c r="H131" s="2">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="I131" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J131" s="2">
         <v>180</v>
@@ -7694,10 +7662,10 @@
         <v>336</v>
       </c>
       <c r="H135" s="2">
-        <v>9120</v>
+        <v>950</v>
       </c>
       <c r="I135" s="2">
-        <v>8170</v>
+        <v>0</v>
       </c>
       <c r="J135" s="2">
         <v>950</v>
@@ -7726,10 +7694,10 @@
         <v>336</v>
       </c>
       <c r="H136" s="2">
-        <v>3770</v>
+        <v>1490</v>
       </c>
       <c r="I136" s="2">
-        <v>2280</v>
+        <v>0</v>
       </c>
       <c r="J136" s="2">
         <v>1490</v>
@@ -7758,10 +7726,10 @@
         <v>336</v>
       </c>
       <c r="H137" s="2">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="I137" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J137" s="2">
         <v>360</v>
@@ -7884,14 +7852,12 @@
         <v>13</v>
       </c>
       <c r="H141" s="2">
-        <v>4140</v>
+        <v>0</v>
       </c>
       <c r="I141" s="2">
-        <v>4140</v>
-      </c>
-      <c r="J141" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" s="2"/>
     </row>
     <row r="142" spans="1:10" ht="12.75">
       <c r="A142" s="2" t="s">
@@ -8068,14 +8034,12 @@
         <v>13</v>
       </c>
       <c r="H147" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I147" s="2">
-        <v>20</v>
-      </c>
-      <c r="J147" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" s="2"/>
     </row>
     <row r="148" spans="1:10" ht="12.75">
       <c r="A148" s="2" t="s">
@@ -8190,14 +8154,12 @@
         <v>13</v>
       </c>
       <c r="H151" s="2">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="I151" s="2">
-        <v>846</v>
-      </c>
-      <c r="J151" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" s="2"/>
     </row>
     <row r="152" spans="1:10" ht="12.75">
       <c r="A152" s="2" t="s">
@@ -8686,10 +8648,10 @@
         <v>416</v>
       </c>
       <c r="H167" s="2">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="I167" s="2">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="J167" s="2">
         <v>5.5</v>
@@ -8840,10 +8802,10 @@
         <v>13</v>
       </c>
       <c r="H172" s="2">
-        <v>2340</v>
+        <v>540</v>
       </c>
       <c r="I172" s="2">
-        <v>2340</v>
+        <v>540</v>
       </c>
       <c r="J172" s="2">
         <v>0</v>
@@ -8872,10 +8834,10 @@
         <v>13</v>
       </c>
       <c r="H173" s="2">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="I173" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J173" s="2">
         <v>180</v>
@@ -9028,14 +8990,12 @@
         <v>13</v>
       </c>
       <c r="H178" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I178" s="2">
-        <v>5</v>
-      </c>
-      <c r="J178" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" s="2"/>
     </row>
     <row r="179" spans="1:10" ht="12.75">
       <c r="A179" s="2" t="s">
@@ -9060,14 +9020,12 @@
         <v>13</v>
       </c>
       <c r="H179" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" s="2">
-        <v>2</v>
-      </c>
-      <c r="J179" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10" ht="12.75">
       <c r="A180" s="2" t="s">
@@ -9402,10 +9360,10 @@
         <v>13</v>
       </c>
       <c r="H190" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I190" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J190" s="2">
         <v>95</v>
@@ -9458,10 +9416,10 @@
         <v>13</v>
       </c>
       <c r="F192" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="H192" s="2">
         <v>0</v>
@@ -9473,7 +9431,7 @@
     </row>
     <row r="193" spans="1:10" ht="12.75">
       <c r="A193" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B193" s="2">
         <v>8</v>
@@ -9491,7 +9449,7 @@
         <v>13</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H193" s="2">
         <v>0</v>
@@ -9503,25 +9461,25 @@
     </row>
     <row r="194" spans="1:10" ht="12.75">
       <c r="A194" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B194" s="2">
         <v>8</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>146</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H194" s="2">
         <v>0</v>
@@ -9533,25 +9491,25 @@
     </row>
     <row r="195" spans="1:10" ht="12.75">
       <c r="A195" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B195" s="2">
         <v>1</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H195" s="2">
         <v>6</v>
@@ -9565,25 +9523,25 @@
     </row>
     <row r="196" spans="1:10" ht="12.75">
       <c r="A196" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B196" s="2">
         <v>8</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E196" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="H196" s="2">
         <v>0</v>
@@ -9595,16 +9553,16 @@
     </row>
     <row r="197" spans="1:10" ht="12.75">
       <c r="A197" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B197" s="2">
         <v>33</v>
       </c>
       <c r="C197" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>13</v>
@@ -9625,7 +9583,7 @@
     </row>
     <row r="198" spans="1:10" ht="12.75">
       <c r="A198" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B198" s="2">
         <v>8</v>
@@ -9643,7 +9601,7 @@
         <v>13</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H198" s="2">
         <v>0</v>
@@ -9655,7 +9613,7 @@
     </row>
     <row r="199" spans="1:10" ht="12.75">
       <c r="A199" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B199" s="2">
         <v>8</v>
@@ -9673,7 +9631,7 @@
         <v>13</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H199" s="2">
         <v>0</v>
@@ -9685,25 +9643,25 @@
     </row>
     <row r="200" spans="1:10" ht="12.75">
       <c r="A200" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B200" s="2">
         <v>8</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E200" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="H200" s="2">
         <v>0</v>
@@ -9715,7 +9673,7 @@
     </row>
     <row r="201" spans="1:10" ht="12.75">
       <c r="A201" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B201" s="2">
         <v>8</v>
@@ -9733,21 +9691,19 @@
         <v>13</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H201" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I201" s="2">
-        <v>18</v>
-      </c>
-      <c r="J201" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J201" s="2"/>
     </row>
     <row r="202" spans="1:10" ht="12.75">
       <c r="A202" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B202" s="2">
         <v>8</v>
@@ -9765,21 +9721,19 @@
         <v>13</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H202" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" s="2">
-        <v>1</v>
-      </c>
-      <c r="J202" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J202" s="2"/>
     </row>
     <row r="203" spans="1:10" ht="12.75">
       <c r="A203" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B203" s="2">
         <v>8</v>
@@ -9797,21 +9751,19 @@
         <v>13</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H203" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I203" s="2">
-        <v>5</v>
-      </c>
-      <c r="J203" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J203" s="2"/>
     </row>
     <row r="204" spans="1:10" ht="12.75">
       <c r="A204" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B204" s="2">
         <v>8</v>
@@ -9829,33 +9781,31 @@
         <v>13</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H204" s="2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I204" s="2">
-        <v>36</v>
-      </c>
-      <c r="J204" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J204" s="2"/>
     </row>
     <row r="205" spans="1:10" ht="12.75">
       <c r="A205" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B205" s="2">
         <v>8</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>13</v>
@@ -9864,29 +9814,31 @@
         <v>13</v>
       </c>
       <c r="H205" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I205" s="2">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="J205" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:10" ht="12.75">
       <c r="A206" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B206" s="2">
+        <v>3</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B206" s="2">
-        <v>3</v>
-      </c>
-      <c r="C206" s="2" t="s">
+      <c r="D206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>514</v>
-      </c>
       <c r="F206" s="2" t="s">
         <v>13</v>
       </c>
@@ -9894,24 +9846,24 @@
         <v>13</v>
       </c>
       <c r="H206" s="2">
-        <v>2852000</v>
+        <v>724000</v>
       </c>
       <c r="I206" s="2">
-        <v>2852000</v>
+        <v>362000</v>
       </c>
       <c r="J206" s="2">
-        <v>0</v>
+        <v>362000</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="12.75">
       <c r="A207" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B207" s="2">
         <v>1</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>67</v>
@@ -9923,7 +9875,7 @@
         <v>13</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H207" s="2">
         <v>0</v>
@@ -9935,13 +9887,13 @@
     </row>
     <row r="208" spans="1:10" ht="12.75">
       <c r="A208" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B208" s="2">
         <v>1</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>67</v>
@@ -9953,7 +9905,7 @@
         <v>13</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H208" s="2">
         <v>0</v>
@@ -9965,13 +9917,13 @@
     </row>
     <row r="209" spans="1:10" ht="12.75">
       <c r="A209" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B209" s="2">
         <v>1</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>67</v>
@@ -9983,7 +9935,7 @@
         <v>13</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H209" s="2">
         <v>0</v>
@@ -9995,13 +9947,13 @@
     </row>
     <row r="210" spans="1:10" ht="12.75">
       <c r="A210" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B210" s="2">
         <v>1</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>67</v>
@@ -10013,27 +9965,25 @@
         <v>13</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H210" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" s="2">
-        <v>2</v>
-      </c>
-      <c r="J210" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J210" s="2"/>
     </row>
     <row r="211" spans="1:10" ht="12.75">
       <c r="A211" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B211" s="2">
         <v>1</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>67</v>
@@ -10045,7 +9995,7 @@
         <v>13</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H211" s="2">
         <v>0</v>
@@ -10057,13 +10007,13 @@
     </row>
     <row r="212" spans="1:10" ht="12.75">
       <c r="A212" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B212" s="2">
         <v>1</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>67</v>
@@ -10087,13 +10037,13 @@
     </row>
     <row r="213" spans="1:10" ht="12.75">
       <c r="A213" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B213" s="2">
         <v>1</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>67</v>
@@ -10117,13 +10067,13 @@
     </row>
     <row r="214" spans="1:10" ht="12.75">
       <c r="A214" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B214" s="2">
         <v>1</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>67</v>
@@ -10147,13 +10097,13 @@
     </row>
     <row r="215" spans="1:10" ht="12.75">
       <c r="A215" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B215" s="2">
         <v>1</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>67</v>
@@ -10165,7 +10115,7 @@
         <v>13</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H215" s="2">
         <v>0</v>
@@ -10177,13 +10127,13 @@
     </row>
     <row r="216" spans="1:10" ht="12.75">
       <c r="A216" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B216" s="2">
         <v>1</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>67</v>
@@ -10195,27 +10145,25 @@
         <v>13</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H216" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" s="2">
-        <v>1</v>
-      </c>
-      <c r="J216" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J216" s="2"/>
     </row>
     <row r="217" spans="1:10" ht="12.75">
       <c r="A217" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B217" s="2">
         <v>1</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>67</v>
@@ -10227,27 +10175,25 @@
         <v>13</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H217" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" s="2">
-        <v>1</v>
-      </c>
-      <c r="J217" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J217" s="2"/>
     </row>
     <row r="218" spans="1:10" ht="12.75">
       <c r="A218" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B218" s="2">
         <v>1</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>67</v>
@@ -10259,27 +10205,25 @@
         <v>13</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H218" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" s="2">
-        <v>1</v>
-      </c>
-      <c r="J218" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J218" s="2"/>
     </row>
     <row r="219" spans="1:10" ht="12.75">
       <c r="A219" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B219" s="2">
         <v>8</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>249</v>
@@ -10303,25 +10247,25 @@
     </row>
     <row r="220" spans="1:10" ht="12.75">
       <c r="A220" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B220" s="2">
         <v>1</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E220" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="H220" s="2">
         <v>0</v>
@@ -10333,25 +10277,25 @@
     </row>
     <row r="221" spans="1:10" ht="12.75">
       <c r="A221" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B221" s="2">
         <v>1</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E221" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G221" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="H221" s="2">
         <v>0</v>
@@ -10363,13 +10307,13 @@
     </row>
     <row r="222" spans="1:10" ht="12.75">
       <c r="A222" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B222" s="2">
         <v>1</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>67</v>
@@ -10393,13 +10337,13 @@
     </row>
     <row r="223" spans="1:10" ht="12.75">
       <c r="A223" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B223" s="2">
         <v>1</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>67</v>
@@ -10411,37 +10355,39 @@
         <v>13</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H223" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I223" s="2">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="J223" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="224" spans="1:10" ht="12.75">
       <c r="A224" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B224" s="2">
         <v>1</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E224" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F224" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="F224" s="2" t="s">
+      <c r="G224" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="H224" s="2">
         <v>0</v>
@@ -10453,25 +10399,25 @@
     </row>
     <row r="225" spans="1:10" ht="12.75">
       <c r="A225" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B225" s="2">
         <v>52</v>
       </c>
       <c r="C225" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="E225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="H225" s="2">
         <v>0</v>
@@ -10483,16 +10429,16 @@
     </row>
     <row r="226" spans="1:10" ht="12.75">
       <c r="A226" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B226" s="2">
         <v>52</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>13</v>
@@ -10501,7 +10447,7 @@
         <v>150</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H226" s="2">
         <v>0</v>
@@ -10513,13 +10459,13 @@
     </row>
     <row r="227" spans="1:10" ht="12.75">
       <c r="A227" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B227" s="2">
         <v>1</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>67</v>
@@ -10531,7 +10477,7 @@
         <v>150</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H227" s="2">
         <v>0</v>
@@ -10543,13 +10489,13 @@
     </row>
     <row r="228" spans="1:10" ht="12.75">
       <c r="A228" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B228" s="2">
         <v>1</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>67</v>
@@ -10573,13 +10519,13 @@
     </row>
     <row r="229" spans="1:10" ht="12.75">
       <c r="A229" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B229" s="2">
         <v>1</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>67</v>
@@ -10603,16 +10549,16 @@
     </row>
     <row r="230" spans="1:10" ht="12.75">
       <c r="A230" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B230" s="2">
         <v>52</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>13</v>
@@ -10624,24 +10570,22 @@
         <v>13</v>
       </c>
       <c r="H230" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" s="2">
-        <v>1</v>
-      </c>
-      <c r="J230" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J230" s="2"/>
     </row>
     <row r="231" spans="1:10" ht="12.75">
       <c r="A231" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B231" s="2">
         <v>1</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>67</v>
@@ -10665,16 +10609,16 @@
     </row>
     <row r="232" spans="1:10" ht="12.75">
       <c r="A232" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B232" s="2">
         <v>52</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>13</v>
@@ -10695,13 +10639,13 @@
     </row>
     <row r="233" spans="1:10" ht="12.75">
       <c r="A233" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B233" s="2">
         <v>8</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>249</v>
@@ -10713,7 +10657,7 @@
         <v>294</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H233" s="2">
         <v>80</v>
@@ -10727,13 +10671,13 @@
     </row>
     <row r="234" spans="1:10" ht="12.75">
       <c r="A234" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B234" s="2">
+        <v>3</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="B234" s="2">
-        <v>3</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>12</v>
@@ -10757,13 +10701,13 @@
     </row>
     <row r="235" spans="1:10" ht="12.75">
       <c r="A235" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B235" s="2">
         <v>8</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>249</v>
@@ -10789,13 +10733,13 @@
     </row>
     <row r="236" spans="1:10" ht="12.75">
       <c r="A236" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B236" s="2">
         <v>8</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>249</v>
@@ -10821,13 +10765,13 @@
     </row>
     <row r="237" spans="1:10" ht="12.75">
       <c r="A237" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B237" s="2">
         <v>8</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>249</v>
@@ -10851,13 +10795,13 @@
     </row>
     <row r="238" spans="1:10" ht="12.75">
       <c r="A238" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B238" s="2">
         <v>8</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>249</v>
@@ -10866,7 +10810,7 @@
         <v>13</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>13</v>
@@ -10881,13 +10825,13 @@
     </row>
     <row r="239" spans="1:10" ht="12.75">
       <c r="A239" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B239" s="2">
+        <v>3</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="B239" s="2">
-        <v>3</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>12</v>
@@ -10911,13 +10855,13 @@
     </row>
     <row r="240" spans="1:10" ht="12.75">
       <c r="A240" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B240" s="2">
+        <v>3</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="B240" s="2">
-        <v>3</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>597</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>12</v>
@@ -10941,25 +10885,25 @@
     </row>
     <row r="241" spans="1:10" ht="12.75">
       <c r="A241" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B241" s="2">
+        <v>3</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B241" s="2">
-        <v>3</v>
-      </c>
-      <c r="C241" s="2" t="s">
+      <c r="D241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="H241" s="2">
         <v>0</v>
@@ -10971,13 +10915,13 @@
     </row>
     <row r="242" spans="1:10" ht="12.75">
       <c r="A242" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B242" s="2">
         <v>8</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>249</v>
@@ -10992,24 +10936,22 @@
         <v>13</v>
       </c>
       <c r="H242" s="2">
-        <v>914</v>
+        <v>0</v>
       </c>
       <c r="I242" s="2">
-        <v>914</v>
-      </c>
-      <c r="J242" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J242" s="2"/>
     </row>
     <row r="243" spans="1:10" ht="12.75">
       <c r="A243" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B243" s="2">
+        <v>3</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="B243" s="2">
-        <v>3</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>604</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>12</v>
@@ -11035,13 +10977,13 @@
     </row>
     <row r="244" spans="1:10" ht="12.75">
       <c r="A244" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B244" s="2">
+        <v>3</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="B244" s="2">
-        <v>3</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>12</v>
@@ -11067,19 +11009,19 @@
     </row>
     <row r="245" spans="1:10" ht="12.75">
       <c r="A245" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B245" s="2">
         <v>8</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>13</v>
@@ -11088,24 +11030,22 @@
         <v>13</v>
       </c>
       <c r="H245" s="2">
-        <v>420.5</v>
+        <v>0</v>
       </c>
       <c r="I245" s="2">
-        <v>420.5</v>
-      </c>
-      <c r="J245" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J245" s="2"/>
     </row>
     <row r="246" spans="1:10" ht="12.75">
       <c r="A246" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B246" s="2">
         <v>8</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>249</v>
@@ -11129,13 +11069,13 @@
     </row>
     <row r="247" spans="1:10" ht="12.75">
       <c r="A247" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B247" s="2">
         <v>8</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>249</v>
@@ -11159,13 +11099,13 @@
     </row>
     <row r="248" spans="1:10" ht="12.75">
       <c r="A248" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B248" s="2">
         <v>8</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>249</v>
@@ -11189,13 +11129,13 @@
     </row>
     <row r="249" spans="1:10" ht="12.75">
       <c r="A249" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B249" s="2">
         <v>8</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>249</v>
@@ -11219,14 +11159,14 @@
     </row>
     <row r="250" spans="1:10" ht="12.75">
       <c r="A250" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B250" s="2">
+        <v>3</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B250" s="2">
-        <v>3</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>619</v>
-      </c>
       <c r="D250" s="2" t="s">
         <v>12</v>
       </c>
@@ -11240,10 +11180,10 @@
         <v>13</v>
       </c>
       <c r="H250" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I250" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J250" s="2">
         <v>0</v>
@@ -11251,13 +11191,13 @@
     </row>
     <row r="251" spans="1:10" ht="12.75">
       <c r="A251" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B251" s="2">
+        <v>3</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="B251" s="2">
-        <v>3</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>12</v>
@@ -11283,13 +11223,13 @@
     </row>
     <row r="252" spans="1:10" ht="12.75">
       <c r="A252" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B252" s="2">
         <v>8</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>249</v>
@@ -11313,14 +11253,14 @@
     </row>
     <row r="253" spans="1:10" ht="12.75">
       <c r="A253" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B253" s="2">
+        <v>3</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B253" s="2">
-        <v>3</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>625</v>
-      </c>
       <c r="D253" s="2" t="s">
         <v>12</v>
       </c>
@@ -11334,10 +11274,10 @@
         <v>13</v>
       </c>
       <c r="H253" s="2">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="I253" s="2">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="J253" s="2">
         <v>0</v>
@@ -11345,13 +11285,13 @@
     </row>
     <row r="254" spans="1:10" ht="12.75">
       <c r="A254" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B254" s="2">
         <v>8</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>249</v>
@@ -11366,24 +11306,22 @@
         <v>13</v>
       </c>
       <c r="H254" s="2">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="I254" s="2">
-        <v>370</v>
-      </c>
-      <c r="J254" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J254" s="2"/>
     </row>
     <row r="255" spans="1:10" ht="12.75">
       <c r="A255" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B255" s="2">
         <v>8</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>249</v>
@@ -11395,7 +11333,7 @@
         <v>13</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H255" s="2">
         <v>0</v>
@@ -11407,13 +11345,13 @@
     </row>
     <row r="256" spans="1:10" ht="12.75">
       <c r="A256" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B256" s="2">
+        <v>3</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="B256" s="2">
-        <v>3</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>12</v>
@@ -11437,13 +11375,13 @@
     </row>
     <row r="257" spans="1:10" ht="12.75">
       <c r="A257" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B257" s="2">
         <v>8</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>249</v>
@@ -11467,13 +11405,13 @@
     </row>
     <row r="258" spans="1:10" ht="12.75">
       <c r="A258" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B258" s="2">
         <v>8</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>249</v>
@@ -11497,13 +11435,13 @@
     </row>
     <row r="259" spans="1:10" ht="12.75">
       <c r="A259" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B259" s="2">
         <v>8</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>249</v>
@@ -11527,13 +11465,13 @@
     </row>
     <row r="260" spans="1:10" ht="12.75">
       <c r="A260" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B260" s="2">
+        <v>3</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="B260" s="2">
-        <v>3</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>640</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>12</v>
@@ -11557,13 +11495,13 @@
     </row>
     <row r="261" spans="1:10" ht="12.75">
       <c r="A261" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B261" s="2">
+        <v>3</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="B261" s="2">
-        <v>3</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>12</v>
@@ -11587,13 +11525,13 @@
     </row>
     <row r="262" spans="1:10" ht="12.75">
       <c r="A262" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B262" s="2">
         <v>8</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>249</v>
@@ -11617,13 +11555,13 @@
     </row>
     <row r="263" spans="1:10" ht="12.75">
       <c r="A263" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B263" s="2">
         <v>8</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>249</v>
@@ -11638,22 +11576,24 @@
         <v>13</v>
       </c>
       <c r="H263" s="2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I263" s="2">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2"/>
+        <v>2000</v>
+      </c>
+      <c r="J263" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="264" spans="1:10" ht="12.75">
       <c r="A264" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B264" s="2">
         <v>8</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>249</v>
@@ -11668,25 +11608,23 @@
         <v>13</v>
       </c>
       <c r="H264" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I264" s="2">
-        <v>10</v>
-      </c>
-      <c r="J264" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J264" s="2"/>
     </row>
     <row r="265" spans="1:10" ht="12.75">
       <c r="A265" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B265" s="2">
+        <v>3</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B265" s="2">
-        <v>3</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>650</v>
-      </c>
       <c r="D265" s="2" t="s">
         <v>12</v>
       </c>
@@ -11700,30 +11638,28 @@
         <v>13</v>
       </c>
       <c r="H265" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I265" s="2">
-        <v>100</v>
-      </c>
-      <c r="J265" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J265" s="2"/>
     </row>
     <row r="266" spans="1:10" ht="12.75">
       <c r="A266" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B266" s="2">
         <v>8</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>13</v>
@@ -11732,25 +11668,23 @@
         <v>13</v>
       </c>
       <c r="H266" s="2">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I266" s="2">
-        <v>56</v>
-      </c>
-      <c r="J266" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J266" s="2"/>
     </row>
     <row r="267" spans="1:10" ht="12.75">
       <c r="A267" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B267" s="2">
+        <v>3</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B267" s="2">
-        <v>3</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>655</v>
-      </c>
       <c r="D267" s="2" t="s">
         <v>12</v>
       </c>
@@ -11764,24 +11698,24 @@
         <v>13</v>
       </c>
       <c r="H267" s="2">
-        <v>1370</v>
+        <v>20</v>
       </c>
       <c r="I267" s="2">
-        <v>1370</v>
+        <v>0</v>
       </c>
       <c r="J267" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="12.75">
       <c r="A268" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B268" s="2">
         <v>1</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>67</v>
@@ -11796,25 +11730,27 @@
         <v>13</v>
       </c>
       <c r="H268" s="2">
-        <v>0</v>
+        <v>3830</v>
       </c>
       <c r="I268" s="2">
         <v>0</v>
       </c>
-      <c r="J268" s="2"/>
+      <c r="J268" s="2">
+        <v>3830</v>
+      </c>
     </row>
     <row r="269" spans="1:10" ht="12.75">
       <c r="A269" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B269" s="2">
         <v>31</v>
       </c>
       <c r="C269" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D269" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>13</v>
@@ -11835,13 +11771,13 @@
     </row>
     <row r="270" spans="1:10" ht="12.75">
       <c r="A270" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B270" s="2">
         <v>8</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>249</v>
@@ -11856,24 +11792,24 @@
         <v>13</v>
       </c>
       <c r="H270" s="2">
-        <v>870.5</v>
+        <v>420</v>
       </c>
       <c r="I270" s="2">
-        <v>870.5</v>
+        <v>392</v>
       </c>
       <c r="J270" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="12.75">
       <c r="A271" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B271" s="2">
+        <v>3</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="B271" s="2">
-        <v>3</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>12</v>
@@ -11897,19 +11833,19 @@
     </row>
     <row r="272" spans="1:10" ht="12.75">
       <c r="A272" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B272" s="2">
         <v>8</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>13</v>
@@ -11927,19 +11863,19 @@
     </row>
     <row r="273" spans="1:10" ht="12.75">
       <c r="A273" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B273" s="2">
+        <v>3</v>
+      </c>
+      <c r="C273" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B273" s="2">
-        <v>3</v>
-      </c>
-      <c r="C273" s="2" t="s">
+      <c r="D273" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>669</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>13</v>
@@ -11957,19 +11893,19 @@
     </row>
     <row r="274" spans="1:10" ht="12.75">
       <c r="A274" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B274" s="2">
+        <v>3</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B274" s="2">
-        <v>3</v>
-      </c>
-      <c r="C274" s="2" t="s">
+      <c r="D274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>13</v>
@@ -11987,13 +11923,13 @@
     </row>
     <row r="275" spans="1:10" ht="12.75">
       <c r="A275" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B275" s="2">
         <v>8</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>249</v>
@@ -12008,24 +11944,24 @@
         <v>13</v>
       </c>
       <c r="H275" s="2">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="I275" s="2">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="J275" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="12.75">
       <c r="A276" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B276" s="2">
         <v>8</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>249</v>
@@ -12049,22 +11985,22 @@
     </row>
     <row r="277" spans="1:10" ht="12.75">
       <c r="A277" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B277" s="2">
         <v>8</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E277" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="F277" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>13</v>
@@ -12081,13 +12017,13 @@
     </row>
     <row r="278" spans="1:10" ht="12.75">
       <c r="A278" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B278" s="2">
         <v>8</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>249</v>
@@ -12111,13 +12047,13 @@
     </row>
     <row r="279" spans="1:10" ht="12.75">
       <c r="A279" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B279" s="2">
         <v>8</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>249</v>
@@ -12141,13 +12077,13 @@
     </row>
     <row r="280" spans="1:10" ht="12.75">
       <c r="A280" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B280" s="2">
         <v>8</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>249</v>
@@ -12171,13 +12107,13 @@
     </row>
     <row r="281" spans="1:10" ht="12.75">
       <c r="A281" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B281" s="2">
         <v>8</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>249</v>
@@ -12201,13 +12137,13 @@
     </row>
     <row r="282" spans="1:10" ht="12.75">
       <c r="A282" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B282" s="2">
         <v>8</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>249</v>
@@ -12231,13 +12167,13 @@
     </row>
     <row r="283" spans="1:10" ht="12.75">
       <c r="A283" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B283" s="2">
         <v>8</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>249</v>
@@ -12249,7 +12185,7 @@
         <v>13</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H283" s="2">
         <v>0</v>
@@ -12261,13 +12197,13 @@
     </row>
     <row r="284" spans="1:10" ht="12.75">
       <c r="A284" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B284" s="2">
         <v>8</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>249</v>
@@ -12279,7 +12215,7 @@
         <v>13</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H284" s="2">
         <v>0</v>
@@ -12291,13 +12227,13 @@
     </row>
     <row r="285" spans="1:10" ht="12.75">
       <c r="A285" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B285" s="2">
         <v>8</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>249</v>
@@ -12321,13 +12257,13 @@
     </row>
     <row r="286" spans="1:10" ht="12.75">
       <c r="A286" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B286" s="2">
         <v>8</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>249</v>
@@ -12342,24 +12278,22 @@
         <v>13</v>
       </c>
       <c r="H286" s="2">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="I286" s="2">
-        <v>104</v>
-      </c>
-      <c r="J286" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J286" s="2"/>
     </row>
     <row r="287" spans="1:10" ht="12.75">
       <c r="A287" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B287" s="2">
         <v>8</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>249</v>
@@ -12374,30 +12308,28 @@
         <v>13</v>
       </c>
       <c r="H287" s="2">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="I287" s="2">
-        <v>190</v>
-      </c>
-      <c r="J287" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J287" s="2"/>
     </row>
     <row r="288" spans="1:10" ht="12.75">
       <c r="A288" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B288" s="2">
         <v>1</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>13</v>
@@ -12415,19 +12347,19 @@
     </row>
     <row r="289" spans="1:10" ht="12.75">
       <c r="A289" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B289" s="2">
         <v>1</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>13</v>
@@ -12445,19 +12377,19 @@
     </row>
     <row r="290" spans="1:10" ht="12.75">
       <c r="A290" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B290" s="2">
         <v>1</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>13</v>
@@ -12475,13 +12407,13 @@
     </row>
     <row r="291" spans="1:10" ht="12.75">
       <c r="A291" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B291" s="2">
         <v>8</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>249</v>
@@ -12505,13 +12437,13 @@
     </row>
     <row r="292" spans="1:10" ht="12.75">
       <c r="A292" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B292" s="2">
         <v>8</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>249</v>
@@ -12526,24 +12458,24 @@
         <v>13</v>
       </c>
       <c r="H292" s="2">
-        <v>2074</v>
+        <v>982</v>
       </c>
       <c r="I292" s="2">
-        <v>2074</v>
+        <v>980</v>
       </c>
       <c r="J292" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:10" ht="12.75">
       <c r="A293" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B293" s="2">
         <v>8</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>249</v>
@@ -12567,13 +12499,13 @@
     </row>
     <row r="294" spans="1:10" ht="12.75">
       <c r="A294" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B294" s="2">
         <v>8</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>249</v>
@@ -12597,25 +12529,25 @@
     </row>
     <row r="295" spans="1:10" ht="12.75">
       <c r="A295" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B295" s="2">
+        <v>3</v>
+      </c>
+      <c r="C295" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="B295" s="2">
-        <v>3</v>
-      </c>
-      <c r="C295" s="2" t="s">
+      <c r="D295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G295" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G295" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="H295" s="2">
         <v>0</v>
@@ -12627,13 +12559,13 @@
     </row>
     <row r="296" spans="1:10" ht="12.75">
       <c r="A296" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B296" s="2">
         <v>8</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>249</v>
@@ -12648,10 +12580,10 @@
         <v>13</v>
       </c>
       <c r="H296" s="2">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="I296" s="2">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="J296" s="2">
         <v>0</v>
@@ -12659,13 +12591,13 @@
     </row>
     <row r="297" spans="1:10" ht="12.75">
       <c r="A297" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B297" s="2">
         <v>8</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>249</v>
@@ -12680,54 +12612,54 @@
         <v>13</v>
       </c>
       <c r="H297" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I297" s="2">
-        <v>0</v>
-      </c>
-      <c r="J297" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="J297" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="298" spans="1:10" ht="12.75">
       <c r="A298" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B298" s="2">
         <v>8</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E298" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G298" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="F298" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G298" s="2" t="s">
-        <v>725</v>
-      </c>
       <c r="H298" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I298" s="2">
-        <v>20</v>
-      </c>
-      <c r="J298" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J298" s="2"/>
     </row>
     <row r="299" spans="1:10" ht="12.75">
       <c r="A299" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B299" s="2">
         <v>1</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>67</v>
@@ -12753,13 +12685,13 @@
     </row>
     <row r="300" spans="1:10" ht="12.75">
       <c r="A300" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B300" s="2">
         <v>8</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>249</v>
@@ -12785,13 +12717,13 @@
     </row>
     <row r="301" spans="1:10" ht="12.75">
       <c r="A301" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B301" s="2">
         <v>1</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>67</v>
@@ -12815,45 +12747,43 @@
     </row>
     <row r="302" spans="1:10" ht="12.75">
       <c r="A302" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B302" s="2">
+        <v>13</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="B302" s="2">
-        <v>13</v>
-      </c>
-      <c r="C302" s="2" t="s">
+      <c r="D302" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D302" s="2" t="s">
+      <c r="E302" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E302" s="2" t="s">
+      <c r="F302" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G302" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="F302" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>736</v>
-      </c>
       <c r="H302" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I302" s="2">
-        <v>10</v>
-      </c>
-      <c r="J302" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J302" s="2"/>
     </row>
     <row r="303" spans="1:10" ht="12.75">
       <c r="A303" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B303" s="2">
         <v>8</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>249</v>
@@ -12865,7 +12795,7 @@
         <v>13</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H303" s="2">
         <v>0</v>
@@ -12877,25 +12807,25 @@
     </row>
     <row r="304" spans="1:10" ht="12.75">
       <c r="A304" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B304" s="2">
         <v>6</v>
       </c>
       <c r="C304" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D304" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="D304" s="2" t="s">
+      <c r="E304" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G304" s="2" t="s">
         <v>742</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G304" s="2" t="s">
-        <v>743</v>
       </c>
       <c r="H304" s="2">
         <v>0</v>
@@ -12907,13 +12837,13 @@
     </row>
     <row r="305" spans="1:10" ht="12.75">
       <c r="A305" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B305" s="2">
         <v>1</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>67</v>
@@ -12925,27 +12855,25 @@
         <v>13</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H305" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I305" s="2">
-        <v>15</v>
-      </c>
-      <c r="J305" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J305" s="2"/>
     </row>
     <row r="306" spans="1:10" ht="12.75">
       <c r="A306" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B306" s="2">
         <v>1</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>67</v>
@@ -12957,27 +12885,25 @@
         <v>13</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H306" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I306" s="2">
-        <v>15</v>
-      </c>
-      <c r="J306" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J306" s="2"/>
     </row>
     <row r="307" spans="1:10" ht="12.75">
       <c r="A307" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B307" s="2">
         <v>8</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>249</v>
@@ -12989,27 +12915,25 @@
         <v>13</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H307" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I307" s="2">
-        <v>40</v>
-      </c>
-      <c r="J307" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J307" s="2"/>
     </row>
     <row r="308" spans="1:10" ht="12.75">
       <c r="A308" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B308" s="2">
         <v>1</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>67</v>
@@ -13033,13 +12957,13 @@
     </row>
     <row r="309" spans="1:10" ht="12.75">
       <c r="A309" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B309" s="2">
         <v>1</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>67</v>
@@ -13051,39 +12975,37 @@
         <v>13</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H309" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I309" s="2">
-        <v>50</v>
-      </c>
-      <c r="J309" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J309" s="2"/>
     </row>
     <row r="310" spans="1:10" ht="12.75">
       <c r="A310" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B310" s="2">
         <v>4</v>
       </c>
       <c r="C310" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D310" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="D310" s="2" t="s">
+      <c r="E310" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F310" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="E310" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F310" s="2" t="s">
+      <c r="G310" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="H310" s="2">
         <v>6</v>
@@ -13097,16 +13019,16 @@
     </row>
     <row r="311" spans="1:10" ht="12.75">
       <c r="A311" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B311" s="2">
         <v>26</v>
       </c>
       <c r="C311" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D311" s="2" t="s">
         <v>762</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>763</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>13</v>
@@ -13129,25 +13051,25 @@
     </row>
     <row r="312" spans="1:10" ht="12.75">
       <c r="A312" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B312" s="2">
         <v>1</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E312" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G312" s="2" t="s">
         <v>766</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>767</v>
       </c>
       <c r="H312" s="2">
         <v>0</v>
@@ -13159,13 +13081,13 @@
     </row>
     <row r="313" spans="1:10" ht="12.75">
       <c r="A313" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B313" s="2">
         <v>1</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>67</v>
@@ -13189,45 +13111,45 @@
     </row>
     <row r="314" spans="1:10" ht="12.75">
       <c r="A314" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B314" s="2">
         <v>1</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H314" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I314" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J314" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:10" ht="12.75">
       <c r="A315" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B315" s="2">
         <v>1</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>67</v>
@@ -13242,56 +13164,54 @@
         <v>13</v>
       </c>
       <c r="H315" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I315" s="2">
-        <v>40</v>
-      </c>
-      <c r="J315" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J315" s="2"/>
     </row>
     <row r="316" spans="1:10" ht="12.75">
       <c r="A316" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B316" s="2">
         <v>4</v>
       </c>
       <c r="C316" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="E316" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D316" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="E316" s="2" t="s">
+      <c r="F316" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="F316" s="2" t="s">
+      <c r="G316" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="G316" s="2" t="s">
-        <v>777</v>
-      </c>
       <c r="H316" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I316" s="2">
         <v>2</v>
       </c>
       <c r="J316" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:10" ht="12.75">
       <c r="A317" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B317" s="2">
         <v>8</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>249</v>
@@ -13315,13 +13235,13 @@
     </row>
     <row r="318" spans="1:10" ht="12.75">
       <c r="A318" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B318" s="2">
         <v>1</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>67</v>
@@ -13333,7 +13253,7 @@
         <v>13</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H318" s="2">
         <v>0</v>
@@ -13345,25 +13265,25 @@
     </row>
     <row r="319" spans="1:10" ht="12.75">
       <c r="A319" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B319" s="2">
         <v>1</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E319" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G319" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="F319" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G319" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="H319" s="2">
         <v>0</v>
@@ -13375,25 +13295,25 @@
     </row>
     <row r="320" spans="1:10" ht="12.75">
       <c r="A320" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B320" s="2">
         <v>1</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H320" s="2">
         <v>0</v>
@@ -13405,25 +13325,25 @@
     </row>
     <row r="321" spans="1:10" ht="12.75">
       <c r="A321" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B321" s="2">
         <v>1</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H321" s="2">
         <v>0</v>
@@ -13435,25 +13355,25 @@
     </row>
     <row r="322" spans="1:10" ht="12.75">
       <c r="A322" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B322" s="2">
         <v>1</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H322" s="2">
         <v>0</v>
@@ -13465,25 +13385,25 @@
     </row>
     <row r="323" spans="1:10" ht="12.75">
       <c r="A323" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B323" s="2">
         <v>1</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H323" s="2">
         <v>0</v>
@@ -13495,13 +13415,13 @@
     </row>
     <row r="324" spans="1:10" ht="12.75">
       <c r="A324" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B324" s="2">
         <v>1</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>67</v>
@@ -13525,13 +13445,13 @@
     </row>
     <row r="325" spans="1:10" ht="12.75">
       <c r="A325" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B325" s="2">
         <v>1</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>67</v>
@@ -13555,13 +13475,13 @@
     </row>
     <row r="326" spans="1:10" ht="12.75">
       <c r="A326" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B326" s="2">
         <v>8</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>249</v>
@@ -13573,7 +13493,7 @@
         <v>13</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H326" s="2">
         <v>0</v>
@@ -13585,13 +13505,13 @@
     </row>
     <row r="327" spans="1:10" ht="12.75">
       <c r="A327" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B327" s="2">
         <v>8</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>249</v>
@@ -13603,7 +13523,7 @@
         <v>13</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H327" s="2">
         <v>0</v>
@@ -13615,13 +13535,13 @@
     </row>
     <row r="328" spans="1:10" ht="12.75">
       <c r="A328" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B328" s="2">
         <v>8</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>249</v>
@@ -13636,24 +13556,24 @@
         <v>13</v>
       </c>
       <c r="H328" s="2">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="I328" s="2">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="J328" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="12.75">
       <c r="A329" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B329" s="2">
         <v>1</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>67</v>
@@ -13665,7 +13585,7 @@
         <v>13</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H329" s="2">
         <v>0</v>
@@ -13677,31 +13597,31 @@
     </row>
     <row r="330" spans="1:10" ht="12.75">
       <c r="A330" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B330" s="2">
         <v>8</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E330" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G330" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="F330" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G330" s="2" t="s">
-        <v>809</v>
-      </c>
       <c r="H330" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I330" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J330" s="2">
         <v>25</v>
@@ -13709,25 +13629,25 @@
     </row>
     <row r="331" spans="1:10" ht="12.75">
       <c r="A331" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B331" s="2">
         <v>8</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E331" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G331" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G331" s="2" t="s">
-        <v>812</v>
       </c>
       <c r="H331" s="2">
         <v>34</v>
@@ -13741,25 +13661,25 @@
     </row>
     <row r="332" spans="1:10" ht="12.75">
       <c r="A332" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B332" s="2">
         <v>8</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E332" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G332" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="F332" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G332" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="H332" s="2">
         <v>10</v>
@@ -13773,25 +13693,25 @@
     </row>
     <row r="333" spans="1:10" ht="12.75">
       <c r="A333" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B333" s="2">
         <v>8</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E333" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G333" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="F333" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G333" s="2" t="s">
-        <v>818</v>
       </c>
       <c r="H333" s="2">
         <v>20</v>
@@ -13805,25 +13725,25 @@
     </row>
     <row r="334" spans="1:10" ht="12.75">
       <c r="A334" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B334" s="2">
         <v>8</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E334" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G334" s="2" t="s">
         <v>820</v>
-      </c>
-      <c r="F334" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G334" s="2" t="s">
-        <v>821</v>
       </c>
       <c r="H334" s="2">
         <v>30</v>
@@ -13837,25 +13757,25 @@
     </row>
     <row r="335" spans="1:10" ht="12.75">
       <c r="A335" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B335" s="2">
         <v>8</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E335" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G335" s="2" t="s">
         <v>823</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G335" s="2" t="s">
-        <v>824</v>
       </c>
       <c r="H335" s="2">
         <v>30</v>
@@ -13869,25 +13789,25 @@
     </row>
     <row r="336" spans="1:10" ht="12.75">
       <c r="A336" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B336" s="2">
         <v>8</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E336" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G336" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="F336" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G336" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="H336" s="2">
         <v>30</v>
@@ -13901,25 +13821,25 @@
     </row>
     <row r="337" spans="1:10" ht="12.75">
       <c r="A337" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B337" s="2">
+        <v>12</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="B337" s="2">
-        <v>12</v>
-      </c>
-      <c r="C337" s="2" t="s">
+      <c r="D337" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="D337" s="2" t="s">
+      <c r="E337" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G337" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="F337" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G337" s="2" t="s">
-        <v>831</v>
       </c>
       <c r="H337" s="2">
         <v>30</v>
@@ -13933,25 +13853,25 @@
     </row>
     <row r="338" spans="1:10" ht="12.75">
       <c r="A338" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B338" s="2">
         <v>8</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E338" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G338" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="F338" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G338" s="2" t="s">
-        <v>834</v>
       </c>
       <c r="H338" s="2">
         <v>6</v>
@@ -13965,13 +13885,13 @@
     </row>
     <row r="339" spans="1:10" ht="12.75">
       <c r="A339" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B339" s="2">
+        <v>3</v>
+      </c>
+      <c r="C339" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="B339" s="2">
-        <v>3</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>12</v>
@@ -13995,31 +13915,31 @@
     </row>
     <row r="340" spans="1:10" ht="12.75">
       <c r="A340" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B340" s="2">
         <v>1</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H340" s="2">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I340" s="2">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J340" s="2">
         <v>0</v>
@@ -14027,13 +13947,13 @@
     </row>
     <row r="341" spans="1:10" ht="12.75">
       <c r="A341" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B341" s="2">
         <v>1</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>67</v>
@@ -14045,7 +13965,7 @@
         <v>13</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H341" s="2">
         <v>0</v>
@@ -14057,13 +13977,13 @@
     </row>
     <row r="342" spans="1:10" ht="12.75">
       <c r="A342" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B342" s="2">
         <v>1</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>67</v>
@@ -14075,7 +13995,7 @@
         <v>13</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H342" s="2">
         <v>0</v>
@@ -14087,13 +14007,13 @@
     </row>
     <row r="343" spans="1:10" ht="12.75">
       <c r="A343" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B343" s="2">
         <v>8</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>249</v>
@@ -14117,19 +14037,19 @@
     </row>
     <row r="344" spans="1:10" ht="12.75">
       <c r="A344" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B344" s="2">
+        <v>12</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="B344" s="2">
-        <v>12</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>849</v>
-      </c>
       <c r="D344" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>150</v>
@@ -14147,25 +14067,25 @@
     </row>
     <row r="345" spans="1:10" ht="12.75">
       <c r="A345" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B345" s="2">
+        <v>3</v>
+      </c>
+      <c r="C345" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="B345" s="2">
-        <v>3</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>851</v>
-      </c>
       <c r="D345" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>146</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H345" s="2">
         <v>0</v>
@@ -14177,25 +14097,25 @@
     </row>
     <row r="346" spans="1:10" ht="12.75">
       <c r="A346" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B346" s="2">
+        <v>3</v>
+      </c>
+      <c r="C346" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="B346" s="2">
-        <v>3</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>854</v>
-      </c>
       <c r="D346" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>146</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H346" s="2">
         <v>0</v>
@@ -14207,13 +14127,13 @@
     </row>
     <row r="347" spans="1:10" ht="12.75">
       <c r="A347" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B347" s="2">
         <v>1</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>67</v>
@@ -14225,7 +14145,7 @@
         <v>13</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H347" s="2">
         <v>0</v>
@@ -14237,19 +14157,19 @@
     </row>
     <row r="348" spans="1:10" ht="12.75">
       <c r="A348" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B348" s="2">
+        <v>3</v>
+      </c>
+      <c r="C348" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="B348" s="2">
-        <v>3</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>859</v>
-      </c>
       <c r="D348" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>13</v>
@@ -14267,13 +14187,13 @@
     </row>
     <row r="349" spans="1:10" ht="12.75">
       <c r="A349" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B349" s="2">
+        <v>3</v>
+      </c>
+      <c r="C349" s="2" t="s">
         <v>860</v>
-      </c>
-      <c r="B349" s="2">
-        <v>3</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>861</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>12</v>
@@ -14297,13 +14217,13 @@
     </row>
     <row r="350" spans="1:10" ht="12.75">
       <c r="A350" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B350" s="2">
         <v>1</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>67</v>
@@ -14327,13 +14247,13 @@
     </row>
     <row r="351" spans="1:10" ht="12.75">
       <c r="A351" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B351" s="2">
         <v>1</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>67</v>
@@ -14357,19 +14277,19 @@
     </row>
     <row r="352" spans="1:10" ht="12.75">
       <c r="A352" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B352" s="2">
         <v>1</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>13</v>
@@ -14387,13 +14307,13 @@
     </row>
     <row r="353" spans="1:10" ht="12.75">
       <c r="A353" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B353" s="2">
         <v>1</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>67</v>
@@ -14417,13 +14337,13 @@
     </row>
     <row r="354" spans="1:10" ht="12.75">
       <c r="A354" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B354" s="2">
         <v>1</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>67</v>
@@ -14435,7 +14355,7 @@
         <v>13</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H354" s="2">
         <v>0</v>
@@ -14447,13 +14367,13 @@
     </row>
     <row r="355" spans="1:10" ht="12.75">
       <c r="A355" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B355" s="2">
         <v>1</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>67</v>
@@ -14477,13 +14397,13 @@
     </row>
     <row r="356" spans="1:10" ht="12.75">
       <c r="A356" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B356" s="2">
         <v>3</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>12</v>
@@ -14495,7 +14415,7 @@
         <v>294</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H356" s="2">
         <v>0</v>
@@ -14507,25 +14427,25 @@
     </row>
     <row r="357" spans="1:10" ht="12.75">
       <c r="A357" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B357" s="2">
         <v>1</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>311</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H357" s="2">
         <v>75</v>
@@ -14539,13 +14459,13 @@
     </row>
     <row r="358" spans="1:10" ht="12.75">
       <c r="A358" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B358" s="2">
         <v>1</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>67</v>
@@ -14569,13 +14489,13 @@
     </row>
     <row r="359" spans="1:10" ht="12.75">
       <c r="A359" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B359" s="2">
         <v>1</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>67</v>
@@ -14599,13 +14519,13 @@
     </row>
     <row r="360" spans="1:10" ht="12.75">
       <c r="A360" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B360" s="2">
         <v>1</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>67</v>
@@ -14617,7 +14537,7 @@
         <v>13</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H360" s="2">
         <v>0</v>
@@ -14629,25 +14549,25 @@
     </row>
     <row r="361" spans="1:10" ht="12.75">
       <c r="A361" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B361" s="2">
         <v>31</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H361" s="2">
         <v>0</v>
@@ -14659,25 +14579,25 @@
     </row>
     <row r="362" spans="1:10" ht="12.75">
       <c r="A362" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B362" s="2">
         <v>31</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H362" s="2">
         <v>0</v>
@@ -14689,25 +14609,25 @@
     </row>
     <row r="363" spans="1:10" ht="12.75">
       <c r="A363" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B363" s="2">
         <v>31</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H363" s="2">
         <v>0</v>
@@ -14719,25 +14639,25 @@
     </row>
     <row r="364" spans="1:10" ht="12.75">
       <c r="A364" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B364" s="2">
         <v>31</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H364" s="2">
         <v>0</v>
@@ -14749,25 +14669,25 @@
     </row>
     <row r="365" spans="1:10" ht="12.75">
       <c r="A365" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B365" s="2">
         <v>31</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H365" s="2">
         <v>0</v>
@@ -14779,13 +14699,13 @@
     </row>
     <row r="366" spans="1:10" ht="12.75">
       <c r="A366" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B366" s="2">
         <v>8</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>249</v>
@@ -14800,24 +14720,22 @@
         <v>13</v>
       </c>
       <c r="H366" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I366" s="2">
-        <v>30</v>
-      </c>
-      <c r="J366" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J366" s="2"/>
     </row>
     <row r="367" spans="1:10" ht="12.75">
       <c r="A367" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B367" s="2">
         <v>1</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>67</v>
@@ -14832,24 +14750,22 @@
         <v>13</v>
       </c>
       <c r="H367" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I367" s="2">
-        <v>16</v>
-      </c>
-      <c r="J367" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J367" s="2"/>
     </row>
     <row r="368" spans="1:10" ht="12.75">
       <c r="A368" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B368" s="2">
         <v>1</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>67</v>
@@ -14873,25 +14789,25 @@
     </row>
     <row r="369" spans="1:10" ht="12.75">
       <c r="A369" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B369" s="2">
         <v>1</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E369" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G369" s="2" t="s">
         <v>908</v>
-      </c>
-      <c r="F369" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G369" s="2" t="s">
-        <v>909</v>
       </c>
       <c r="H369" s="2">
         <v>0</v>
@@ -14903,13 +14819,13 @@
     </row>
     <row r="370" spans="1:10" ht="12.75">
       <c r="A370" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B370" s="2">
         <v>8</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>249</v>
@@ -14924,24 +14840,24 @@
         <v>13</v>
       </c>
       <c r="H370" s="2">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="I370" s="2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="J370" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:10" ht="12.75">
       <c r="A371" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B371" s="2">
         <v>8</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>249</v>
@@ -14965,13 +14881,13 @@
     </row>
     <row r="372" spans="1:10" ht="12.75">
       <c r="A372" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B372" s="2">
         <v>8</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>249</v>
@@ -14995,13 +14911,13 @@
     </row>
     <row r="373" spans="1:10" ht="12.75">
       <c r="A373" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B373" s="2">
         <v>8</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>249</v>
@@ -15027,13 +14943,13 @@
     </row>
     <row r="374" spans="1:10" ht="12.75">
       <c r="A374" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B374" s="2">
         <v>1</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>67</v>
@@ -15057,13 +14973,13 @@
     </row>
     <row r="375" spans="1:10" ht="12.75">
       <c r="A375" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B375" s="2">
         <v>1</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>67</v>
@@ -15087,13 +15003,13 @@
     </row>
     <row r="376" spans="1:10" ht="12.75">
       <c r="A376" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B376" s="2">
         <v>1</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>67</v>
@@ -15117,17 +15033,17 @@
     </row>
     <row r="377" spans="1:10" ht="12.75">
       <c r="A377" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B377" s="2">
         <v>11</v>
       </c>
       <c r="C377" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="D377" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="D377" s="2" t="s">
-        <v>926</v>
-      </c>
       <c r="E377" s="2" t="s">
         <v>13</v>
       </c>
@@ -15138,24 +15054,22 @@
         <v>13</v>
       </c>
       <c r="H377" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I377" s="2">
-        <v>7</v>
-      </c>
-      <c r="J377" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J377" s="2"/>
     </row>
     <row r="378" spans="1:10" ht="12.75">
       <c r="A378" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B378" s="2">
+        <v>3</v>
+      </c>
+      <c r="C378" s="2" t="s">
         <v>927</v>
-      </c>
-      <c r="B378" s="2">
-        <v>3</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>928</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>12</v>
@@ -15179,14 +15093,14 @@
     </row>
     <row r="379" spans="1:10" ht="12.75">
       <c r="A379" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B379" s="2">
+        <v>3</v>
+      </c>
+      <c r="C379" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="B379" s="2">
-        <v>3</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>930</v>
-      </c>
       <c r="D379" s="2" t="s">
         <v>12</v>
       </c>
@@ -15200,24 +15114,22 @@
         <v>13</v>
       </c>
       <c r="H379" s="2">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="I379" s="2">
-        <v>644</v>
-      </c>
-      <c r="J379" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J379" s="2"/>
     </row>
     <row r="380" spans="1:10" ht="12.75">
       <c r="A380" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B380" s="2">
+        <v>3</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>931</v>
-      </c>
-      <c r="B380" s="2">
-        <v>3</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>932</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>12</v>
@@ -15241,19 +15153,19 @@
     </row>
     <row r="381" spans="1:10" ht="12.75">
       <c r="A381" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B381" s="2">
+        <v>3</v>
+      </c>
+      <c r="C381" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="B381" s="2">
-        <v>3</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>934</v>
-      </c>
       <c r="D381" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>13</v>
@@ -15271,19 +15183,19 @@
     </row>
     <row r="382" spans="1:10" ht="12.75">
       <c r="A382" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B382" s="2">
+        <v>3</v>
+      </c>
+      <c r="C382" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="B382" s="2">
-        <v>3</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>936</v>
-      </c>
       <c r="D382" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>13</v>
@@ -15301,16 +15213,16 @@
     </row>
     <row r="383" spans="1:10" ht="12.75">
       <c r="A383" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B383" s="2">
         <v>19</v>
       </c>
       <c r="C383" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="D383" s="2" t="s">
         <v>938</v>
-      </c>
-      <c r="D383" s="2" t="s">
-        <v>939</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>13</v>
@@ -15331,13 +15243,13 @@
     </row>
     <row r="384" spans="1:10" ht="12.75">
       <c r="A384" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B384" s="2">
+        <v>3</v>
+      </c>
+      <c r="C384" s="2" t="s">
         <v>940</v>
-      </c>
-      <c r="B384" s="2">
-        <v>3</v>
-      </c>
-      <c r="C384" s="2" t="s">
-        <v>941</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>12</v>
@@ -15361,13 +15273,13 @@
     </row>
     <row r="385" spans="1:10" ht="12.75">
       <c r="A385" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B385" s="2">
+        <v>3</v>
+      </c>
+      <c r="C385" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="B385" s="2">
-        <v>3</v>
-      </c>
-      <c r="C385" s="2" t="s">
-        <v>943</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>12</v>
@@ -15391,25 +15303,25 @@
     </row>
     <row r="386" spans="1:10" ht="12.75">
       <c r="A386" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B386" s="2">
+        <v>3</v>
+      </c>
+      <c r="C386" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="B386" s="2">
-        <v>3</v>
-      </c>
-      <c r="C386" s="2" t="s">
+      <c r="D386" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F386" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="D386" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E386" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F386" s="2" t="s">
+      <c r="G386" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="G386" s="2" t="s">
-        <v>947</v>
       </c>
       <c r="H386" s="2">
         <v>0</v>
@@ -15421,13 +15333,13 @@
     </row>
     <row r="387" spans="1:10" ht="12.75">
       <c r="A387" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B387" s="2">
+        <v>3</v>
+      </c>
+      <c r="C387" s="2" t="s">
         <v>948</v>
-      </c>
-      <c r="B387" s="2">
-        <v>3</v>
-      </c>
-      <c r="C387" s="2" t="s">
-        <v>949</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>12</v>
@@ -15451,13 +15363,13 @@
     </row>
     <row r="388" spans="1:10" ht="12.75">
       <c r="A388" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B388" s="2">
+        <v>3</v>
+      </c>
+      <c r="C388" s="2" t="s">
         <v>950</v>
-      </c>
-      <c r="B388" s="2">
-        <v>3</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>951</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>12</v>
@@ -15481,13 +15393,13 @@
     </row>
     <row r="389" spans="1:10" ht="12.75">
       <c r="A389" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B389" s="2">
+        <v>3</v>
+      </c>
+      <c r="C389" s="2" t="s">
         <v>952</v>
-      </c>
-      <c r="B389" s="2">
-        <v>3</v>
-      </c>
-      <c r="C389" s="2" t="s">
-        <v>953</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>12</v>
@@ -15511,13 +15423,13 @@
     </row>
     <row r="390" spans="1:10" ht="12.75">
       <c r="A390" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B390" s="2">
+        <v>3</v>
+      </c>
+      <c r="C390" s="2" t="s">
         <v>954</v>
-      </c>
-      <c r="B390" s="2">
-        <v>3</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>955</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>12</v>
@@ -15541,25 +15453,25 @@
     </row>
     <row r="391" spans="1:10" ht="12.75">
       <c r="A391" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B391" s="2">
         <v>2</v>
       </c>
       <c r="C391" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="D391" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="D391" s="2" t="s">
+      <c r="E391" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F391" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="E391" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F391" s="2" t="s">
+      <c r="G391" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="G391" s="2" t="s">
-        <v>960</v>
       </c>
       <c r="H391" s="2">
         <v>0</v>
@@ -15571,25 +15483,25 @@
     </row>
     <row r="392" spans="1:10" ht="12.75">
       <c r="A392" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B392" s="2">
         <v>2</v>
       </c>
       <c r="C392" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F392" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="D392" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="E392" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F392" s="2" t="s">
+      <c r="G392" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="G392" s="2" t="s">
-        <v>964</v>
       </c>
       <c r="H392" s="2">
         <v>0</v>
@@ -15601,25 +15513,25 @@
     </row>
     <row r="393" spans="1:10" ht="12.75">
       <c r="A393" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B393" s="2">
         <v>2</v>
       </c>
       <c r="C393" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G393" s="2" t="s">
         <v>966</v>
-      </c>
-      <c r="D393" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="E393" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F393" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G393" s="2" t="s">
-        <v>967</v>
       </c>
       <c r="H393" s="2">
         <v>0</v>
@@ -15631,25 +15543,25 @@
     </row>
     <row r="394" spans="1:10" ht="12.75">
       <c r="A394" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B394" s="2">
         <v>2</v>
       </c>
       <c r="C394" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G394" s="2" t="s">
         <v>969</v>
-      </c>
-      <c r="D394" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="E394" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F394" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G394" s="2" t="s">
-        <v>970</v>
       </c>
       <c r="H394" s="2">
         <v>0</v>
@@ -15661,25 +15573,25 @@
     </row>
     <row r="395" spans="1:10" ht="12.75">
       <c r="A395" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B395" s="2">
         <v>2</v>
       </c>
       <c r="C395" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G395" s="2" t="s">
         <v>972</v>
-      </c>
-      <c r="D395" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="E395" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F395" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G395" s="2" t="s">
-        <v>973</v>
       </c>
       <c r="H395" s="2">
         <v>0</v>
@@ -15691,25 +15603,25 @@
     </row>
     <row r="396" spans="1:10" ht="12.75">
       <c r="A396" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B396" s="2">
         <v>2</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F396" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="G396" s="2" t="s">
         <v>975</v>
-      </c>
-      <c r="G396" s="2" t="s">
-        <v>976</v>
       </c>
       <c r="H396" s="2">
         <v>0</v>
@@ -15721,16 +15633,16 @@
     </row>
     <row r="397" spans="1:10" ht="12.75">
       <c r="A397" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B397" s="2">
         <v>6</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>13</v>
@@ -15751,25 +15663,25 @@
     </row>
     <row r="398" spans="1:10" ht="12.75">
       <c r="A398" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B398" s="2">
         <v>2</v>
       </c>
       <c r="C398" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G398" s="2" t="s">
         <v>980</v>
-      </c>
-      <c r="D398" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="E398" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F398" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G398" s="2" t="s">
-        <v>981</v>
       </c>
       <c r="H398" s="2">
         <v>0</v>
@@ -15781,16 +15693,16 @@
     </row>
     <row r="399" spans="1:10" ht="12.75">
       <c r="A399" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B399" s="2">
         <v>2</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E399" s="2" t="s">
         <v>13</v>

--- a/43.xlsx
+++ b/43.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="998">
   <si>
     <t xml:space="preserve">كد  كالا   </t>
   </si>
@@ -957,6 +957,15 @@
     <t>Oil SMR-100</t>
   </si>
   <si>
+    <t xml:space="preserve">         43001010124</t>
+  </si>
+  <si>
+    <t>روغن فلاشينگ</t>
+  </si>
+  <si>
+    <t>كمپرسور</t>
+  </si>
+  <si>
     <t xml:space="preserve">         43001020001</t>
   </si>
   <si>
@@ -1551,6 +1560,12 @@
     <t>Lubtech-Unilub HP1</t>
   </si>
   <si>
+    <t xml:space="preserve">         43001020083</t>
+  </si>
+  <si>
+    <t>DEGER Grease art-No.6800027 (each cartrtridge 400 gr</t>
+  </si>
+  <si>
     <t xml:space="preserve">         43002010001</t>
   </si>
   <si>
@@ -1971,7 +1986,7 @@
     <t xml:space="preserve">         43003010032</t>
   </si>
   <si>
-    <t>رنگ  اپوكسي</t>
+    <t>رنگ اپوكسي</t>
   </si>
   <si>
     <t>High Build Epoxy</t>
@@ -2181,6 +2196,9 @@
     <t>پودر رنگ</t>
   </si>
   <si>
+    <t xml:space="preserve">         43003010064</t>
+  </si>
+  <si>
     <t xml:space="preserve">         43003020001</t>
   </si>
   <si>
@@ -2794,6 +2812,33 @@
   </si>
   <si>
     <t xml:space="preserve">بسته                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43003020081</t>
+  </si>
+  <si>
+    <t>بتونه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43003020082</t>
+  </si>
+  <si>
+    <t>Weicon Ceramic BL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43003020083</t>
+  </si>
+  <si>
+    <t>Weicon A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43003020084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         43003020085</t>
+  </si>
+  <si>
+    <t>Cleaner Spray S</t>
   </si>
   <si>
     <t xml:space="preserve">         43003030001</t>
@@ -3447,7 +3492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J399"/>
+  <dimension ref="A1:J407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -3460,8 +3505,7 @@
     <col min="5" max="5" width="35.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="32.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="73.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="7.28571428571429" customWidth="1"/>
-    <col min="9" max="9" width="7.42857142857143" customWidth="1"/>
+    <col min="8" max="9" width="8.28571428571429" customWidth="1"/>
     <col min="10" max="10" width="7.28571428571429" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3523,10 +3567,10 @@
         <v>1018</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="J2" s="2">
-        <v>1018</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75">
@@ -3585,10 +3629,10 @@
         <v>4598</v>
       </c>
       <c r="I4" s="2">
-        <v>1045</v>
+        <v>1254</v>
       </c>
       <c r="J4" s="2">
-        <v>3553</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75">
@@ -4051,10 +4095,10 @@
         <v>2200</v>
       </c>
       <c r="I19" s="2">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="J19" s="2">
-        <v>1800</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.75">
@@ -4417,10 +4461,10 @@
         <v>3762</v>
       </c>
       <c r="I31" s="2">
-        <v>209</v>
+        <v>418</v>
       </c>
       <c r="J31" s="2">
-        <v>3553</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75">
@@ -4663,10 +4707,10 @@
         <v>624</v>
       </c>
       <c r="I39" s="2">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="J39" s="2">
-        <v>624</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="12.75">
@@ -5315,10 +5359,10 @@
         <v>5000</v>
       </c>
       <c r="I60" s="2">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="J60" s="2">
-        <v>5000</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="12.75">
@@ -5374,12 +5418,14 @@
         <v>13</v>
       </c>
       <c r="H62" s="2">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="I62" s="2">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:10" ht="12.75">
       <c r="A63" s="2" t="s">
@@ -5434,13 +5480,13 @@
         <v>13</v>
       </c>
       <c r="H64" s="2">
+        <v>40560</v>
+      </c>
+      <c r="I64" s="2">
         <v>36400</v>
       </c>
-      <c r="I64" s="2">
-        <v>20592</v>
-      </c>
       <c r="J64" s="2">
-        <v>15808</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="12.75">
@@ -5469,10 +5515,10 @@
         <v>627</v>
       </c>
       <c r="I65" s="2">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="J65" s="2">
-        <v>627</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="12.75">
@@ -5501,10 +5547,10 @@
         <v>1045</v>
       </c>
       <c r="I66" s="2">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="J66" s="2">
-        <v>1045</v>
+        <v>836</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="12.75">
@@ -5565,10 +5611,10 @@
         <v>1100</v>
       </c>
       <c r="I68" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J68" s="2">
-        <v>1100</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="12.75">
@@ -5626,10 +5672,10 @@
         <v>13</v>
       </c>
       <c r="H70" s="2">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="I70" s="2">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="J70" s="2">
         <v>0</v>
@@ -6005,10 +6051,10 @@
         <v>7942</v>
       </c>
       <c r="I82" s="2">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="J82" s="2">
-        <v>7942</v>
+        <v>7524</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="12.75">
@@ -6037,10 +6083,10 @@
         <v>498</v>
       </c>
       <c r="I83" s="2">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="J83" s="2">
-        <v>498</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="12.75">
@@ -6291,10 +6337,10 @@
         <v>208</v>
       </c>
       <c r="I91" s="2">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="J91" s="2">
-        <v>208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="12.75">
@@ -6355,10 +6401,10 @@
         <v>9984</v>
       </c>
       <c r="I93" s="2">
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="J93" s="2">
-        <v>5824</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="12.75">
@@ -6801,10 +6847,10 @@
         <v>80</v>
       </c>
       <c r="I107" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J107" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="12.75">
@@ -7320,60 +7366,60 @@
         <v>312</v>
       </c>
       <c r="H124" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I124" s="2">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="J124" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:10" ht="12.75">
       <c r="A125" s="2" t="s">
         <v>313</v>
       </c>
       <c r="B125" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>314</v>
+        <v>13</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>13</v>
+        <v>315</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H125" s="2">
-        <v>1140</v>
+        <v>0</v>
       </c>
       <c r="I125" s="2">
         <v>0</v>
       </c>
-      <c r="J125" s="2">
-        <v>1140</v>
-      </c>
+      <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" ht="12.75">
       <c r="A126" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B126" s="2">
         <v>8</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>13</v>
@@ -7382,30 +7428,30 @@
         <v>13</v>
       </c>
       <c r="H126" s="2">
-        <v>900</v>
+        <v>1140</v>
       </c>
       <c r="I126" s="2">
         <v>0</v>
       </c>
       <c r="J126" s="2">
-        <v>900</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="12.75">
       <c r="A127" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B127" s="2">
         <v>8</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>13</v>
@@ -7414,30 +7460,30 @@
         <v>13</v>
       </c>
       <c r="H127" s="2">
-        <v>540</v>
+        <v>900</v>
       </c>
       <c r="I127" s="2">
         <v>0</v>
       </c>
       <c r="J127" s="2">
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="12.75">
       <c r="A128" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B128" s="2">
         <v>8</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>13</v>
@@ -7446,44 +7492,44 @@
         <v>13</v>
       </c>
       <c r="H128" s="2">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="I128" s="2">
         <v>0</v>
       </c>
-      <c r="J128" s="2"/>
+      <c r="J128" s="2">
+        <v>540</v>
+      </c>
     </row>
     <row r="129" spans="1:10" ht="12.75">
       <c r="A129" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B129" s="2">
         <v>8</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>323</v>
+        <v>13</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H129" s="2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="I129" s="2">
-        <v>900</v>
-      </c>
-      <c r="J129" s="2">
-        <v>900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" s="2"/>
     </row>
     <row r="130" spans="1:10" ht="12.75">
       <c r="A130" s="2" t="s">
@@ -7502,34 +7548,36 @@
         <v>325</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>13</v>
+        <v>326</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H130" s="2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="I130" s="2">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2"/>
+        <v>1800</v>
+      </c>
+      <c r="J130" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:10" ht="12.75">
       <c r="A131" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B131" s="2">
         <v>8</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>13</v>
@@ -7538,30 +7586,28 @@
         <v>13</v>
       </c>
       <c r="H131" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I131" s="2">
         <v>0</v>
       </c>
-      <c r="J131" s="2">
-        <v>180</v>
-      </c>
+      <c r="J131" s="2"/>
     </row>
     <row r="132" spans="1:10" ht="12.75">
       <c r="A132" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B132" s="2">
         <v>8</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>13</v>
@@ -7570,30 +7616,30 @@
         <v>13</v>
       </c>
       <c r="H132" s="2">
-        <v>1100</v>
+        <v>180</v>
       </c>
       <c r="I132" s="2">
         <v>0</v>
       </c>
       <c r="J132" s="2">
-        <v>1100</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="12.75">
       <c r="A133" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B133" s="2">
         <v>8</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>13</v>
@@ -7602,28 +7648,30 @@
         <v>13</v>
       </c>
       <c r="H133" s="2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="I133" s="2">
         <v>0</v>
       </c>
-      <c r="J133" s="2"/>
+      <c r="J133" s="2">
+        <v>1100</v>
+      </c>
     </row>
     <row r="134" spans="1:10" ht="12.75">
       <c r="A134" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B134" s="2">
         <v>8</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>13</v>
@@ -7641,35 +7689,33 @@
     </row>
     <row r="135" spans="1:10" ht="12.75">
       <c r="A135" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B135" s="2">
         <v>8</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>336</v>
+        <v>13</v>
       </c>
       <c r="H135" s="2">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="I135" s="2">
         <v>0</v>
       </c>
-      <c r="J135" s="2">
-        <v>950</v>
-      </c>
+      <c r="J135" s="2"/>
     </row>
     <row r="136" spans="1:10" ht="12.75">
       <c r="A136" s="2" t="s">
@@ -7691,142 +7737,142 @@
         <v>13</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H136" s="2">
-        <v>1490</v>
+        <v>950</v>
       </c>
       <c r="I136" s="2">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="J136" s="2">
-        <v>1490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="12.75">
       <c r="A137" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B137" s="2">
         <v>8</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H137" s="2">
-        <v>360</v>
+        <v>1490</v>
       </c>
       <c r="I137" s="2">
         <v>0</v>
       </c>
       <c r="J137" s="2">
-        <v>360</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="12.75">
       <c r="A138" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B138" s="2">
         <v>8</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H138" s="2">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I138" s="2">
         <v>0</v>
       </c>
-      <c r="J138" s="2"/>
+      <c r="J138" s="2">
+        <v>360</v>
+      </c>
     </row>
     <row r="139" spans="1:10" ht="12.75">
       <c r="A139" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B139" s="2">
         <v>8</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H139" s="2">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="I139" s="2">
         <v>0</v>
       </c>
-      <c r="J139" s="2">
-        <v>420</v>
-      </c>
+      <c r="J139" s="2"/>
     </row>
     <row r="140" spans="1:10" ht="12.75">
       <c r="A140" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B140" s="2">
         <v>8</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>347</v>
+        <v>13</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>13</v>
+        <v>339</v>
       </c>
       <c r="H140" s="2">
-        <v>0.397</v>
+        <v>420</v>
       </c>
       <c r="I140" s="2">
         <v>0</v>
       </c>
       <c r="J140" s="2">
-        <v>0.397</v>
+        <v>420</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="12.75">
@@ -7852,12 +7898,14 @@
         <v>13</v>
       </c>
       <c r="H141" s="2">
-        <v>0</v>
+        <v>0.397</v>
       </c>
       <c r="I141" s="2">
         <v>0</v>
       </c>
-      <c r="J141" s="2"/>
+      <c r="J141" s="2">
+        <v>0.397</v>
+      </c>
     </row>
     <row r="142" spans="1:10" ht="12.75">
       <c r="A142" s="2" t="s">
@@ -7876,10 +7924,10 @@
         <v>352</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>13</v>
+        <v>353</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>353</v>
+        <v>13</v>
       </c>
       <c r="H142" s="2">
         <v>0</v>
@@ -7906,10 +7954,10 @@
         <v>355</v>
       </c>
       <c r="F143" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="H143" s="2">
         <v>0</v>
@@ -7939,7 +7987,7 @@
         <v>359</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>360</v>
+        <v>13</v>
       </c>
       <c r="H144" s="2">
         <v>0</v>
@@ -7951,51 +7999,51 @@
     </row>
     <row r="145" spans="1:10" ht="12.75">
       <c r="A145" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B145" s="2">
         <v>8</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E145" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G145" s="2" t="s">
-        <v>13</v>
+        <v>363</v>
       </c>
       <c r="H145" s="2">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="I145" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J145" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="12.75">
       <c r="A146" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B146" s="2">
         <v>8</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>13</v>
@@ -8004,28 +8052,30 @@
         <v>13</v>
       </c>
       <c r="H146" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I146" s="2">
         <v>0</v>
       </c>
-      <c r="J146" s="2"/>
+      <c r="J146" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="147" spans="1:10" ht="12.75">
       <c r="A147" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B147" s="2">
         <v>8</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>13</v>
+        <v>367</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>13</v>
@@ -8043,13 +8093,13 @@
     </row>
     <row r="148" spans="1:10" ht="12.75">
       <c r="A148" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B148" s="2">
         <v>8</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>249</v>
@@ -8073,19 +8123,19 @@
     </row>
     <row r="149" spans="1:10" ht="12.75">
       <c r="A149" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B149" s="2">
         <v>8</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>370</v>
+        <v>13</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>13</v>
@@ -8103,19 +8153,19 @@
     </row>
     <row r="150" spans="1:10" ht="12.75">
       <c r="A150" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B150" s="2">
         <v>8</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>13</v>
@@ -8133,19 +8183,19 @@
     </row>
     <row r="151" spans="1:10" ht="12.75">
       <c r="A151" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B151" s="2">
         <v>8</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>13</v>
+        <v>375</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>13</v>
@@ -8163,19 +8213,19 @@
     </row>
     <row r="152" spans="1:10" ht="12.75">
       <c r="A152" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B152" s="2">
         <v>8</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>376</v>
+        <v>13</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>13</v>
@@ -8193,19 +8243,19 @@
     </row>
     <row r="153" spans="1:10" ht="12.75">
       <c r="A153" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B153" s="2">
         <v>8</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>13</v>
@@ -8223,115 +8273,113 @@
     </row>
     <row r="154" spans="1:10" ht="12.75">
       <c r="A154" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B154" s="2">
         <v>8</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>381</v>
+        <v>13</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="H154" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I154" s="2">
         <v>0</v>
       </c>
-      <c r="J154" s="2">
-        <v>4</v>
-      </c>
+      <c r="J154" s="2"/>
     </row>
     <row r="155" spans="1:10" ht="12.75">
       <c r="A155" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B155" s="2">
         <v>8</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>13</v>
+        <v>383</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>13</v>
+        <v>384</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>13</v>
+        <v>385</v>
       </c>
       <c r="H155" s="2">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I155" s="2">
         <v>0</v>
       </c>
       <c r="J155" s="2">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="12.75">
       <c r="A156" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B156" s="2">
         <v>8</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>388</v>
+        <v>13</v>
       </c>
       <c r="H156" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I156" s="2">
         <v>0</v>
       </c>
       <c r="J156" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="12.75">
       <c r="A157" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B157" s="2">
         <v>8</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>13</v>
+        <v>390</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>13</v>
@@ -8340,13 +8388,13 @@
         <v>391</v>
       </c>
       <c r="H157" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" s="2">
         <v>0</v>
       </c>
       <c r="J157" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="12.75">
@@ -8369,27 +8417,27 @@
         <v>13</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>13</v>
+        <v>394</v>
       </c>
       <c r="H158" s="2">
-        <v>13.5</v>
+        <v>2</v>
       </c>
       <c r="I158" s="2">
         <v>0</v>
       </c>
       <c r="J158" s="2">
-        <v>13.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="12.75">
       <c r="A159" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B159" s="2">
         <v>8</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>249</v>
@@ -8407,21 +8455,21 @@
         <v>13.5</v>
       </c>
       <c r="I159" s="2">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="J159" s="2">
-        <v>13.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="12.75">
       <c r="A160" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B160" s="2">
         <v>8</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>249</v>
@@ -8436,22 +8484,24 @@
         <v>13</v>
       </c>
       <c r="H160" s="2">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="I160" s="2">
-        <v>0</v>
-      </c>
-      <c r="J160" s="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="J160" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="161" spans="1:10" ht="12.75">
       <c r="A161" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B161" s="2">
         <v>8</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>249</v>
@@ -8460,10 +8510,10 @@
         <v>13</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>400</v>
+        <v>13</v>
       </c>
       <c r="H161" s="2">
         <v>0</v>
@@ -8490,10 +8540,10 @@
         <v>13</v>
       </c>
       <c r="F162" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="H162" s="2">
         <v>0</v>
@@ -8505,25 +8555,25 @@
     </row>
     <row r="163" spans="1:10" ht="12.75">
       <c r="A163" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B163" s="2">
         <v>8</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E163" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G163" s="2" t="s">
-        <v>13</v>
+        <v>407</v>
       </c>
       <c r="H163" s="2">
         <v>0</v>
@@ -8535,19 +8585,19 @@
     </row>
     <row r="164" spans="1:10" ht="12.75">
       <c r="A164" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B164" s="2">
         <v>8</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>13</v>
@@ -8556,30 +8606,28 @@
         <v>13</v>
       </c>
       <c r="H164" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I164" s="2">
         <v>0</v>
       </c>
-      <c r="J164" s="2">
-        <v>5</v>
-      </c>
+      <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:10" ht="12.75">
       <c r="A165" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B165" s="2">
         <v>8</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>13</v>
@@ -8588,34 +8636,36 @@
         <v>13</v>
       </c>
       <c r="H165" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I165" s="2">
         <v>0</v>
       </c>
-      <c r="J165" s="2"/>
+      <c r="J165" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="166" spans="1:10" ht="12.75">
       <c r="A166" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B166" s="2">
         <v>8</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>13</v>
+        <v>413</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>413</v>
+        <v>13</v>
       </c>
       <c r="H166" s="2">
         <v>0</v>
@@ -8639,23 +8689,21 @@
         <v>249</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>415</v>
+        <v>13</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H167" s="2">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="I167" s="2">
         <v>0</v>
       </c>
-      <c r="J167" s="2">
-        <v>5.5</v>
-      </c>
+      <c r="J167" s="2"/>
     </row>
     <row r="168" spans="1:10" ht="12.75">
       <c r="A168" s="2" t="s">
@@ -8680,13 +8728,13 @@
         <v>419</v>
       </c>
       <c r="H168" s="2">
-        <v>900</v>
+        <v>5.5</v>
       </c>
       <c r="I168" s="2">
         <v>0</v>
       </c>
       <c r="J168" s="2">
-        <v>900</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="12.75">
@@ -8706,40 +8754,42 @@
         <v>421</v>
       </c>
       <c r="F169" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="G169" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="H169" s="2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="I169" s="2">
         <v>0</v>
       </c>
-      <c r="J169" s="2"/>
+      <c r="J169" s="2">
+        <v>900</v>
+      </c>
     </row>
     <row r="170" spans="1:10" ht="12.75">
       <c r="A170" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B170" s="2">
         <v>8</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E170" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F170" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F170" s="2" t="s">
+      <c r="G170" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="H170" s="2">
         <v>0</v>
@@ -8766,10 +8816,10 @@
         <v>428</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>13</v>
+        <v>429</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H171" s="2">
         <v>0</v>
@@ -8796,20 +8846,18 @@
         <v>431</v>
       </c>
       <c r="F172" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="G172" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H172" s="2">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="I172" s="2">
-        <v>540</v>
-      </c>
-      <c r="J172" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" s="2"/>
     </row>
     <row r="173" spans="1:10" ht="12.75">
       <c r="A173" s="2" t="s">
@@ -8828,51 +8876,51 @@
         <v>434</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>13</v>
+        <v>435</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H173" s="2">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="I173" s="2">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="J173" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="12.75">
       <c r="A174" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B174" s="2">
         <v>8</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>13</v>
+        <v>437</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>437</v>
+        <v>13</v>
       </c>
       <c r="H174" s="2">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="I174" s="2">
         <v>0</v>
       </c>
       <c r="J174" s="2">
-        <v>24</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="12.75">
@@ -8889,22 +8937,22 @@
         <v>249</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>439</v>
+        <v>13</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>440</v>
       </c>
       <c r="H175" s="2">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="I175" s="2">
         <v>0</v>
       </c>
       <c r="J175" s="2">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="12.75">
@@ -8921,43 +8969,45 @@
         <v>249</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>13</v>
+        <v>442</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>13</v>
+        <v>443</v>
       </c>
       <c r="H176" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I176" s="2">
         <v>0</v>
       </c>
-      <c r="J176" s="2"/>
+      <c r="J176" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="177" spans="1:10" ht="12.75">
       <c r="A177" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B177" s="2">
         <v>8</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>444</v>
+        <v>13</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>445</v>
+        <v>13</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>446</v>
+        <v>13</v>
       </c>
       <c r="H177" s="2">
         <v>0</v>
@@ -8969,25 +9019,25 @@
     </row>
     <row r="178" spans="1:10" ht="12.75">
       <c r="A178" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B178" s="2">
         <v>8</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E178" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F178" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="F178" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G178" s="2" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="H178" s="2">
         <v>0</v>
@@ -8999,19 +9049,19 @@
     </row>
     <row r="179" spans="1:10" ht="12.75">
       <c r="A179" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B179" s="2">
         <v>8</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>13</v>
@@ -9029,81 +9079,81 @@
     </row>
     <row r="180" spans="1:10" ht="12.75">
       <c r="A180" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B180" s="2">
         <v>8</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>274</v>
+        <v>13</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H180" s="2">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="I180" s="2">
         <v>0</v>
       </c>
-      <c r="J180" s="2">
-        <v>3.2</v>
-      </c>
+      <c r="J180" s="2"/>
     </row>
     <row r="181" spans="1:10" ht="12.75">
       <c r="A181" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B181" s="2">
         <v>8</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H181" s="2">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I181" s="2">
         <v>0</v>
       </c>
-      <c r="J181" s="2"/>
+      <c r="J181" s="2">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="182" spans="1:10" ht="12.75">
       <c r="A182" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B182" s="2">
         <v>8</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>13</v>
@@ -9121,35 +9171,33 @@
     </row>
     <row r="183" spans="1:10" ht="12.75">
       <c r="A183" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B183" s="2">
         <v>8</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>277</v>
+        <v>13</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>459</v>
+        <v>13</v>
       </c>
       <c r="H183" s="2">
-        <v>8.8</v>
+        <v>0</v>
       </c>
       <c r="I183" s="2">
         <v>0</v>
       </c>
-      <c r="J183" s="2">
-        <v>8.8</v>
-      </c>
+      <c r="J183" s="2"/>
     </row>
     <row r="184" spans="1:10" ht="12.75">
       <c r="A184" s="2" t="s">
@@ -9165,37 +9213,39 @@
         <v>249</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>13</v>
+        <v>461</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>13</v>
+        <v>277</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>13</v>
+        <v>462</v>
       </c>
       <c r="H184" s="2">
-        <v>0</v>
+        <v>8.8</v>
       </c>
       <c r="I184" s="2">
         <v>0</v>
       </c>
-      <c r="J184" s="2"/>
+      <c r="J184" s="2">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="185" spans="1:10" ht="12.75">
       <c r="A185" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B185" s="2">
         <v>8</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>463</v>
+        <v>13</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>13</v>
@@ -9213,19 +9263,19 @@
     </row>
     <row r="186" spans="1:10" ht="12.75">
       <c r="A186" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B186" s="2">
         <v>8</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>13</v>
@@ -9243,51 +9293,49 @@
     </row>
     <row r="187" spans="1:10" ht="12.75">
       <c r="A187" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B187" s="2">
         <v>8</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H187" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I187" s="2">
         <v>0</v>
       </c>
-      <c r="J187" s="2">
-        <v>30</v>
-      </c>
+      <c r="J187" s="2"/>
     </row>
     <row r="188" spans="1:10" ht="12.75">
       <c r="A188" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B188" s="2">
         <v>8</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>146</v>
@@ -9296,62 +9344,62 @@
         <v>13</v>
       </c>
       <c r="H188" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I188" s="2">
         <v>0</v>
       </c>
       <c r="J188" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="12.75">
       <c r="A189" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B189" s="2">
         <v>8</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H189" s="2">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I189" s="2">
         <v>0</v>
       </c>
       <c r="J189" s="2">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="12.75">
       <c r="A190" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B190" s="2">
         <v>8</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>13</v>
@@ -9360,63 +9408,65 @@
         <v>13</v>
       </c>
       <c r="H190" s="2">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="I190" s="2">
         <v>0</v>
       </c>
       <c r="J190" s="2">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="12.75">
       <c r="A191" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B191" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>294</v>
+        <v>13</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>476</v>
+        <v>13</v>
       </c>
       <c r="H191" s="2">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I191" s="2">
         <v>0</v>
       </c>
-      <c r="J191" s="2"/>
+      <c r="J191" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="192" spans="1:10" ht="12.75">
       <c r="A192" s="2" t="s">
         <v>477</v>
       </c>
       <c r="B192" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>478</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>13</v>
+        <v>478</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>381</v>
+        <v>294</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>479</v>
@@ -9437,19 +9487,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>428</v>
+        <v>13</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>13</v>
+        <v>384</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H193" s="2">
         <v>0</v>
@@ -9461,22 +9511,22 @@
     </row>
     <row r="194" spans="1:10" ht="12.75">
       <c r="A194" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B194" s="2">
         <v>8</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>483</v>
+        <v>431</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>483</v>
+        <v>431</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>484</v>
@@ -9494,84 +9544,84 @@
         <v>485</v>
       </c>
       <c r="B195" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>486</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>486</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>294</v>
+        <v>146</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>487</v>
       </c>
       <c r="H195" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I195" s="2">
         <v>0</v>
       </c>
-      <c r="J195" s="2">
-        <v>6</v>
-      </c>
+      <c r="J195" s="2"/>
     </row>
     <row r="196" spans="1:10" ht="12.75">
       <c r="A196" s="2" t="s">
         <v>488</v>
       </c>
       <c r="B196" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>489</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>489</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>381</v>
+        <v>294</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>490</v>
       </c>
       <c r="H196" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I196" s="2">
         <v>0</v>
       </c>
-      <c r="J196" s="2"/>
+      <c r="J196" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="197" spans="1:10" ht="12.75">
       <c r="A197" s="2" t="s">
         <v>491</v>
       </c>
       <c r="B197" s="2">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>492</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="H197" s="2">
         <v>0</v>
@@ -9586,22 +9636,22 @@
         <v>494</v>
       </c>
       <c r="B198" s="2">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>428</v>
+        <v>495</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>249</v>
+        <v>496</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>428</v>
+        <v>13</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>495</v>
+        <v>13</v>
       </c>
       <c r="H198" s="2">
         <v>0</v>
@@ -9613,25 +9663,25 @@
     </row>
     <row r="199" spans="1:10" ht="12.75">
       <c r="A199" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B199" s="2">
         <v>8</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H199" s="2">
         <v>0</v>
@@ -9643,19 +9693,19 @@
     </row>
     <row r="200" spans="1:10" ht="12.75">
       <c r="A200" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B200" s="2">
         <v>8</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>499</v>
+        <v>431</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>499</v>
+        <v>431</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>13</v>
@@ -9679,19 +9729,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H201" s="2">
         <v>0</v>
@@ -9703,25 +9753,25 @@
     </row>
     <row r="202" spans="1:10" ht="12.75">
       <c r="A202" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B202" s="2">
         <v>8</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H202" s="2">
         <v>0</v>
@@ -9733,25 +9783,25 @@
     </row>
     <row r="203" spans="1:10" ht="12.75">
       <c r="A203" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B203" s="2">
         <v>8</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H203" s="2">
         <v>0</v>
@@ -9763,25 +9813,25 @@
     </row>
     <row r="204" spans="1:10" ht="12.75">
       <c r="A204" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B204" s="2">
         <v>8</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H204" s="2">
         <v>0</v>
@@ -9793,48 +9843,46 @@
     </row>
     <row r="205" spans="1:10" ht="12.75">
       <c r="A205" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B205" s="2">
         <v>8</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>510</v>
+        <v>431</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>510</v>
+        <v>431</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>13</v>
+        <v>511</v>
       </c>
       <c r="H205" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I205" s="2">
-        <v>180</v>
-      </c>
-      <c r="J205" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J205" s="2"/>
     </row>
     <row r="206" spans="1:10" ht="12.75">
       <c r="A206" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B206" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>513</v>
@@ -9846,13 +9894,13 @@
         <v>13</v>
       </c>
       <c r="H206" s="2">
-        <v>724000</v>
+        <v>180</v>
       </c>
       <c r="I206" s="2">
-        <v>362000</v>
+        <v>180</v>
       </c>
       <c r="J206" s="2">
-        <v>362000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="12.75">
@@ -9863,19 +9911,19 @@
         <v>1</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>515</v>
+        <v>431</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>13</v>
+        <v>431</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H207" s="2">
         <v>0</v>
@@ -9887,43 +9935,45 @@
     </row>
     <row r="208" spans="1:10" ht="12.75">
       <c r="A208" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B208" s="2">
+        <v>3</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B208" s="2">
-        <v>1</v>
-      </c>
-      <c r="C208" s="2" t="s">
+      <c r="D208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D208" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F208" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>519</v>
+        <v>13</v>
       </c>
       <c r="H208" s="2">
-        <v>0</v>
+        <v>1468000</v>
       </c>
       <c r="I208" s="2">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2"/>
+        <v>1106000</v>
+      </c>
+      <c r="J208" s="2">
+        <v>362000</v>
+      </c>
     </row>
     <row r="209" spans="1:10" ht="12.75">
       <c r="A209" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B209" s="2">
         <v>1</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>67</v>
@@ -9935,7 +9985,7 @@
         <v>13</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H209" s="2">
         <v>0</v>
@@ -9995,7 +10045,7 @@
         <v>13</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H211" s="2">
         <v>0</v>
@@ -10007,13 +10057,13 @@
     </row>
     <row r="212" spans="1:10" ht="12.75">
       <c r="A212" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B212" s="2">
         <v>1</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>67</v>
@@ -10025,7 +10075,7 @@
         <v>13</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>13</v>
+        <v>529</v>
       </c>
       <c r="H212" s="2">
         <v>0</v>
@@ -10055,7 +10105,7 @@
         <v>13</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>13</v>
+        <v>532</v>
       </c>
       <c r="H213" s="2">
         <v>0</v>
@@ -10067,13 +10117,13 @@
     </row>
     <row r="214" spans="1:10" ht="12.75">
       <c r="A214" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B214" s="2">
         <v>1</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>67</v>
@@ -10097,13 +10147,13 @@
     </row>
     <row r="215" spans="1:10" ht="12.75">
       <c r="A215" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B215" s="2">
         <v>1</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>67</v>
@@ -10115,7 +10165,7 @@
         <v>13</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>527</v>
+        <v>13</v>
       </c>
       <c r="H215" s="2">
         <v>0</v>
@@ -10127,13 +10177,13 @@
     </row>
     <row r="216" spans="1:10" ht="12.75">
       <c r="A216" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B216" s="2">
         <v>1</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>67</v>
@@ -10145,7 +10195,7 @@
         <v>13</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>538</v>
+        <v>13</v>
       </c>
       <c r="H216" s="2">
         <v>0</v>
@@ -10163,7 +10213,7 @@
         <v>1</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>67</v>
@@ -10175,7 +10225,7 @@
         <v>13</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="H217" s="2">
         <v>0</v>
@@ -10193,7 +10243,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>67</v>
@@ -10205,28 +10255,30 @@
         <v>13</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H218" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I218" s="2">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="J218" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="219" spans="1:10" ht="12.75">
       <c r="A219" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B219" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>13</v>
@@ -10235,7 +10287,7 @@
         <v>13</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>13</v>
+        <v>545</v>
       </c>
       <c r="H219" s="2">
         <v>0</v>
@@ -10247,55 +10299,57 @@
     </row>
     <row r="220" spans="1:10" ht="12.75">
       <c r="A220" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B220" s="2">
         <v>1</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E220" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="F220" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="H220" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I220" s="2">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J220" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="221" spans="1:10" ht="12.75">
       <c r="A221" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B221" s="2">
+        <v>8</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B221" s="2">
-        <v>1</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>550</v>
-      </c>
       <c r="D221" s="2" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>550</v>
+        <v>13</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>551</v>
+        <v>13</v>
       </c>
       <c r="H221" s="2">
         <v>0</v>
@@ -10307,25 +10361,25 @@
     </row>
     <row r="222" spans="1:10" ht="12.75">
       <c r="A222" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B222" s="2">
         <v>1</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>13</v>
+        <v>552</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>13</v>
+        <v>553</v>
       </c>
       <c r="H222" s="2">
         <v>0</v>
@@ -10343,51 +10397,49 @@
         <v>1</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>13</v>
+        <v>555</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H223" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I223" s="2">
-        <v>32</v>
-      </c>
-      <c r="J223" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J223" s="2"/>
     </row>
     <row r="224" spans="1:10" ht="12.75">
       <c r="A224" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B224" s="2">
         <v>1</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>557</v>
+        <v>13</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>558</v>
+        <v>13</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>559</v>
+        <v>13</v>
       </c>
       <c r="H224" s="2">
         <v>0</v>
@@ -10399,55 +10451,57 @@
     </row>
     <row r="225" spans="1:10" ht="12.75">
       <c r="A225" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B225" s="2">
+        <v>1</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B225" s="2">
+      <c r="H225" s="2">
         <v>52</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="H225" s="2">
-        <v>0</v>
-      </c>
       <c r="I225" s="2">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="J225" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="226" spans="1:10" ht="12.75">
       <c r="A226" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B226" s="2">
+        <v>1</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="B226" s="2">
-        <v>52</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>566</v>
       </c>
       <c r="H226" s="2">
         <v>0</v>
@@ -10459,25 +10513,25 @@
     </row>
     <row r="227" spans="1:10" ht="12.75">
       <c r="A227" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B227" s="2">
+        <v>52</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B227" s="2">
-        <v>1</v>
-      </c>
-      <c r="C227" s="2" t="s">
+      <c r="E227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="H227" s="2">
         <v>0</v>
@@ -10489,25 +10543,25 @@
     </row>
     <row r="228" spans="1:10" ht="12.75">
       <c r="A228" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B228" s="2">
+        <v>52</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B228" s="2">
-        <v>1</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="D228" s="2" t="s">
-        <v>67</v>
+        <v>567</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>13</v>
+        <v>571</v>
       </c>
       <c r="H228" s="2">
         <v>0</v>
@@ -10519,13 +10573,13 @@
     </row>
     <row r="229" spans="1:10" ht="12.75">
       <c r="A229" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B229" s="2">
         <v>1</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>67</v>
@@ -10537,7 +10591,7 @@
         <v>150</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>13</v>
+        <v>574</v>
       </c>
       <c r="H229" s="2">
         <v>0</v>
@@ -10549,16 +10603,16 @@
     </row>
     <row r="230" spans="1:10" ht="12.75">
       <c r="A230" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B230" s="2">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>574</v>
+        <v>528</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>562</v>
+        <v>67</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>13</v>
@@ -10579,13 +10633,13 @@
     </row>
     <row r="231" spans="1:10" ht="12.75">
       <c r="A231" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B231" s="2">
         <v>1</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>67</v>
@@ -10594,31 +10648,33 @@
         <v>13</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H231" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" s="2">
         <v>0</v>
       </c>
-      <c r="J231" s="2"/>
+      <c r="J231" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="232" spans="1:10" ht="12.75">
       <c r="A232" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B232" s="2">
         <v>52</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>13</v>
@@ -10639,48 +10695,46 @@
     </row>
     <row r="233" spans="1:10" ht="12.75">
       <c r="A233" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B233" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>294</v>
+        <v>13</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>581</v>
+        <v>13</v>
       </c>
       <c r="H233" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I233" s="2">
         <v>0</v>
       </c>
-      <c r="J233" s="2">
-        <v>80</v>
-      </c>
+      <c r="J233" s="2"/>
     </row>
     <row r="234" spans="1:10" ht="12.75">
       <c r="A234" s="2" t="s">
         <v>582</v>
       </c>
       <c r="B234" s="2">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>583</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>12</v>
+        <v>567</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>13</v>
@@ -10716,33 +10770,33 @@
         <v>13</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>13</v>
+        <v>294</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>13</v>
+        <v>586</v>
       </c>
       <c r="H235" s="2">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="I235" s="2">
         <v>0</v>
       </c>
       <c r="J235" s="2">
-        <v>153</v>
+        <v>80</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="12.75">
       <c r="A236" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B236" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>13</v>
@@ -10754,24 +10808,22 @@
         <v>13</v>
       </c>
       <c r="H236" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I236" s="2">
         <v>0</v>
       </c>
-      <c r="J236" s="2">
-        <v>180</v>
-      </c>
+      <c r="J236" s="2"/>
     </row>
     <row r="237" spans="1:10" ht="12.75">
       <c r="A237" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B237" s="2">
         <v>8</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>249</v>
@@ -10786,22 +10838,24 @@
         <v>13</v>
       </c>
       <c r="H237" s="2">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="I237" s="2">
         <v>0</v>
       </c>
-      <c r="J237" s="2"/>
+      <c r="J237" s="2">
+        <v>153</v>
+      </c>
     </row>
     <row r="238" spans="1:10" ht="12.75">
       <c r="A238" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B238" s="2">
         <v>8</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>249</v>
@@ -10810,31 +10864,33 @@
         <v>13</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>592</v>
+        <v>13</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H238" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I238" s="2">
         <v>0</v>
       </c>
-      <c r="J238" s="2"/>
+      <c r="J238" s="2">
+        <v>180</v>
+      </c>
     </row>
     <row r="239" spans="1:10" ht="12.75">
       <c r="A239" s="2" t="s">
         <v>593</v>
       </c>
       <c r="B239" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>594</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>13</v>
@@ -10858,19 +10914,19 @@
         <v>595</v>
       </c>
       <c r="B240" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>596</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>13</v>
+        <v>597</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>13</v>
@@ -10885,25 +10941,25 @@
     </row>
     <row r="241" spans="1:10" ht="12.75">
       <c r="A241" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B241" s="2">
         <v>3</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>598</v>
+        <v>13</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>599</v>
+        <v>13</v>
       </c>
       <c r="H241" s="2">
         <v>0</v>
@@ -10918,13 +10974,13 @@
         <v>600</v>
       </c>
       <c r="B242" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>601</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>13</v>
@@ -10957,36 +11013,34 @@
         <v>12</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>13</v>
+        <v>603</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>13</v>
+        <v>604</v>
       </c>
       <c r="H243" s="2">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="I243" s="2">
         <v>0</v>
       </c>
-      <c r="J243" s="2">
-        <v>305</v>
-      </c>
+      <c r="J243" s="2"/>
     </row>
     <row r="244" spans="1:10" ht="12.75">
       <c r="A244" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B244" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>13</v>
@@ -10998,30 +11052,30 @@
         <v>13</v>
       </c>
       <c r="H244" s="2">
-        <v>3.5</v>
+        <v>20</v>
       </c>
       <c r="I244" s="2">
         <v>0</v>
       </c>
       <c r="J244" s="2">
-        <v>3.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="12.75">
       <c r="A245" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B245" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>608</v>
+        <v>13</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>13</v>
@@ -11030,25 +11084,27 @@
         <v>13</v>
       </c>
       <c r="H245" s="2">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="I245" s="2">
         <v>0</v>
       </c>
-      <c r="J245" s="2"/>
+      <c r="J245" s="2">
+        <v>305</v>
+      </c>
     </row>
     <row r="246" spans="1:10" ht="12.75">
       <c r="A246" s="2" t="s">
         <v>609</v>
       </c>
       <c r="B246" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>13</v>
@@ -11060,12 +11116,14 @@
         <v>13</v>
       </c>
       <c r="H246" s="2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I246" s="2">
         <v>0</v>
       </c>
-      <c r="J246" s="2"/>
+      <c r="J246" s="2">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="247" spans="1:10" ht="12.75">
       <c r="A247" s="2" t="s">
@@ -11081,7 +11139,7 @@
         <v>249</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>13</v>
+        <v>613</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>13</v>
@@ -11090,22 +11148,24 @@
         <v>13</v>
       </c>
       <c r="H247" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I247" s="2">
-        <v>0</v>
-      </c>
-      <c r="J247" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J247" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="248" spans="1:10" ht="12.75">
       <c r="A248" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B248" s="2">
         <v>8</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>249</v>
@@ -11129,13 +11189,13 @@
     </row>
     <row r="249" spans="1:10" ht="12.75">
       <c r="A249" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B249" s="2">
         <v>8</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>249</v>
@@ -11159,16 +11219,16 @@
     </row>
     <row r="250" spans="1:10" ht="12.75">
       <c r="A250" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B250" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>13</v>
@@ -11180,27 +11240,25 @@
         <v>13</v>
       </c>
       <c r="H250" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I250" s="2">
-        <v>200</v>
-      </c>
-      <c r="J250" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J250" s="2"/>
     </row>
     <row r="251" spans="1:10" ht="12.75">
       <c r="A251" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B251" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>13</v>
@@ -11212,27 +11270,25 @@
         <v>13</v>
       </c>
       <c r="H251" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I251" s="2">
         <v>0</v>
       </c>
-      <c r="J251" s="2">
-        <v>100</v>
-      </c>
+      <c r="J251" s="2"/>
     </row>
     <row r="252" spans="1:10" ht="12.75">
       <c r="A252" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B252" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>13</v>
@@ -11244,22 +11300,24 @@
         <v>13</v>
       </c>
       <c r="H252" s="2">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="I252" s="2">
-        <v>0</v>
-      </c>
-      <c r="J252" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="J252" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="1:10" ht="12.75">
       <c r="A253" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B253" s="2">
         <v>3</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>12</v>
@@ -11274,24 +11332,24 @@
         <v>13</v>
       </c>
       <c r="H253" s="2">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="I253" s="2">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="J253" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="12.75">
       <c r="A254" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B254" s="2">
         <v>8</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>249</v>
@@ -11315,16 +11373,16 @@
     </row>
     <row r="255" spans="1:10" ht="12.75">
       <c r="A255" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B255" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>13</v>
@@ -11333,28 +11391,30 @@
         <v>13</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>629</v>
+        <v>13</v>
       </c>
       <c r="H255" s="2">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="I255" s="2">
-        <v>0</v>
-      </c>
-      <c r="J255" s="2"/>
+        <v>630</v>
+      </c>
+      <c r="J255" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="256" spans="1:10" ht="12.75">
       <c r="A256" s="2" t="s">
         <v>630</v>
       </c>
       <c r="B256" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>631</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>13</v>
@@ -11366,12 +11426,14 @@
         <v>13</v>
       </c>
       <c r="H256" s="2">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="I256" s="2">
-        <v>0</v>
-      </c>
-      <c r="J256" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="J256" s="2">
+        <v>220</v>
+      </c>
     </row>
     <row r="257" spans="1:10" ht="12.75">
       <c r="A257" s="2" t="s">
@@ -11393,7 +11455,7 @@
         <v>13</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>13</v>
+        <v>634</v>
       </c>
       <c r="H257" s="2">
         <v>0</v>
@@ -11405,16 +11467,16 @@
     </row>
     <row r="258" spans="1:10" ht="12.75">
       <c r="A258" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B258" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>13</v>
@@ -11426,22 +11488,24 @@
         <v>13</v>
       </c>
       <c r="H258" s="2">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I258" s="2">
-        <v>0</v>
-      </c>
-      <c r="J258" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="J258" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="259" spans="1:10" ht="12.75">
       <c r="A259" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B259" s="2">
         <v>8</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>249</v>
@@ -11465,16 +11529,16 @@
     </row>
     <row r="260" spans="1:10" ht="12.75">
       <c r="A260" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B260" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>13</v>
@@ -11495,16 +11559,16 @@
     </row>
     <row r="261" spans="1:10" ht="12.75">
       <c r="A261" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B261" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>13</v>
@@ -11525,16 +11589,16 @@
     </row>
     <row r="262" spans="1:10" ht="12.75">
       <c r="A262" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B262" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>13</v>
@@ -11555,16 +11619,16 @@
     </row>
     <row r="263" spans="1:10" ht="12.75">
       <c r="A263" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B263" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>13</v>
@@ -11576,10 +11640,10 @@
         <v>13</v>
       </c>
       <c r="H263" s="2">
-        <v>2000</v>
+        <v>320</v>
       </c>
       <c r="I263" s="2">
-        <v>2000</v>
+        <v>320</v>
       </c>
       <c r="J263" s="2">
         <v>0</v>
@@ -11587,13 +11651,13 @@
     </row>
     <row r="264" spans="1:10" ht="12.75">
       <c r="A264" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B264" s="2">
         <v>8</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>249</v>
@@ -11617,16 +11681,16 @@
     </row>
     <row r="265" spans="1:10" ht="12.75">
       <c r="A265" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B265" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>13</v>
@@ -11638,28 +11702,30 @@
         <v>13</v>
       </c>
       <c r="H265" s="2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I265" s="2">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2"/>
+        <v>2000</v>
+      </c>
+      <c r="J265" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="1:10" ht="12.75">
       <c r="A266" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B266" s="2">
         <v>8</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>652</v>
+        <v>13</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>13</v>
@@ -11698,30 +11764,28 @@
         <v>13</v>
       </c>
       <c r="H267" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I267" s="2">
         <v>0</v>
       </c>
-      <c r="J267" s="2">
-        <v>20</v>
-      </c>
+      <c r="J267" s="2"/>
     </row>
     <row r="268" spans="1:10" ht="12.75">
       <c r="A268" s="2" t="s">
         <v>655</v>
       </c>
       <c r="B268" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>656</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>13</v>
+        <v>657</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>13</v>
@@ -11730,27 +11794,27 @@
         <v>13</v>
       </c>
       <c r="H268" s="2">
-        <v>3830</v>
+        <v>8</v>
       </c>
       <c r="I268" s="2">
         <v>0</v>
       </c>
       <c r="J268" s="2">
-        <v>3830</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="12.75">
       <c r="A269" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B269" s="2">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>659</v>
+        <v>12</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>13</v>
@@ -11762,25 +11826,27 @@
         <v>13</v>
       </c>
       <c r="H269" s="2">
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="I269" s="2">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="J269" s="2">
+        <v>461</v>
+      </c>
     </row>
     <row r="270" spans="1:10" ht="12.75">
       <c r="A270" s="2" t="s">
         <v>660</v>
       </c>
       <c r="B270" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>607</v>
+        <v>661</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>13</v>
@@ -11792,27 +11858,27 @@
         <v>13</v>
       </c>
       <c r="H270" s="2">
-        <v>420</v>
+        <v>3830</v>
       </c>
       <c r="I270" s="2">
-        <v>392</v>
+        <v>3830</v>
       </c>
       <c r="J270" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="12.75">
       <c r="A271" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B271" s="2">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>12</v>
+        <v>664</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>13</v>
@@ -11824,28 +11890,30 @@
         <v>13</v>
       </c>
       <c r="H271" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I271" s="2">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="J271" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="272" spans="1:10" ht="12.75">
       <c r="A272" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B272" s="2">
         <v>8</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>665</v>
+        <v>13</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>13</v>
@@ -11854,12 +11922,14 @@
         <v>13</v>
       </c>
       <c r="H272" s="2">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="I272" s="2">
-        <v>0</v>
-      </c>
-      <c r="J272" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="J272" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="273" spans="1:10" ht="12.75">
       <c r="A273" s="2" t="s">
@@ -11875,7 +11945,7 @@
         <v>12</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>668</v>
+        <v>13</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>13</v>
@@ -11893,20 +11963,20 @@
     </row>
     <row r="274" spans="1:10" ht="12.75">
       <c r="A274" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B274" s="2">
+        <v>8</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B274" s="2">
-        <v>3</v>
-      </c>
-      <c r="C274" s="2" t="s">
+      <c r="D274" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="D274" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>671</v>
-      </c>
       <c r="F274" s="2" t="s">
         <v>13</v>
       </c>
@@ -11914,29 +11984,31 @@
         <v>13</v>
       </c>
       <c r="H274" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I274" s="2">
-        <v>0</v>
-      </c>
-      <c r="J274" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="J274" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="275" spans="1:10" ht="12.75">
       <c r="A275" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B275" s="2">
+        <v>3</v>
+      </c>
+      <c r="C275" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B275" s="2">
-        <v>8</v>
-      </c>
-      <c r="C275" s="2" t="s">
+      <c r="D275" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="D275" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F275" s="2" t="s">
         <v>13</v>
       </c>
@@ -11944,30 +12016,28 @@
         <v>13</v>
       </c>
       <c r="H275" s="2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I275" s="2">
-        <v>350</v>
-      </c>
-      <c r="J275" s="2">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J275" s="2"/>
     </row>
     <row r="276" spans="1:10" ht="12.75">
       <c r="A276" s="2" t="s">
         <v>674</v>
       </c>
       <c r="B276" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>675</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>13</v>
+        <v>676</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>13</v>
@@ -11985,34 +12055,34 @@
     </row>
     <row r="277" spans="1:10" ht="12.75">
       <c r="A277" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B277" s="2">
         <v>8</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>677</v>
+        <v>13</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>678</v>
+        <v>13</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H277" s="2">
-        <v>13.5</v>
+        <v>1110</v>
       </c>
       <c r="I277" s="2">
-        <v>0</v>
+        <v>1060</v>
       </c>
       <c r="J277" s="2">
-        <v>13.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="12.75">
@@ -12038,12 +12108,14 @@
         <v>13</v>
       </c>
       <c r="H278" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I278" s="2">
         <v>0</v>
       </c>
-      <c r="J278" s="2"/>
+      <c r="J278" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="279" spans="1:10" ht="12.75">
       <c r="A279" s="2" t="s">
@@ -12059,31 +12131,33 @@
         <v>249</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>13</v>
+        <v>682</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>13</v>
+        <v>683</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H279" s="2">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="I279" s="2">
         <v>0</v>
       </c>
-      <c r="J279" s="2"/>
+      <c r="J279" s="2">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="280" spans="1:10" ht="12.75">
       <c r="A280" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B280" s="2">
         <v>8</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>249</v>
@@ -12098,22 +12172,24 @@
         <v>13</v>
       </c>
       <c r="H280" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I280" s="2">
-        <v>0</v>
-      </c>
-      <c r="J280" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="J280" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="281" spans="1:10" ht="12.75">
       <c r="A281" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B281" s="2">
         <v>8</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>249</v>
@@ -12137,13 +12213,13 @@
     </row>
     <row r="282" spans="1:10" ht="12.75">
       <c r="A282" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B282" s="2">
         <v>8</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>249</v>
@@ -12167,13 +12243,13 @@
     </row>
     <row r="283" spans="1:10" ht="12.75">
       <c r="A283" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B283" s="2">
         <v>8</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>249</v>
@@ -12185,7 +12261,7 @@
         <v>13</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>691</v>
+        <v>13</v>
       </c>
       <c r="H283" s="2">
         <v>0</v>
@@ -12203,7 +12279,7 @@
         <v>8</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>249</v>
@@ -12215,7 +12291,7 @@
         <v>13</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>693</v>
+        <v>13</v>
       </c>
       <c r="H284" s="2">
         <v>0</v>
@@ -12245,7 +12321,7 @@
         <v>13</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>13</v>
+        <v>696</v>
       </c>
       <c r="H285" s="2">
         <v>0</v>
@@ -12257,13 +12333,13 @@
     </row>
     <row r="286" spans="1:10" ht="12.75">
       <c r="A286" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B286" s="2">
         <v>8</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>249</v>
@@ -12275,7 +12351,7 @@
         <v>13</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>13</v>
+        <v>698</v>
       </c>
       <c r="H286" s="2">
         <v>0</v>
@@ -12287,13 +12363,13 @@
     </row>
     <row r="287" spans="1:10" ht="12.75">
       <c r="A287" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B287" s="2">
         <v>8</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>249</v>
@@ -12317,19 +12393,19 @@
     </row>
     <row r="288" spans="1:10" ht="12.75">
       <c r="A288" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B288" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>701</v>
+        <v>13</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>13</v>
@@ -12338,28 +12414,30 @@
         <v>13</v>
       </c>
       <c r="H288" s="2">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="I288" s="2">
-        <v>0</v>
-      </c>
-      <c r="J288" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="J288" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="289" spans="1:10" ht="12.75">
       <c r="A289" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B289" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>703</v>
+        <v>13</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>13</v>
@@ -12368,28 +12446,30 @@
         <v>13</v>
       </c>
       <c r="H289" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I289" s="2">
-        <v>0</v>
-      </c>
-      <c r="J289" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="J289" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="290" spans="1:10" ht="12.75">
       <c r="A290" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B290" s="2">
         <v>1</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>13</v>
@@ -12407,19 +12487,19 @@
     </row>
     <row r="291" spans="1:10" ht="12.75">
       <c r="A291" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B291" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>13</v>
+        <v>708</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>13</v>
@@ -12437,19 +12517,19 @@
     </row>
     <row r="292" spans="1:10" ht="12.75">
       <c r="A292" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B292" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>13</v>
+        <v>710</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>13</v>
@@ -12458,24 +12538,22 @@
         <v>13</v>
       </c>
       <c r="H292" s="2">
-        <v>982</v>
+        <v>0</v>
       </c>
       <c r="I292" s="2">
-        <v>980</v>
-      </c>
-      <c r="J292" s="2">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J292" s="2"/>
     </row>
     <row r="293" spans="1:10" ht="12.75">
       <c r="A293" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B293" s="2">
         <v>8</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>249</v>
@@ -12499,13 +12577,13 @@
     </row>
     <row r="294" spans="1:10" ht="12.75">
       <c r="A294" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B294" s="2">
         <v>8</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>249</v>
@@ -12520,25 +12598,27 @@
         <v>13</v>
       </c>
       <c r="H294" s="2">
-        <v>0</v>
+        <v>1502</v>
       </c>
       <c r="I294" s="2">
-        <v>0</v>
-      </c>
-      <c r="J294" s="2"/>
+        <v>1182</v>
+      </c>
+      <c r="J294" s="2">
+        <v>320</v>
+      </c>
     </row>
     <row r="295" spans="1:10" ht="12.75">
       <c r="A295" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B295" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>13</v>
@@ -12547,7 +12627,7 @@
         <v>13</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>716</v>
+        <v>13</v>
       </c>
       <c r="H295" s="2">
         <v>0</v>
@@ -12580,27 +12660,25 @@
         <v>13</v>
       </c>
       <c r="H296" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I296" s="2">
-        <v>12</v>
-      </c>
-      <c r="J296" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J296" s="2"/>
     </row>
     <row r="297" spans="1:10" ht="12.75">
       <c r="A297" s="2" t="s">
         <v>719</v>
       </c>
       <c r="B297" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>720</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>13</v>
@@ -12609,60 +12687,60 @@
         <v>13</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>13</v>
+        <v>721</v>
       </c>
       <c r="H297" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I297" s="2">
-        <v>40</v>
-      </c>
-      <c r="J297" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J297" s="2"/>
     </row>
     <row r="298" spans="1:10" ht="12.75">
       <c r="A298" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B298" s="2">
         <v>8</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>723</v>
+        <v>13</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>724</v>
+        <v>13</v>
       </c>
       <c r="H298" s="2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I298" s="2">
-        <v>0</v>
-      </c>
-      <c r="J298" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="J298" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="299" spans="1:10" ht="12.75">
       <c r="A299" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B299" s="2">
+        <v>8</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="B299" s="2">
-        <v>1</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>726</v>
-      </c>
       <c r="D299" s="2" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>13</v>
@@ -12674,27 +12752,27 @@
         <v>13</v>
       </c>
       <c r="H299" s="2">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="I299" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J299" s="2">
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:10" ht="12.75">
       <c r="A300" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B300" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>728</v>
+        <v>111</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>13</v>
@@ -12706,36 +12784,36 @@
         <v>13</v>
       </c>
       <c r="H300" s="2">
-        <v>106.5</v>
+        <v>64</v>
       </c>
       <c r="I300" s="2">
         <v>0</v>
       </c>
       <c r="J300" s="2">
-        <v>106.5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="12.75">
       <c r="A301" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B301" s="2">
+        <v>8</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E301" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B301" s="2">
-        <v>1</v>
-      </c>
-      <c r="C301" s="2" t="s">
+      <c r="F301" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G301" s="2" t="s">
         <v>730</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G301" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="H301" s="2">
         <v>0</v>
@@ -12750,40 +12828,42 @@
         <v>731</v>
       </c>
       <c r="B302" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>732</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>733</v>
+        <v>67</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>734</v>
+        <v>13</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>735</v>
+        <v>13</v>
       </c>
       <c r="H302" s="2">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="I302" s="2">
         <v>0</v>
       </c>
-      <c r="J302" s="2"/>
+      <c r="J302" s="2">
+        <v>118</v>
+      </c>
     </row>
     <row r="303" spans="1:10" ht="12.75">
       <c r="A303" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B303" s="2">
         <v>8</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>249</v>
@@ -12795,37 +12875,39 @@
         <v>13</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>738</v>
+        <v>13</v>
       </c>
       <c r="H303" s="2">
-        <v>0</v>
+        <v>121.5</v>
       </c>
       <c r="I303" s="2">
-        <v>0</v>
-      </c>
-      <c r="J303" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="J303" s="2">
+        <v>106.5</v>
+      </c>
     </row>
     <row r="304" spans="1:10" ht="12.75">
       <c r="A304" s="2" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B304" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>741</v>
+        <v>67</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>740</v>
+        <v>13</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>742</v>
+        <v>13</v>
       </c>
       <c r="H304" s="2">
         <v>0</v>
@@ -12837,25 +12919,25 @@
     </row>
     <row r="305" spans="1:10" ht="12.75">
       <c r="A305" s="2" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B305" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>67</v>
+        <v>739</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>13</v>
+        <v>740</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H305" s="2">
         <v>0</v>
@@ -12867,16 +12949,16 @@
     </row>
     <row r="306" spans="1:10" ht="12.75">
       <c r="A306" s="2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B306" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>637</v>
+        <v>743</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>13</v>
@@ -12885,7 +12967,7 @@
         <v>13</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H306" s="2">
         <v>0</v>
@@ -12897,25 +12979,25 @@
     </row>
     <row r="307" spans="1:10" ht="12.75">
       <c r="A307" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B307" s="2">
+        <v>6</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G307" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="B307" s="2">
-        <v>8</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G307" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="H307" s="2">
         <v>0</v>
@@ -12927,13 +13009,13 @@
     </row>
     <row r="308" spans="1:10" ht="12.75">
       <c r="A308" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B308" s="2">
         <v>1</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>67</v>
@@ -12945,25 +13027,27 @@
         <v>13</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>13</v>
+        <v>751</v>
       </c>
       <c r="H308" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I308" s="2">
-        <v>0</v>
-      </c>
-      <c r="J308" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="J308" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="309" spans="1:10" ht="12.75">
       <c r="A309" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B309" s="2">
         <v>1</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>730</v>
+        <v>642</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>67</v>
@@ -12975,60 +13059,62 @@
         <v>13</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H309" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I309" s="2">
-        <v>0</v>
-      </c>
-      <c r="J309" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="J309" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="310" spans="1:10" ht="12.75">
       <c r="A310" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B310" s="2">
+        <v>8</v>
+      </c>
+      <c r="C310" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="B310" s="2">
-        <v>4</v>
-      </c>
-      <c r="C310" s="2" t="s">
+      <c r="D310" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G310" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="D310" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>759</v>
-      </c>
       <c r="H310" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I310" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J310" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:10" ht="12.75">
       <c r="A311" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B311" s="2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>762</v>
+        <v>67</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>13</v>
@@ -13040,102 +13126,104 @@
         <v>13</v>
       </c>
       <c r="H311" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I311" s="2">
-        <v>12</v>
-      </c>
-      <c r="J311" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J311" s="2"/>
     </row>
     <row r="312" spans="1:10" ht="12.75">
       <c r="A312" s="2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B312" s="2">
         <v>1</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>765</v>
+        <v>13</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="H312" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I312" s="2">
         <v>0</v>
       </c>
-      <c r="J312" s="2"/>
+      <c r="J312" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="313" spans="1:10" ht="12.75">
       <c r="A313" s="2" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B313" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C313" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F313" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="D313" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F313" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G313" s="2" t="s">
-        <v>13</v>
+        <v>765</v>
       </c>
       <c r="H313" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I313" s="2">
         <v>0</v>
       </c>
-      <c r="J313" s="2"/>
+      <c r="J313" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="314" spans="1:10" ht="12.75">
       <c r="A314" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B314" s="2">
+        <v>26</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D314" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B314" s="2">
-        <v>1</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E314" s="2" t="s">
-        <v>769</v>
+        <v>13</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>769</v>
+        <v>13</v>
       </c>
       <c r="H314" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I314" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J314" s="2">
         <v>0</v>
@@ -13143,25 +13231,25 @@
     </row>
     <row r="315" spans="1:10" ht="12.75">
       <c r="A315" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B315" s="2">
         <v>1</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>13</v>
+        <v>771</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>13</v>
+        <v>772</v>
       </c>
       <c r="H315" s="2">
         <v>0</v>
@@ -13173,75 +13261,75 @@
     </row>
     <row r="316" spans="1:10" ht="12.75">
       <c r="A316" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B316" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>757</v>
+        <v>67</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>774</v>
+        <v>13</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>775</v>
+        <v>13</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>776</v>
+        <v>13</v>
       </c>
       <c r="H316" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" s="2">
-        <v>2</v>
-      </c>
-      <c r="J316" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J316" s="2"/>
     </row>
     <row r="317" spans="1:10" ht="12.75">
       <c r="A317" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B317" s="2">
+        <v>1</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="H317" s="2">
         <v>8</v>
       </c>
-      <c r="C317" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E317" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F317" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G317" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H317" s="2">
-        <v>0</v>
-      </c>
       <c r="I317" s="2">
-        <v>0</v>
-      </c>
-      <c r="J317" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="J317" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="318" spans="1:10" ht="12.75">
       <c r="A318" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B318" s="2">
         <v>1</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>67</v>
@@ -13253,7 +13341,7 @@
         <v>13</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>781</v>
+        <v>13</v>
       </c>
       <c r="H318" s="2">
         <v>0</v>
@@ -13265,55 +13353,57 @@
     </row>
     <row r="319" spans="1:10" ht="12.75">
       <c r="A319" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B319" s="2">
+        <v>4</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="G319" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="B319" s="2">
-        <v>1</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E319" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="F319" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G319" s="2" t="s">
-        <v>784</v>
-      </c>
       <c r="H319" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I319" s="2">
-        <v>0</v>
-      </c>
-      <c r="J319" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="J319" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="320" spans="1:10" ht="12.75">
       <c r="A320" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B320" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>783</v>
+        <v>13</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>786</v>
+        <v>13</v>
       </c>
       <c r="H320" s="2">
         <v>0</v>
@@ -13325,25 +13415,25 @@
     </row>
     <row r="321" spans="1:10" ht="12.75">
       <c r="A321" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B321" s="2">
         <v>1</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>783</v>
+        <v>13</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H321" s="2">
         <v>0</v>
@@ -13355,19 +13445,19 @@
     </row>
     <row r="322" spans="1:10" ht="12.75">
       <c r="A322" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B322" s="2">
         <v>1</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>13</v>
@@ -13391,13 +13481,13 @@
         <v>1</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>13</v>
@@ -13421,19 +13511,19 @@
         <v>1</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>13</v>
+        <v>789</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>13</v>
+        <v>794</v>
       </c>
       <c r="H324" s="2">
         <v>0</v>
@@ -13451,19 +13541,19 @@
         <v>1</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>13</v>
+        <v>789</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>13</v>
+        <v>796</v>
       </c>
       <c r="H325" s="2">
         <v>0</v>
@@ -13478,22 +13568,22 @@
         <v>797</v>
       </c>
       <c r="B326" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C326" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G326" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E326" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F326" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G326" s="2" t="s">
-        <v>799</v>
       </c>
       <c r="H326" s="2">
         <v>0</v>
@@ -13505,16 +13595,16 @@
     </row>
     <row r="327" spans="1:10" ht="12.75">
       <c r="A327" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B327" s="2">
+        <v>1</v>
+      </c>
+      <c r="C327" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="B327" s="2">
-        <v>8</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>798</v>
-      </c>
       <c r="D327" s="2" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>13</v>
@@ -13523,7 +13613,7 @@
         <v>13</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H327" s="2">
         <v>0</v>
@@ -13535,16 +13625,16 @@
     </row>
     <row r="328" spans="1:10" ht="12.75">
       <c r="A328" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B328" s="2">
+        <v>1</v>
+      </c>
+      <c r="C328" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="B328" s="2">
-        <v>8</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>803</v>
-      </c>
       <c r="D328" s="2" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>13</v>
@@ -13556,27 +13646,25 @@
         <v>13</v>
       </c>
       <c r="H328" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" s="2">
         <v>0</v>
       </c>
-      <c r="J328" s="2">
-        <v>3</v>
-      </c>
+      <c r="J328" s="2"/>
     </row>
     <row r="329" spans="1:10" ht="12.75">
       <c r="A329" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B329" s="2">
+        <v>8</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="B329" s="2">
-        <v>1</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>780</v>
-      </c>
       <c r="D329" s="2" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>13</v>
@@ -13603,243 +13691,239 @@
         <v>8</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E330" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G330" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="F330" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G330" s="2" t="s">
-        <v>808</v>
-      </c>
       <c r="H330" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I330" s="2">
         <v>0</v>
       </c>
-      <c r="J330" s="2">
-        <v>25</v>
-      </c>
+      <c r="J330" s="2"/>
     </row>
     <row r="331" spans="1:10" ht="12.75">
       <c r="A331" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B331" s="2">
         <v>8</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>810</v>
+        <v>13</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>811</v>
+        <v>13</v>
       </c>
       <c r="H331" s="2">
-        <v>34</v>
+        <v>4.2</v>
       </c>
       <c r="I331" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J331" s="2">
-        <v>34</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="332" spans="1:10" ht="12.75">
       <c r="A332" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B332" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>813</v>
+        <v>786</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>813</v>
+        <v>13</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="H332" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I332" s="2">
         <v>0</v>
       </c>
-      <c r="J332" s="2">
-        <v>10</v>
-      </c>
+      <c r="J332" s="2"/>
     </row>
     <row r="333" spans="1:10" ht="12.75">
       <c r="A333" s="2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B333" s="2">
         <v>8</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="H333" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I333" s="2">
         <v>0</v>
       </c>
       <c r="J333" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="334" spans="1:10" ht="12.75">
       <c r="A334" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B334" s="2">
         <v>8</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="H334" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I334" s="2">
         <v>0</v>
       </c>
       <c r="J334" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="335" spans="1:10" ht="12.75">
       <c r="A335" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B335" s="2">
         <v>8</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="H335" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I335" s="2">
         <v>0</v>
       </c>
       <c r="J335" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="12.75">
       <c r="A336" s="2" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B336" s="2">
         <v>8</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="H336" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I336" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J336" s="2">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="337" spans="1:10" ht="12.75">
       <c r="A337" s="2" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B337" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>829</v>
+        <v>249</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="H337" s="2">
         <v>30</v>
@@ -13853,140 +13937,144 @@
     </row>
     <row r="338" spans="1:10" ht="12.75">
       <c r="A338" s="2" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B338" s="2">
         <v>8</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="H338" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I338" s="2">
         <v>0</v>
       </c>
       <c r="J338" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="339" spans="1:10" ht="12.75">
       <c r="A339" s="2" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B339" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>13</v>
+        <v>831</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>13</v>
+        <v>832</v>
       </c>
       <c r="H339" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I339" s="2">
         <v>0</v>
       </c>
-      <c r="J339" s="2"/>
+      <c r="J339" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="340" spans="1:10" ht="12.75">
       <c r="A340" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B340" s="2">
+        <v>12</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G340" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="B340" s="2">
-        <v>1</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E340" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="F340" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G340" s="2" t="s">
-        <v>839</v>
-      </c>
       <c r="H340" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I340" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J340" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="341" spans="1:10" ht="12.75">
       <c r="A341" s="2" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B341" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>13</v>
+        <v>838</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="H341" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I341" s="2">
         <v>0</v>
       </c>
-      <c r="J341" s="2"/>
+      <c r="J341" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="342" spans="1:10" ht="12.75">
       <c r="A342" s="2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B342" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>841</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>13</v>
@@ -13995,7 +14083,7 @@
         <v>13</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>844</v>
+        <v>13</v>
       </c>
       <c r="H342" s="2">
         <v>0</v>
@@ -14007,55 +14095,57 @@
     </row>
     <row r="343" spans="1:10" ht="12.75">
       <c r="A343" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B343" s="2">
+        <v>1</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G343" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="B343" s="2">
-        <v>8</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E343" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F343" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G343" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H343" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I343" s="2">
-        <v>0</v>
-      </c>
-      <c r="J343" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="J343" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="344" spans="1:10" ht="12.75">
       <c r="A344" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B344" s="2">
+        <v>1</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="B344" s="2">
-        <v>12</v>
-      </c>
-      <c r="C344" s="2" t="s">
+      <c r="D344" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G344" s="2" t="s">
         <v>848</v>
-      </c>
-      <c r="D344" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="E344" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="F344" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G344" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="H344" s="2">
         <v>0</v>
@@ -14070,22 +14160,22 @@
         <v>849</v>
       </c>
       <c r="B345" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C345" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G345" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="D345" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E345" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="F345" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G345" s="2" t="s">
-        <v>851</v>
       </c>
       <c r="H345" s="2">
         <v>0</v>
@@ -14097,25 +14187,25 @@
     </row>
     <row r="346" spans="1:10" ht="12.75">
       <c r="A346" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B346" s="2">
+        <v>8</v>
+      </c>
+      <c r="C346" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="B346" s="2">
-        <v>3</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>853</v>
-      </c>
       <c r="D346" s="2" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>853</v>
+        <v>13</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>854</v>
+        <v>13</v>
       </c>
       <c r="H346" s="2">
         <v>0</v>
@@ -14127,25 +14217,25 @@
     </row>
     <row r="347" spans="1:10" ht="12.75">
       <c r="A347" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B347" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>744</v>
+        <v>854</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>67</v>
+        <v>835</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>13</v>
+        <v>854</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>856</v>
+        <v>13</v>
       </c>
       <c r="H347" s="2">
         <v>0</v>
@@ -14157,25 +14247,25 @@
     </row>
     <row r="348" spans="1:10" ht="12.75">
       <c r="A348" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B348" s="2">
+        <v>3</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G348" s="2" t="s">
         <v>857</v>
-      </c>
-      <c r="B348" s="2">
-        <v>3</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="D348" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E348" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="F348" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G348" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="H348" s="2">
         <v>0</v>
@@ -14187,25 +14277,25 @@
     </row>
     <row r="349" spans="1:10" ht="12.75">
       <c r="A349" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B349" s="2">
+        <v>3</v>
+      </c>
+      <c r="C349" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="B349" s="2">
-        <v>3</v>
-      </c>
-      <c r="C349" s="2" t="s">
+      <c r="D349" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G349" s="2" t="s">
         <v>860</v>
-      </c>
-      <c r="D349" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E349" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F349" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G349" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="H349" s="2">
         <v>0</v>
@@ -14223,7 +14313,7 @@
         <v>1</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>862</v>
+        <v>750</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>67</v>
@@ -14235,7 +14325,7 @@
         <v>13</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>13</v>
+        <v>862</v>
       </c>
       <c r="H350" s="2">
         <v>0</v>
@@ -14250,16 +14340,16 @@
         <v>863</v>
       </c>
       <c r="B351" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>864</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>13</v>
+        <v>864</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>13</v>
@@ -14280,16 +14370,16 @@
         <v>865</v>
       </c>
       <c r="B352" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>866</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>866</v>
+        <v>13</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>13</v>
@@ -14355,7 +14445,7 @@
         <v>13</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>871</v>
+        <v>13</v>
       </c>
       <c r="H354" s="2">
         <v>0</v>
@@ -14367,19 +14457,19 @@
     </row>
     <row r="355" spans="1:10" ht="12.75">
       <c r="A355" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B355" s="2">
         <v>1</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>13</v>
+        <v>872</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>13</v>
@@ -14397,25 +14487,25 @@
     </row>
     <row r="356" spans="1:10" ht="12.75">
       <c r="A356" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B356" s="2">
+        <v>1</v>
+      </c>
+      <c r="C356" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="B356" s="2">
-        <v>3</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>744</v>
-      </c>
       <c r="D356" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>294</v>
+        <v>13</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>875</v>
+        <v>13</v>
       </c>
       <c r="H356" s="2">
         <v>0</v>
@@ -14427,45 +14517,43 @@
     </row>
     <row r="357" spans="1:10" ht="12.75">
       <c r="A357" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B357" s="2">
         <v>1</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E357" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G357" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="F357" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G357" s="2" t="s">
-        <v>878</v>
-      </c>
       <c r="H357" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I357" s="2">
         <v>0</v>
       </c>
-      <c r="J357" s="2">
-        <v>75</v>
-      </c>
+      <c r="J357" s="2"/>
     </row>
     <row r="358" spans="1:10" ht="12.75">
       <c r="A358" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B358" s="2">
         <v>1</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>67</v>
@@ -14489,25 +14577,25 @@
     </row>
     <row r="359" spans="1:10" ht="12.75">
       <c r="A359" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B359" s="2">
+        <v>3</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G359" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="B359" s="2">
-        <v>1</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E359" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F359" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G359" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="H359" s="2">
         <v>0</v>
@@ -14519,55 +14607,57 @@
     </row>
     <row r="360" spans="1:10" ht="12.75">
       <c r="A360" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B360" s="2">
         <v>1</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>13</v>
+        <v>883</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>13</v>
+        <v>311</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H360" s="2">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I360" s="2">
         <v>0</v>
       </c>
-      <c r="J360" s="2"/>
+      <c r="J360" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="361" spans="1:10" ht="12.75">
       <c r="A361" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B361" s="2">
+        <v>1</v>
+      </c>
+      <c r="C361" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="B361" s="2">
-        <v>31</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>887</v>
-      </c>
       <c r="D361" s="2" t="s">
-        <v>659</v>
+        <v>67</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>887</v>
+        <v>13</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>294</v>
+        <v>13</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>888</v>
+        <v>13</v>
       </c>
       <c r="H361" s="2">
         <v>0</v>
@@ -14579,25 +14669,25 @@
     </row>
     <row r="362" spans="1:10" ht="12.75">
       <c r="A362" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B362" s="2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>659</v>
+        <v>67</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>890</v>
+        <v>13</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>294</v>
+        <v>13</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>891</v>
+        <v>13</v>
       </c>
       <c r="H362" s="2">
         <v>0</v>
@@ -14609,25 +14699,25 @@
     </row>
     <row r="363" spans="1:10" ht="12.75">
       <c r="A363" s="2" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B363" s="2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>890</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>659</v>
+        <v>67</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>890</v>
+        <v>13</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>294</v>
+        <v>13</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H363" s="2">
         <v>0</v>
@@ -14639,25 +14729,25 @@
     </row>
     <row r="364" spans="1:10" ht="12.75">
       <c r="A364" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B364" s="2">
         <v>31</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H364" s="2">
         <v>0</v>
@@ -14669,25 +14759,25 @@
     </row>
     <row r="365" spans="1:10" ht="12.75">
       <c r="A365" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B365" s="2">
         <v>31</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>294</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H365" s="2">
         <v>0</v>
@@ -14699,25 +14789,25 @@
     </row>
     <row r="366" spans="1:10" ht="12.75">
       <c r="A366" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B366" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>249</v>
+        <v>664</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>13</v>
+        <v>896</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>13</v>
+        <v>294</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>13</v>
+        <v>899</v>
       </c>
       <c r="H366" s="2">
         <v>0</v>
@@ -14729,25 +14819,25 @@
     </row>
     <row r="367" spans="1:10" ht="12.75">
       <c r="A367" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B367" s="2">
+        <v>31</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G367" s="2" t="s">
         <v>902</v>
-      </c>
-      <c r="B367" s="2">
-        <v>1</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="D367" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E367" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F367" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G367" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="H367" s="2">
         <v>0</v>
@@ -14759,25 +14849,25 @@
     </row>
     <row r="368" spans="1:10" ht="12.75">
       <c r="A368" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B368" s="2">
+        <v>31</v>
+      </c>
+      <c r="C368" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="B368" s="2">
-        <v>1</v>
-      </c>
-      <c r="C368" s="2" t="s">
+      <c r="D368" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G368" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E368" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F368" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G368" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="H368" s="2">
         <v>0</v>
@@ -14792,22 +14882,22 @@
         <v>906</v>
       </c>
       <c r="B369" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>907</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>907</v>
+        <v>13</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>908</v>
+        <v>13</v>
       </c>
       <c r="H369" s="2">
         <v>0</v>
@@ -14819,16 +14909,16 @@
     </row>
     <row r="370" spans="1:10" ht="12.75">
       <c r="A370" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B370" s="2">
+        <v>1</v>
+      </c>
+      <c r="C370" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="B370" s="2">
-        <v>8</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>910</v>
-      </c>
       <c r="D370" s="2" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>13</v>
@@ -14840,27 +14930,27 @@
         <v>13</v>
       </c>
       <c r="H370" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I370" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J370" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:10" ht="12.75">
       <c r="A371" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B371" s="2">
+        <v>1</v>
+      </c>
+      <c r="C371" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="B371" s="2">
-        <v>8</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>912</v>
-      </c>
       <c r="D371" s="2" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>13</v>
@@ -14881,25 +14971,25 @@
     </row>
     <row r="372" spans="1:10" ht="12.75">
       <c r="A372" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B372" s="2">
+        <v>1</v>
+      </c>
+      <c r="C372" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="B372" s="2">
-        <v>8</v>
-      </c>
-      <c r="C372" s="2" t="s">
+      <c r="D372" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G372" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E372" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F372" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G372" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="H372" s="2">
         <v>0</v>
@@ -14932,13 +15022,13 @@
         <v>13</v>
       </c>
       <c r="H373" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I373" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J373" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:10" ht="12.75">
@@ -14946,13 +15036,13 @@
         <v>917</v>
       </c>
       <c r="B374" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>918</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>13</v>
@@ -14976,13 +15066,13 @@
         <v>919</v>
       </c>
       <c r="B375" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>920</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>13</v>
@@ -15006,13 +15096,13 @@
         <v>921</v>
       </c>
       <c r="B376" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>922</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>13</v>
@@ -15024,25 +15114,27 @@
         <v>13</v>
       </c>
       <c r="H376" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I376" s="2">
         <v>0</v>
       </c>
-      <c r="J376" s="2"/>
+      <c r="J376" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="377" spans="1:10" ht="12.75">
       <c r="A377" s="2" t="s">
         <v>923</v>
       </c>
       <c r="B377" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>924</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>925</v>
+        <v>67</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>13</v>
@@ -15063,16 +15155,16 @@
     </row>
     <row r="378" spans="1:10" ht="12.75">
       <c r="A378" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B378" s="2">
+        <v>1</v>
+      </c>
+      <c r="C378" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="B378" s="2">
-        <v>3</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>927</v>
-      </c>
       <c r="D378" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>13</v>
@@ -15093,16 +15185,16 @@
     </row>
     <row r="379" spans="1:10" ht="12.75">
       <c r="A379" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B379" s="2">
+        <v>1</v>
+      </c>
+      <c r="C379" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="B379" s="2">
-        <v>3</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>929</v>
-      </c>
       <c r="D379" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>13</v>
@@ -15114,25 +15206,27 @@
         <v>13</v>
       </c>
       <c r="H379" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I379" s="2">
-        <v>0</v>
-      </c>
-      <c r="J379" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="J379" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="380" spans="1:10" ht="12.75">
       <c r="A380" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B380" s="2">
+        <v>11</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="B380" s="2">
-        <v>3</v>
-      </c>
-      <c r="C380" s="2" t="s">
+      <c r="D380" s="2" t="s">
         <v>931</v>
-      </c>
-      <c r="D380" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>13</v>
@@ -15156,16 +15250,16 @@
         <v>932</v>
       </c>
       <c r="B381" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>933</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>933</v>
+        <v>13</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>13</v>
@@ -15186,13 +15280,13 @@
         <v>934</v>
       </c>
       <c r="B382" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>935</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>935</v>
@@ -15216,16 +15310,16 @@
         <v>936</v>
       </c>
       <c r="B383" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>937</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>938</v>
+        <v>67</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>13</v>
+        <v>937</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>13</v>
@@ -15243,19 +15337,19 @@
     </row>
     <row r="384" spans="1:10" ht="12.75">
       <c r="A384" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B384" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>940</v>
+        <v>805</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>13</v>
+        <v>805</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>13</v>
@@ -15273,19 +15367,19 @@
     </row>
     <row r="385" spans="1:10" ht="12.75">
       <c r="A385" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B385" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>13</v>
+        <v>940</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>13</v>
@@ -15303,13 +15397,13 @@
     </row>
     <row r="386" spans="1:10" ht="12.75">
       <c r="A386" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B386" s="2">
         <v>3</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>12</v>
@@ -15318,10 +15412,10 @@
         <v>13</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>945</v>
+        <v>13</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>946</v>
+        <v>13</v>
       </c>
       <c r="H386" s="2">
         <v>0</v>
@@ -15333,13 +15427,13 @@
     </row>
     <row r="387" spans="1:10" ht="12.75">
       <c r="A387" s="2" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B387" s="2">
         <v>3</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>12</v>
@@ -15363,13 +15457,13 @@
     </row>
     <row r="388" spans="1:10" ht="12.75">
       <c r="A388" s="2" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B388" s="2">
         <v>3</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>12</v>
@@ -15393,19 +15487,19 @@
     </row>
     <row r="389" spans="1:10" ht="12.75">
       <c r="A389" s="2" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B389" s="2">
         <v>3</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>13</v>
+        <v>948</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>13</v>
@@ -15423,19 +15517,19 @@
     </row>
     <row r="390" spans="1:10" ht="12.75">
       <c r="A390" s="2" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B390" s="2">
         <v>3</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>13</v>
+        <v>950</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>13</v>
@@ -15453,25 +15547,25 @@
     </row>
     <row r="391" spans="1:10" ht="12.75">
       <c r="A391" s="2" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B391" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>958</v>
+        <v>13</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>959</v>
+        <v>13</v>
       </c>
       <c r="H391" s="2">
         <v>0</v>
@@ -15483,25 +15577,25 @@
     </row>
     <row r="392" spans="1:10" ht="12.75">
       <c r="A392" s="2" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="B392" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>957</v>
+        <v>12</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>962</v>
+        <v>13</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>963</v>
+        <v>13</v>
       </c>
       <c r="H392" s="2">
         <v>0</v>
@@ -15513,16 +15607,16 @@
     </row>
     <row r="393" spans="1:10" ht="12.75">
       <c r="A393" s="2" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="B393" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>957</v>
+        <v>12</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>13</v>
@@ -15531,7 +15625,7 @@
         <v>13</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>966</v>
+        <v>13</v>
       </c>
       <c r="H393" s="2">
         <v>0</v>
@@ -15543,25 +15637,25 @@
     </row>
     <row r="394" spans="1:10" ht="12.75">
       <c r="A394" s="2" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="B394" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>957</v>
+        <v>12</v>
       </c>
       <c r="E394" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F394" s="2" t="s">
-        <v>13</v>
+        <v>960</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="H394" s="2">
         <v>0</v>
@@ -15573,16 +15667,16 @@
     </row>
     <row r="395" spans="1:10" ht="12.75">
       <c r="A395" s="2" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="B395" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>957</v>
+        <v>12</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>13</v>
@@ -15591,7 +15685,7 @@
         <v>13</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>972</v>
+        <v>13</v>
       </c>
       <c r="H395" s="2">
         <v>0</v>
@@ -15603,25 +15697,25 @@
     </row>
     <row r="396" spans="1:10" ht="12.75">
       <c r="A396" s="2" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="B396" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>957</v>
+        <v>12</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>974</v>
+        <v>13</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>975</v>
+        <v>13</v>
       </c>
       <c r="H396" s="2">
         <v>0</v>
@@ -15633,16 +15727,16 @@
     </row>
     <row r="397" spans="1:10" ht="12.75">
       <c r="A397" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="B397" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>741</v>
+        <v>12</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>13</v>
@@ -15663,16 +15757,16 @@
     </row>
     <row r="398" spans="1:10" ht="12.75">
       <c r="A398" s="2" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="B398" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>957</v>
+        <v>12</v>
       </c>
       <c r="E398" s="2" t="s">
         <v>13</v>
@@ -15681,7 +15775,7 @@
         <v>13</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="H398" s="2">
         <v>0</v>
@@ -15693,35 +15787,275 @@
     </row>
     <row r="399" spans="1:10" ht="12.75">
       <c r="A399" s="2" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="B399" s="2">
         <v>2</v>
       </c>
       <c r="C399" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="G399" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="H399" s="2">
+        <v>0</v>
+      </c>
+      <c r="I399" s="2">
+        <v>0</v>
+      </c>
+      <c r="J399" s="2"/>
+    </row>
+    <row r="400" spans="1:10" ht="12.75">
+      <c r="A400" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="B400" s="2">
+        <v>2</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F400" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="G400" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="H400" s="2">
+        <v>0</v>
+      </c>
+      <c r="I400" s="2">
+        <v>0</v>
+      </c>
+      <c r="J400" s="2"/>
+    </row>
+    <row r="401" spans="1:10" ht="12.75">
+      <c r="A401" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B401" s="2">
+        <v>2</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G401" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="H401" s="2">
+        <v>0</v>
+      </c>
+      <c r="I401" s="2">
+        <v>0</v>
+      </c>
+      <c r="J401" s="2"/>
+    </row>
+    <row r="402" spans="1:10" ht="12.75">
+      <c r="A402" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="D399" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="E399" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F399" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G399" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H399" s="2">
-        <v>0</v>
-      </c>
-      <c r="I399" s="2">
-        <v>0</v>
-      </c>
-      <c r="J399" s="2"/>
-    </row>
-    <row r="400" ht="12.75"/>
+      <c r="B402" s="2">
+        <v>2</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G402" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="H402" s="2">
+        <v>0</v>
+      </c>
+      <c r="I402" s="2">
+        <v>0</v>
+      </c>
+      <c r="J402" s="2"/>
+    </row>
+    <row r="403" spans="1:10" ht="12.75">
+      <c r="A403" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="B403" s="2">
+        <v>2</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G403" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="H403" s="2">
+        <v>0</v>
+      </c>
+      <c r="I403" s="2">
+        <v>0</v>
+      </c>
+      <c r="J403" s="2"/>
+    </row>
+    <row r="404" spans="1:10" ht="12.75">
+      <c r="A404" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B404" s="2">
+        <v>2</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="G404" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="H404" s="2">
+        <v>0</v>
+      </c>
+      <c r="I404" s="2">
+        <v>0</v>
+      </c>
+      <c r="J404" s="2"/>
+    </row>
+    <row r="405" spans="1:10" ht="12.75">
+      <c r="A405" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="B405" s="2">
+        <v>6</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G405" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H405" s="2">
+        <v>0</v>
+      </c>
+      <c r="I405" s="2">
+        <v>0</v>
+      </c>
+      <c r="J405" s="2"/>
+    </row>
+    <row r="406" spans="1:10" ht="12.75">
+      <c r="A406" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="B406" s="2">
+        <v>2</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G406" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="H406" s="2">
+        <v>0</v>
+      </c>
+      <c r="I406" s="2">
+        <v>0</v>
+      </c>
+      <c r="J406" s="2"/>
+    </row>
+    <row r="407" spans="1:10" ht="12.75">
+      <c r="A407" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="B407" s="2">
+        <v>2</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G407" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H407" s="2">
+        <v>0</v>
+      </c>
+      <c r="I407" s="2">
+        <v>0</v>
+      </c>
+      <c r="J407" s="2"/>
+    </row>
+    <row r="408" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
